--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="12">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,7 +63,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AK</t>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>D1K</t>
+  </si>
+  <si>
+    <t>D2K</t>
   </si>
 </sst>
 </file>
@@ -208,6 +214,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -556,13 +567,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>8.8150268000000001</v>
+        <v>0.35504560000000002</v>
       </c>
       <c r="C3" s="2">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="D3" s="2">
-        <v>413.92509999999999</v>
+        <v>79.922300000000007</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -574,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.95" customHeight="1">
@@ -582,25 +593,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>18.410086</v>
+        <v>0.46832109999999999</v>
       </c>
       <c r="C4" s="3">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="D4" s="3">
-        <v>1160.0481</v>
+        <v>79.977599999999995</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
@@ -608,25 +619,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>23.218821200000001</v>
+        <v>1.4325637</v>
       </c>
       <c r="C5" s="2">
-        <v>1200</v>
+        <v>325</v>
       </c>
       <c r="D5" s="2">
-        <v>660.5539</v>
+        <v>320.74079999999998</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1">
@@ -634,25 +645,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>24.143144800000002</v>
+        <v>2.604101</v>
       </c>
       <c r="C6" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="D6" s="3">
-        <v>351.75470000000001</v>
+        <v>276.13830000000002</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.95" customHeight="1">
@@ -660,13 +671,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>25.386436700000001</v>
+        <v>3.0201476999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="D7" s="2">
-        <v>806.60709999999995</v>
+        <v>275.46269999999998</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -675,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1">
@@ -686,25 +697,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>28.2225216</v>
+        <v>4.3201048000000002</v>
       </c>
       <c r="C8" s="3">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D8" s="3">
-        <v>387.69420000000002</v>
+        <v>560.47230000000002</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1">
@@ -712,13 +723,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>29.090230699999999</v>
+        <v>6.3039823000000004</v>
       </c>
       <c r="C9" s="2">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D9" s="2">
-        <v>248.12979999999999</v>
+        <v>671.06489999999997</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -727,10 +738,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1">
@@ -738,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>30.3966368</v>
+        <v>7.5520752</v>
       </c>
       <c r="C10" s="3">
         <v>2500</v>
       </c>
       <c r="D10" s="3">
-        <v>228.9718</v>
+        <v>1416.252</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1">
@@ -764,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>41.062516799999997</v>
+        <v>9.1729740999999994</v>
       </c>
       <c r="C11" s="2">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D11" s="2">
-        <v>138.83340000000001</v>
+        <v>872.4742</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -779,10 +790,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1">
@@ -790,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>46.041037899999999</v>
+        <v>10.4646531</v>
       </c>
       <c r="C12" s="3">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D12" s="3">
-        <v>126.7405</v>
+        <v>1335.6916000000001</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -805,10 +816,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1">
@@ -816,16 +827,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>53.716487299999997</v>
+        <v>12.4706172</v>
       </c>
       <c r="C13" s="2">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="D13" s="2">
-        <v>151.25919999999999</v>
+        <v>509.44619999999998</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -834,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1">
@@ -842,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>67.748937999999995</v>
+        <v>14.681685399999999</v>
       </c>
       <c r="C14" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="D14" s="3">
-        <v>267.22320000000002</v>
+        <v>846.96929999999998</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -860,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1">
@@ -868,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>68.581159799999995</v>
+        <v>16.279815200000002</v>
       </c>
       <c r="C15" s="2">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="D15" s="2">
-        <v>505.65100000000001</v>
+        <v>2445.8303999999998</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -886,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
@@ -894,22 +905,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>70.361262400000001</v>
+        <v>19.832698000000001</v>
       </c>
       <c r="C16" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="D16" s="3">
-        <v>389.50700000000001</v>
+        <v>1533.9428</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -920,22 +931,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>77.919065399999994</v>
+        <v>24.4469916</v>
       </c>
       <c r="C17" s="2">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D17" s="2">
-        <v>236.32679999999999</v>
+        <v>1613.0373</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
@@ -946,22 +957,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>86.291436599999997</v>
+        <v>26.681803200000001</v>
       </c>
       <c r="C18" s="3">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="D18" s="3">
-        <v>175.29509999999999</v>
+        <v>889.77049999999997</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -972,22 +983,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>93.884428700000001</v>
+        <v>31.232010599999999</v>
       </c>
       <c r="C19" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D19" s="2">
-        <v>124.6794</v>
+        <v>3041.8251</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
@@ -998,22 +1009,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>102.5612744</v>
+        <v>35.711745000000001</v>
       </c>
       <c r="C20" s="3">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="D20" s="3">
-        <v>176.20959999999999</v>
+        <v>1647.6842999999999</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -1024,22 +1035,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>104.8662388</v>
+        <v>39.5294405</v>
       </c>
       <c r="C21" s="2">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="D21" s="2">
-        <v>384.25200000000001</v>
+        <v>1283.3810000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>9</v>
@@ -1050,13 +1061,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>108.8824331</v>
+        <v>45.908502800000001</v>
       </c>
       <c r="C22" s="3">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="D22" s="3">
-        <v>230.33799999999999</v>
+        <v>914.09280000000001</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1065,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -1076,13 +1087,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>112.63306540000001</v>
+        <v>50.212110600000003</v>
       </c>
       <c r="C23" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D23" s="2">
-        <v>185.56630000000001</v>
+        <v>2037.2986000000001</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -1091,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>9</v>
@@ -1102,22 +1113,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>126.83531480000001</v>
+        <v>54.653600300000001</v>
       </c>
       <c r="C24" s="3">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="D24" s="3">
-        <v>128.75710000000001</v>
+        <v>895.25890000000004</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -1128,22 +1139,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>137.79255900000001</v>
+        <v>64.713452700000005</v>
       </c>
       <c r="C25" s="2">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="D25" s="2">
-        <v>727.55359999999996</v>
+        <v>891.67079999999999</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>9</v>
@@ -1153,505 +1164,1093 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="6">
+        <v>66.460943700000001</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1514.5809999999999</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="5">
+        <v>70.164216100000004</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1797.2168999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="B28" s="6">
+        <v>75.723988800000001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1390.5661</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="5">
+        <v>84.607474600000003</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1221.5586000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="B30" s="6">
+        <v>87.794082200000005</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1433.7256</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="B31" s="5">
+        <v>91.670477700000006</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3083.8926999999999</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="B32" s="6">
+        <v>95.834957799999998</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3862.9119000000001</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="B33" s="5">
+        <v>103.2346871</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D33" s="2">
+        <v>885.35029999999995</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="B34" s="6">
+        <v>104.53316820000001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1054.4203</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>5</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="B35" s="5">
+        <v>106.1357045</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1107.0653</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="B36" s="6">
+        <v>109.2474746</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2874.0940999999998</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="B37" s="5">
+        <v>112.3805614</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1447.1541</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="B38" s="6">
+        <v>116.7227807</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1133.674</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>5</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="B39" s="5">
+        <v>118.3946509</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1074.3869999999999</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="B40" s="6">
+        <v>119.726568</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2361.0083</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>5</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="B41" s="5">
+        <v>122.3500774</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1737.2747999999999</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="B42" s="6">
+        <v>125.4328622</v>
+      </c>
+      <c r="C42" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>991.69119999999998</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="B43" s="5">
+        <v>129.66437809999999</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1615.9038</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="B44" s="6">
+        <v>133.29127600000001</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2348.7876000000001</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="B45" s="5">
+        <v>137.94787199999999</v>
+      </c>
+      <c r="C45" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1490.7364</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="B46" s="6">
+        <v>141.77516739999999</v>
+      </c>
+      <c r="C46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2965.5155</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>7</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="B47" s="5">
+        <v>145.87842309999999</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1773.8426999999999</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>7</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="B48" s="6">
+        <v>149.49892130000001</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2045.1869999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="B49" s="5">
+        <v>151.97178729999999</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1508.1836000000001</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="B50" s="6">
+        <v>153.92096319999999</v>
+      </c>
+      <c r="C50" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1158.53</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="B51" s="5">
+        <v>157.53112189999999</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1323.3933999999999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="B52" s="6">
+        <v>159.58991570000001</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2438.431</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="B53" s="5">
+        <v>163.1828198</v>
+      </c>
+      <c r="C53" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2155.1709999999998</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="B54" s="6">
+        <v>170.09447639999999</v>
+      </c>
+      <c r="C54" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1116.8206</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="B55" s="5">
+        <v>171.6329337</v>
+      </c>
+      <c r="C55" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1538.5392999999999</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="B56" s="6">
+        <v>174.5417301</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2869.8040000000001</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>8</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="B57" s="5">
+        <v>178.74640339999999</v>
+      </c>
+      <c r="C57" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1190.8480999999999</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>8</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="B58" s="6">
+        <v>182.4995495</v>
+      </c>
+      <c r="C58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D58" s="3">
+        <v>3210.2480999999998</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="B59" s="5">
+        <v>189.8208186</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1555.3396</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>8</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="B60" s="6">
+        <v>193.5010858</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3838.4857999999999</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="B61" s="5">
+        <v>197.66951</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2931.415</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>8</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="B62" s="6">
+        <v>201.0910796</v>
+      </c>
+      <c r="C62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D62" s="3">
+        <v>915.69460000000004</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="B63" s="5">
+        <v>202.9052868</v>
+      </c>
+      <c r="C63" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2945.14</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>8</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="B64" s="6">
+        <v>206.25416269999999</v>
+      </c>
+      <c r="C64" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2293.8325</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
+        <v>8</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="B65" s="5">
+        <v>214.07454709999999</v>
+      </c>
+      <c r="C65" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1811.9372000000001</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>8</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="B66" s="6">
+        <v>217.47223790000001</v>
+      </c>
+      <c r="C66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1639.0617999999999</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="18.95" customHeight="1">
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="B67" s="5">
+        <v>219.71860169999999</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2647.5855000000001</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>8</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
       <c r="A68" s="3">
@@ -12932,13 +13531,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>9.2289519000000002</v>
+        <v>0.43496790000000002</v>
       </c>
       <c r="C3" s="2">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="D3" s="2">
-        <v>413.92509999999999</v>
+        <v>79.922300000000007</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -12950,7 +13549,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.95" customHeight="1">
@@ -12958,25 +13557,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>19.570134100000001</v>
+        <v>0.54829870000000003</v>
       </c>
       <c r="C4" s="3">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="D4" s="3">
-        <v>1160.0481</v>
+        <v>79.977599999999995</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
@@ -12984,25 +13583,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>23.879375100000001</v>
+        <v>1.7533045</v>
       </c>
       <c r="C5" s="2">
-        <v>1200</v>
+        <v>325</v>
       </c>
       <c r="D5" s="2">
-        <v>660.5539</v>
+        <v>320.74079999999998</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1">
@@ -13010,25 +13609,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>24.494899500000002</v>
+        <v>2.8802392999999999</v>
       </c>
       <c r="C6" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="D6" s="3">
-        <v>351.75470000000001</v>
+        <v>276.13830000000002</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.95" customHeight="1">
@@ -13036,13 +13635,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>26.193043800000002</v>
+        <v>3.2956103999999997</v>
       </c>
       <c r="C7" s="2">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="D7" s="2">
-        <v>806.60709999999995</v>
+        <v>275.46269999999998</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -13051,10 +13650,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1">
@@ -13062,25 +13661,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>28.610215799999999</v>
+        <v>4.8805771</v>
       </c>
       <c r="C8" s="3">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D8" s="3">
-        <v>387.69420000000002</v>
+        <v>560.47230000000002</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1">
@@ -13088,13 +13687,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>29.3383605</v>
+        <v>6.9750472000000006</v>
       </c>
       <c r="C9" s="2">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D9" s="2">
-        <v>248.12979999999999</v>
+        <v>671.06489999999997</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -13103,10 +13702,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1">
@@ -13114,25 +13713,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>30.6256086</v>
+        <v>8.9683271999999992</v>
       </c>
       <c r="C10" s="3">
         <v>2500</v>
       </c>
       <c r="D10" s="3">
-        <v>228.9718</v>
+        <v>1416.252</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1">
@@ -13140,13 +13739,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>41.2013502</v>
+        <v>10.045448299999999</v>
       </c>
       <c r="C11" s="2">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D11" s="2">
-        <v>138.83340000000001</v>
+        <v>872.4742</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -13155,10 +13754,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1">
@@ -13166,13 +13765,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>46.167778399999996</v>
+        <v>11.8003447</v>
       </c>
       <c r="C12" s="3">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D12" s="3">
-        <v>126.7405</v>
+        <v>1335.6916000000001</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -13181,10 +13780,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1">
@@ -13192,16 +13791,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>53.867746499999996</v>
+        <v>12.980063399999999</v>
       </c>
       <c r="C13" s="2">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="D13" s="2">
-        <v>151.25919999999999</v>
+        <v>509.44619999999998</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -13210,7 +13809,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1">
@@ -13218,13 +13817,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>68.016161199999999</v>
+        <v>15.528654699999999</v>
       </c>
       <c r="C14" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="D14" s="3">
-        <v>267.22320000000002</v>
+        <v>846.96929999999998</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -13236,7 +13835,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1">
@@ -13244,13 +13843,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>69.086810799999995</v>
+        <v>18.7256456</v>
       </c>
       <c r="C15" s="2">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="D15" s="2">
-        <v>505.65100000000001</v>
+        <v>2445.8303999999998</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -13262,7 +13861,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
@@ -13270,22 +13869,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>70.750769399999996</v>
+        <v>21.366640799999999</v>
       </c>
       <c r="C16" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="D16" s="3">
-        <v>389.50700000000001</v>
+        <v>1533.9428</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -13296,22 +13895,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>78.155392199999994</v>
+        <v>26.060028899999999</v>
       </c>
       <c r="C17" s="2">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D17" s="2">
-        <v>236.32679999999999</v>
+        <v>1613.0373</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
@@ -13322,22 +13921,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>86.466731699999997</v>
+        <v>27.571573700000002</v>
       </c>
       <c r="C18" s="3">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="D18" s="3">
-        <v>175.29509999999999</v>
+        <v>889.77049999999997</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -13348,22 +13947,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>94.009108100000006</v>
+        <v>34.273835699999999</v>
       </c>
       <c r="C19" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D19" s="2">
-        <v>124.6794</v>
+        <v>3041.8251</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
@@ -13374,22 +13973,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>102.73748400000001</v>
+        <v>37.359429300000002</v>
       </c>
       <c r="C20" s="3">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="D20" s="3">
-        <v>176.20959999999999</v>
+        <v>1647.6842999999999</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -13400,22 +13999,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>105.25049080000001</v>
+        <v>40.812821499999998</v>
       </c>
       <c r="C21" s="2">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="D21" s="2">
-        <v>384.25200000000001</v>
+        <v>1283.3810000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>9</v>
@@ -13426,13 +14025,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>109.1127711</v>
+        <v>46.8225956</v>
       </c>
       <c r="C22" s="3">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="D22" s="3">
-        <v>230.33799999999999</v>
+        <v>914.09280000000001</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -13441,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -13452,13 +14051,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>112.81863170000001</v>
+        <v>52.249409200000002</v>
       </c>
       <c r="C23" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D23" s="2">
-        <v>185.56630000000001</v>
+        <v>2037.2986000000001</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -13467,7 +14066,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>9</v>
@@ -13478,22 +14077,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>126.96407190000001</v>
+        <v>55.548859200000003</v>
       </c>
       <c r="C24" s="3">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="D24" s="3">
-        <v>128.75710000000001</v>
+        <v>895.25890000000004</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -13504,22 +14103,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>138.5201126</v>
+        <v>65.605123500000005</v>
       </c>
       <c r="C25" s="2">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="D25" s="2">
-        <v>727.55359999999996</v>
+        <v>891.67079999999999</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>9</v>
@@ -13529,505 +14128,1093 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="6">
+        <v>67.975524700000008</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1514.5809999999999</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="5">
+        <v>71.961433</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1797.2168999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="B28" s="6">
+        <v>77.114554900000002</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1390.5661</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="5">
+        <v>85.829033199999998</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1221.5586000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="B30" s="6">
+        <v>89.227807800000008</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1433.7256</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="B31" s="5">
+        <v>94.754370399999999</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3083.8926999999999</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="B32" s="6">
+        <v>99.697869699999998</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3862.9119000000001</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="B33" s="5">
+        <v>104.1200374</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D33" s="2">
+        <v>885.35029999999995</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="B34" s="6">
+        <v>105.58758850000001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1054.4203</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>5</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="B35" s="5">
+        <v>107.2427698</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1107.0653</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="B36" s="6">
+        <v>112.1215687</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2874.0940999999998</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="B37" s="5">
+        <v>113.82771550000001</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1447.1541</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="B38" s="6">
+        <v>117.8564547</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1133.674</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>5</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="B39" s="5">
+        <v>119.4690379</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1074.3869999999999</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="B40" s="6">
+        <v>122.08757629999999</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2361.0083</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>5</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="B41" s="5">
+        <v>124.0873522</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1737.2747999999999</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="B42" s="6">
+        <v>126.42455340000001</v>
+      </c>
+      <c r="C42" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>991.69119999999998</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="B43" s="5">
+        <v>131.28028190000001</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1615.9038</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="B44" s="6">
+        <v>135.64006360000002</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2348.7876000000001</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="B45" s="5">
+        <v>139.43860839999999</v>
+      </c>
+      <c r="C45" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1490.7364</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="B46" s="6">
+        <v>144.7406829</v>
+      </c>
+      <c r="C46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2965.5155</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>7</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="B47" s="5">
+        <v>147.65226579999998</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1773.8426999999999</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>7</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="B48" s="6">
+        <v>151.5441083</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2045.1869999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="B49" s="5">
+        <v>153.47997089999998</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1508.1836000000001</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="B50" s="6">
+        <v>155.0794932</v>
+      </c>
+      <c r="C50" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1158.53</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="B51" s="5">
+        <v>158.85451529999997</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1323.3933999999999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="B52" s="6">
+        <v>162.02834670000001</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2438.431</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="B53" s="5">
+        <v>165.3379908</v>
+      </c>
+      <c r="C53" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2155.1709999999998</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="B54" s="6">
+        <v>171.211297</v>
+      </c>
+      <c r="C54" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1116.8206</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="B55" s="5">
+        <v>173.17147299999999</v>
+      </c>
+      <c r="C55" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1538.5392999999999</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="B56" s="6">
+        <v>177.41153409999998</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2869.8040000000001</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>8</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="B57" s="5">
+        <v>179.9372515</v>
+      </c>
+      <c r="C57" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1190.8480999999999</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>8</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="B58" s="6">
+        <v>185.7097976</v>
+      </c>
+      <c r="C58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D58" s="3">
+        <v>3210.2480999999998</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="B59" s="5">
+        <v>191.37615819999999</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1555.3396</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>8</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="B60" s="6">
+        <v>197.3395716</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3838.4857999999999</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="B61" s="5">
+        <v>200.60092499999999</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2931.415</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>8</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="B62" s="6">
+        <v>202.0067742</v>
+      </c>
+      <c r="C62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D62" s="3">
+        <v>915.69460000000004</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="B63" s="5">
+        <v>205.85042680000001</v>
+      </c>
+      <c r="C63" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2945.14</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>8</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="B64" s="6">
+        <v>208.5479952</v>
+      </c>
+      <c r="C64" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2293.8325</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>8</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="B65" s="5">
+        <v>215.88648429999998</v>
+      </c>
+      <c r="C65" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1811.9372000000001</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>8</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="B66" s="6">
+        <v>219.11129970000002</v>
+      </c>
+      <c r="C66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1639.0617999999999</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="18.95" customHeight="1">
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="B67" s="5">
+        <v>222.36618719999998</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2647.5855000000001</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>8</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
       <c r="A68" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="10">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,13 +63,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>D1K</t>
-  </si>
-  <si>
-    <t>D2K</t>
+    <t>CK</t>
   </si>
 </sst>
 </file>
@@ -567,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>0.35504560000000002</v>
+        <v>0.23371220000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>1400</v>
+        <v>250</v>
       </c>
       <c r="D3" s="2">
-        <v>79.922300000000007</v>
+        <v>150.28270000000001</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -585,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.95" customHeight="1">
@@ -593,16 +587,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>0.46832109999999999</v>
+        <v>0.52724170000000004</v>
       </c>
       <c r="C4" s="3">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="D4" s="3">
-        <v>79.977599999999995</v>
+        <v>117.30970000000001</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -611,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
@@ -619,16 +613,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>1.4325637</v>
+        <v>0.68733359999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="D5" s="2">
-        <v>320.74079999999998</v>
+        <v>526.28949999999998</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -637,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1">
@@ -645,16 +639,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>2.604101</v>
+        <v>1.2505014999999999</v>
       </c>
       <c r="C6" s="3">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="D6" s="3">
-        <v>276.13830000000002</v>
+        <v>114.96420000000001</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -663,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.95" customHeight="1">
@@ -671,13 +665,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>3.0201476999999999</v>
+        <v>1.9380343</v>
       </c>
       <c r="C7" s="2">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D7" s="2">
-        <v>275.46269999999998</v>
+        <v>232.89940000000001</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -689,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1">
@@ -697,16 +691,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>4.3201048000000002</v>
+        <v>2.6651658</v>
       </c>
       <c r="C8" s="3">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="D8" s="3">
-        <v>560.47230000000002</v>
+        <v>170.99529999999999</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -715,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1">
@@ -723,13 +717,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>6.3039823000000004</v>
+        <v>3.3216020999999998</v>
       </c>
       <c r="C9" s="2">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D9" s="2">
-        <v>671.06489999999997</v>
+        <v>217.04859999999999</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -741,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1">
@@ -749,16 +743,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>7.5520752</v>
+        <v>3.6657771000000001</v>
       </c>
       <c r="C10" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D10" s="3">
-        <v>1416.252</v>
+        <v>172.87299999999999</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -767,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1">
@@ -775,16 +769,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>9.1729740999999994</v>
+        <v>6.3781837000000001</v>
       </c>
       <c r="C11" s="2">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="D11" s="2">
-        <v>872.4742</v>
+        <v>138.6842</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -793,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1">
@@ -801,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>10.4646531</v>
+        <v>6.5907226000000003</v>
       </c>
       <c r="C12" s="3">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D12" s="3">
-        <v>1335.6916000000001</v>
+        <v>326.4169</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -819,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1">
@@ -827,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>12.4706172</v>
+        <v>7.1383960000000002</v>
       </c>
       <c r="C13" s="2">
-        <v>7000</v>
+        <v>150</v>
       </c>
       <c r="D13" s="2">
-        <v>509.44619999999998</v>
+        <v>290.20179999999999</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -842,10 +836,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1">
@@ -853,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>14.681685399999999</v>
+        <v>8.453443</v>
       </c>
       <c r="C14" s="3">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="D14" s="3">
-        <v>846.96929999999998</v>
+        <v>523.89909999999998</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -868,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1">
@@ -879,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>16.279815200000002</v>
+        <v>9.4406675</v>
       </c>
       <c r="C15" s="2">
-        <v>2800</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2">
-        <v>2445.8303999999998</v>
+        <v>237.42850000000001</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -894,10 +888,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
@@ -905,22 +899,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>19.832698000000001</v>
+        <v>9.7114700000000003</v>
       </c>
       <c r="C16" s="3">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="D16" s="3">
-        <v>1533.9428</v>
+        <v>173.08680000000001</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -931,22 +925,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>24.4469916</v>
+        <v>10.6565209</v>
       </c>
       <c r="C17" s="2">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="2">
-        <v>1613.0373</v>
+        <v>421.71879999999999</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
@@ -957,22 +951,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>26.681803200000001</v>
+        <v>11.9070626</v>
       </c>
       <c r="C18" s="3">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="D18" s="3">
-        <v>889.77049999999997</v>
+        <v>358.23899999999998</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -983,13 +977,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>31.232010599999999</v>
+        <v>12.7001577</v>
       </c>
       <c r="C19" s="2">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="D19" s="2">
-        <v>3041.8251</v>
+        <v>131.82669999999999</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -998,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
@@ -1009,22 +1003,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>35.711745000000001</v>
+        <v>13.458499</v>
       </c>
       <c r="C20" s="3">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="D20" s="3">
-        <v>1647.6842999999999</v>
+        <v>454.32209999999998</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -1035,22 +1029,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>39.5294405</v>
+        <v>15.4008541</v>
       </c>
       <c r="C21" s="2">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="D21" s="2">
-        <v>1283.3810000000001</v>
+        <v>423.3587</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>9</v>
@@ -1061,13 +1055,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>45.908502800000001</v>
+        <v>17.287118</v>
       </c>
       <c r="C22" s="3">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="D22" s="3">
-        <v>914.09280000000001</v>
+        <v>300.29579999999999</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1076,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -1087,22 +1081,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>50.212110600000003</v>
+        <v>17.711524300000001</v>
       </c>
       <c r="C23" s="2">
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="D23" s="2">
-        <v>2037.2986000000001</v>
+        <v>143.64429999999999</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>9</v>
@@ -1113,22 +1107,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>54.653600300000001</v>
+        <v>18.001266600000001</v>
       </c>
       <c r="C24" s="3">
-        <v>9000</v>
+        <v>150</v>
       </c>
       <c r="D24" s="3">
-        <v>895.25890000000004</v>
+        <v>270.21460000000002</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -1138,1119 +1132,517 @@
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>64.713452700000005</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D25" s="2">
-        <v>891.67079999999999</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>4</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
-        <v>66.460943700000001</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1514.5809999999999</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>70.164216100000004</v>
-      </c>
-      <c r="C27" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1797.2168999999999</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
-        <v>75.723988800000001</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1390.5661</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>5</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>84.607474600000003</v>
-      </c>
-      <c r="C29" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1221.5586000000001</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6">
-        <v>87.794082200000005</v>
-      </c>
-      <c r="C30" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1433.7256</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>5</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>91.670477700000006</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D31" s="2">
-        <v>3083.8926999999999</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
-        <v>95.834957799999998</v>
-      </c>
-      <c r="C32" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3862.9119000000001</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>103.2346871</v>
-      </c>
-      <c r="C33" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D33" s="2">
-        <v>885.35029999999995</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>5</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
-        <v>104.53316820000001</v>
-      </c>
-      <c r="C34" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1054.4203</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>5</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>106.1357045</v>
-      </c>
-      <c r="C35" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1107.0653</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>5</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
-        <v>109.2474746</v>
-      </c>
-      <c r="C36" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2874.0940999999998</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>5</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
-        <v>112.3805614</v>
-      </c>
-      <c r="C37" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1447.1541</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>5</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
-        <v>116.7227807</v>
-      </c>
-      <c r="C38" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1133.674</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>5</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>118.3946509</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1074.3869999999999</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2">
-        <v>5</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6">
-        <v>119.726568</v>
-      </c>
-      <c r="C40" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D40" s="3">
-        <v>2361.0083</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>5</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>122.3500774</v>
-      </c>
-      <c r="C41" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1737.2747999999999</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>5</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
-        <v>125.4328622</v>
-      </c>
-      <c r="C42" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D42" s="3">
-        <v>991.69119999999998</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>129.66437809999999</v>
-      </c>
-      <c r="C43" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1615.9038</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>6</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6">
-        <v>133.29127600000001</v>
-      </c>
-      <c r="C44" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2348.7876000000001</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
-        <v>137.94787199999999</v>
-      </c>
-      <c r="C45" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1490.7364</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2">
-        <v>6</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6">
-        <v>141.77516739999999</v>
-      </c>
-      <c r="C46" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2965.5155</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>7</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
-        <v>145.87842309999999</v>
-      </c>
-      <c r="C47" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1773.8426999999999</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2">
-        <v>7</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6">
-        <v>149.49892130000001</v>
-      </c>
-      <c r="C48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D48" s="3">
-        <v>2045.1869999999999</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
-        <v>151.97178729999999</v>
-      </c>
-      <c r="C49" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1508.1836000000001</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1</v>
-      </c>
-      <c r="G49" s="2">
-        <v>8</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6">
-        <v>153.92096319999999</v>
-      </c>
-      <c r="C50" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1158.53</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
-        <v>8</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
-        <v>157.53112189999999</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1323.3933999999999</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2">
-        <v>8</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6">
-        <v>159.58991570000001</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D52" s="3">
-        <v>2438.431</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
-        <v>163.1828198</v>
-      </c>
-      <c r="C53" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2155.1709999999998</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2">
-        <v>8</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6">
-        <v>170.09447639999999</v>
-      </c>
-      <c r="C54" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1116.8206</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
-        <v>171.6329337</v>
-      </c>
-      <c r="C55" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1538.5392999999999</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
-        <v>1</v>
-      </c>
-      <c r="G55" s="2">
-        <v>8</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6">
-        <v>174.5417301</v>
-      </c>
-      <c r="C56" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D56" s="3">
-        <v>2869.8040000000001</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>8</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
-        <v>178.74640339999999</v>
-      </c>
-      <c r="C57" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1190.8480999999999</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
-      <c r="G57" s="2">
-        <v>8</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6">
-        <v>182.4995495</v>
-      </c>
-      <c r="C58" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D58" s="3">
-        <v>3210.2480999999998</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
-        <v>189.8208186</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1555.3396</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2">
-        <v>1</v>
-      </c>
-      <c r="G59" s="2">
-        <v>8</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6">
-        <v>193.5010858</v>
-      </c>
-      <c r="C60" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D60" s="3">
-        <v>3838.4857999999999</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
-        <v>197.66951</v>
-      </c>
-      <c r="C61" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2931.415</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2">
-        <v>1</v>
-      </c>
-      <c r="G61" s="2">
-        <v>8</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6">
-        <v>201.0910796</v>
-      </c>
-      <c r="C62" s="3">
-        <v>9000</v>
-      </c>
-      <c r="D62" s="3">
-        <v>915.69460000000004</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
-        <v>202.9052868</v>
-      </c>
-      <c r="C63" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D63" s="2">
-        <v>2945.14</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1</v>
-      </c>
-      <c r="G63" s="2">
-        <v>8</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="6">
-        <v>206.25416269999999</v>
-      </c>
-      <c r="C64" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D64" s="3">
-        <v>2293.8325</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3">
-        <v>8</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="5">
-        <v>214.07454709999999</v>
-      </c>
-      <c r="C65" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1811.9372000000001</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2">
-        <v>1</v>
-      </c>
-      <c r="G65" s="2">
-        <v>8</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="6">
-        <v>217.47223790000001</v>
-      </c>
-      <c r="C66" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D66" s="3">
-        <v>1639.0617999999999</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" ht="18.95" customHeight="1">
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="5">
-        <v>219.71860169999999</v>
-      </c>
-      <c r="C67" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D67" s="2">
-        <v>2647.5855000000001</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1</v>
-      </c>
-      <c r="F67" s="2">
-        <v>1</v>
-      </c>
-      <c r="G67" s="2">
-        <v>8</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
       <c r="A68" s="3">
@@ -13531,16 +12923,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>0.43496790000000002</v>
+        <v>0.38399490000000003</v>
       </c>
       <c r="C3" s="2">
-        <v>1400</v>
+        <v>250</v>
       </c>
       <c r="D3" s="2">
-        <v>79.922300000000007</v>
+        <v>150.28270000000001</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -13549,7 +12941,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.95" customHeight="1">
@@ -13557,16 +12949,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>0.54829870000000003</v>
+        <v>0.6445514</v>
       </c>
       <c r="C4" s="3">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="D4" s="3">
-        <v>79.977599999999995</v>
+        <v>117.30970000000001</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -13575,7 +12967,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
@@ -13583,16 +12975,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>1.7533045</v>
+        <v>1.2136231</v>
       </c>
       <c r="C5" s="2">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="D5" s="2">
-        <v>320.74079999999998</v>
+        <v>526.28949999999998</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -13601,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1">
@@ -13609,16 +13001,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>2.8802392999999999</v>
+        <v>1.3654656999999999</v>
       </c>
       <c r="C6" s="3">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="D6" s="3">
-        <v>276.13830000000002</v>
+        <v>114.96420000000001</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -13627,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.95" customHeight="1">
@@ -13635,13 +13027,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>3.2956103999999997</v>
+        <v>2.1709337</v>
       </c>
       <c r="C7" s="2">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D7" s="2">
-        <v>275.46269999999998</v>
+        <v>232.89940000000001</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -13653,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1">
@@ -13661,16 +13053,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>4.8805771</v>
+        <v>2.8361611</v>
       </c>
       <c r="C8" s="3">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="D8" s="3">
-        <v>560.47230000000002</v>
+        <v>170.99529999999999</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -13679,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1">
@@ -13687,13 +13079,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>6.9750472000000006</v>
+        <v>3.5386506999999998</v>
       </c>
       <c r="C9" s="2">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D9" s="2">
-        <v>671.06489999999997</v>
+        <v>217.04859999999999</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -13705,7 +13097,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1">
@@ -13713,16 +13105,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>8.9683271999999992</v>
+        <v>3.8386501000000002</v>
       </c>
       <c r="C10" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D10" s="3">
-        <v>1416.252</v>
+        <v>172.87299999999999</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -13731,7 +13123,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1">
@@ -13739,16 +13131,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>10.045448299999999</v>
+        <v>6.5168679000000003</v>
       </c>
       <c r="C11" s="2">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="D11" s="2">
-        <v>872.4742</v>
+        <v>138.6842</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -13757,7 +13149,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1">
@@ -13765,13 +13157,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>11.8003447</v>
+        <v>6.9171395000000002</v>
       </c>
       <c r="C12" s="3">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D12" s="3">
-        <v>1335.6916000000001</v>
+        <v>326.4169</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -13783,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1">
@@ -13791,13 +13183,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>12.980063399999999</v>
+        <v>7.4285978000000004</v>
       </c>
       <c r="C13" s="2">
-        <v>7000</v>
+        <v>150</v>
       </c>
       <c r="D13" s="2">
-        <v>509.44619999999998</v>
+        <v>290.20179999999999</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -13806,10 +13198,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1">
@@ -13817,13 +13209,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>15.528654699999999</v>
+        <v>8.9773420999999995</v>
       </c>
       <c r="C14" s="3">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="D14" s="3">
-        <v>846.96929999999998</v>
+        <v>523.89909999999998</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -13832,10 +13224,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1">
@@ -13843,13 +13235,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>18.7256456</v>
+        <v>9.678096</v>
       </c>
       <c r="C15" s="2">
-        <v>2800</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2">
-        <v>2445.8303999999998</v>
+        <v>237.42850000000001</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -13858,10 +13250,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
@@ -13869,22 +13261,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>21.366640799999999</v>
+        <v>9.8845568000000004</v>
       </c>
       <c r="C16" s="3">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="D16" s="3">
-        <v>1533.9428</v>
+        <v>173.08680000000001</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -13895,22 +13287,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>26.060028899999999</v>
+        <v>11.078239700000001</v>
       </c>
       <c r="C17" s="2">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="2">
-        <v>1613.0373</v>
+        <v>421.71879999999999</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
@@ -13921,22 +13313,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>27.571573700000002</v>
+        <v>12.265301599999999</v>
       </c>
       <c r="C18" s="3">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="D18" s="3">
-        <v>889.77049999999997</v>
+        <v>358.23899999999998</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -13947,13 +13339,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>34.273835699999999</v>
+        <v>12.8319844</v>
       </c>
       <c r="C19" s="2">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="D19" s="2">
-        <v>3041.8251</v>
+        <v>131.82669999999999</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -13962,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
@@ -13973,22 +13365,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>37.359429300000002</v>
+        <v>13.9128211</v>
       </c>
       <c r="C20" s="3">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="D20" s="3">
-        <v>1647.6842999999999</v>
+        <v>454.32209999999998</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -13999,22 +13391,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>40.812821499999998</v>
+        <v>15.8242128</v>
       </c>
       <c r="C21" s="2">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="D21" s="2">
-        <v>1283.3810000000001</v>
+        <v>423.3587</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>9</v>
@@ -14025,13 +13417,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>46.8225956</v>
+        <v>17.5874138</v>
       </c>
       <c r="C22" s="3">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="D22" s="3">
-        <v>914.09280000000001</v>
+        <v>300.29579999999999</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -14040,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -14051,22 +13443,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>52.249409200000002</v>
+        <v>17.855168599999999</v>
       </c>
       <c r="C23" s="2">
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="D23" s="2">
-        <v>2037.2986000000001</v>
+        <v>143.64429999999999</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>9</v>
@@ -14077,22 +13469,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>55.548859200000003</v>
+        <v>18.2714812</v>
       </c>
       <c r="C24" s="3">
-        <v>9000</v>
+        <v>150</v>
       </c>
       <c r="D24" s="3">
-        <v>895.25890000000004</v>
+        <v>270.21460000000002</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -14102,1119 +13494,517 @@
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>65.605123500000005</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D25" s="2">
-        <v>891.67079999999999</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>4</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
-        <v>67.975524700000008</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1514.5809999999999</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>71.961433</v>
-      </c>
-      <c r="C27" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1797.2168999999999</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
-        <v>77.114554900000002</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1390.5661</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>5</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>85.829033199999998</v>
-      </c>
-      <c r="C29" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1221.5586000000001</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6">
-        <v>89.227807800000008</v>
-      </c>
-      <c r="C30" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1433.7256</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>5</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>94.754370399999999</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D31" s="2">
-        <v>3083.8926999999999</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
-        <v>99.697869699999998</v>
-      </c>
-      <c r="C32" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3862.9119000000001</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>104.1200374</v>
-      </c>
-      <c r="C33" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D33" s="2">
-        <v>885.35029999999995</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>5</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
-        <v>105.58758850000001</v>
-      </c>
-      <c r="C34" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1054.4203</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>5</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>107.2427698</v>
-      </c>
-      <c r="C35" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1107.0653</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>5</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
-        <v>112.1215687</v>
-      </c>
-      <c r="C36" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2874.0940999999998</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>5</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
-        <v>113.82771550000001</v>
-      </c>
-      <c r="C37" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1447.1541</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>5</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
-        <v>117.8564547</v>
-      </c>
-      <c r="C38" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1133.674</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>5</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>119.4690379</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1074.3869999999999</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>5</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6">
-        <v>122.08757629999999</v>
-      </c>
-      <c r="C40" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D40" s="3">
-        <v>2361.0083</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>5</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>124.0873522</v>
-      </c>
-      <c r="C41" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1737.2747999999999</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>5</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
-        <v>126.42455340000001</v>
-      </c>
-      <c r="C42" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D42" s="3">
-        <v>991.69119999999998</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>131.28028190000001</v>
-      </c>
-      <c r="C43" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1615.9038</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>6</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6">
-        <v>135.64006360000002</v>
-      </c>
-      <c r="C44" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2348.7876000000001</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
-        <v>139.43860839999999</v>
-      </c>
-      <c r="C45" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1490.7364</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>6</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6">
-        <v>144.7406829</v>
-      </c>
-      <c r="C46" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2965.5155</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>7</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
-        <v>147.65226579999998</v>
-      </c>
-      <c r="C47" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1773.8426999999999</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
-        <v>7</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6">
-        <v>151.5441083</v>
-      </c>
-      <c r="C48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D48" s="3">
-        <v>2045.1869999999999</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
-        <v>153.47997089999998</v>
-      </c>
-      <c r="C49" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1508.1836000000001</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
-        <v>8</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6">
-        <v>155.0794932</v>
-      </c>
-      <c r="C50" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1158.53</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>8</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
-        <v>158.85451529999997</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1323.3933999999999</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <v>8</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6">
-        <v>162.02834670000001</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D52" s="3">
-        <v>2438.431</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
-        <v>165.3379908</v>
-      </c>
-      <c r="C53" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2155.1709999999998</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>8</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6">
-        <v>171.211297</v>
-      </c>
-      <c r="C54" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1116.8206</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
-        <v>173.17147299999999</v>
-      </c>
-      <c r="C55" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1538.5392999999999</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <v>8</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6">
-        <v>177.41153409999998</v>
-      </c>
-      <c r="C56" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D56" s="3">
-        <v>2869.8040000000001</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>8</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
-        <v>179.9372515</v>
-      </c>
-      <c r="C57" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1190.8480999999999</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <v>8</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6">
-        <v>185.7097976</v>
-      </c>
-      <c r="C58" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D58" s="3">
-        <v>3210.2480999999998</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
-        <v>191.37615819999999</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1555.3396</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2">
-        <v>8</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6">
-        <v>197.3395716</v>
-      </c>
-      <c r="C60" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D60" s="3">
-        <v>3838.4857999999999</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
-        <v>200.60092499999999</v>
-      </c>
-      <c r="C61" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2931.415</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2">
-        <v>8</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6">
-        <v>202.0067742</v>
-      </c>
-      <c r="C62" s="3">
-        <v>9000</v>
-      </c>
-      <c r="D62" s="3">
-        <v>915.69460000000004</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
-        <v>205.85042680000001</v>
-      </c>
-      <c r="C63" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D63" s="2">
-        <v>2945.14</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2">
-        <v>8</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="6">
-        <v>208.5479952</v>
-      </c>
-      <c r="C64" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D64" s="3">
-        <v>2293.8325</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <v>8</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="5">
-        <v>215.88648429999998</v>
-      </c>
-      <c r="C65" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1811.9372000000001</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2">
-        <v>0</v>
-      </c>
-      <c r="G65" s="2">
-        <v>8</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="6">
-        <v>219.11129970000002</v>
-      </c>
-      <c r="C66" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D66" s="3">
-        <v>1639.0617999999999</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" ht="18.95" customHeight="1">
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="5">
-        <v>222.36618719999998</v>
-      </c>
-      <c r="C67" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D67" s="2">
-        <v>2647.5855000000001</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2">
-        <v>0</v>
-      </c>
-      <c r="G67" s="2">
-        <v>8</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
       <c r="A68" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="11">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,7 +63,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CK</t>
+    <t>D1K</t>
+  </si>
+  <si>
+    <t>DK</t>
   </si>
 </sst>
 </file>
@@ -561,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>0.23371220000000001</v>
+        <v>0.35504560000000002</v>
       </c>
       <c r="C3" s="2">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="D3" s="2">
-        <v>150.28270000000001</v>
+        <v>79.922300000000007</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -587,16 +590,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>0.52724170000000004</v>
+        <v>0.46832109999999999</v>
       </c>
       <c r="C4" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="D4" s="3">
-        <v>117.30970000000001</v>
+        <v>79.977599999999995</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -613,16 +616,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>0.68733359999999999</v>
+        <v>1.4325637</v>
       </c>
       <c r="C5" s="2">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="D5" s="2">
-        <v>526.28949999999998</v>
+        <v>320.74079999999998</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -639,16 +642,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>1.2505014999999999</v>
+        <v>2.604101</v>
       </c>
       <c r="C6" s="3">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="D6" s="3">
-        <v>114.96420000000001</v>
+        <v>276.13830000000002</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -665,13 +668,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>1.9380343</v>
+        <v>3.0201476999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D7" s="2">
-        <v>232.89940000000001</v>
+        <v>275.46269999999998</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -691,16 +694,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>2.6651658</v>
+        <v>4.3201048000000002</v>
       </c>
       <c r="C8" s="3">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="D8" s="3">
-        <v>170.99529999999999</v>
+        <v>560.47230000000002</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -717,13 +720,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>3.3216020999999998</v>
+        <v>6.3039823000000004</v>
       </c>
       <c r="C9" s="2">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D9" s="2">
-        <v>217.04859999999999</v>
+        <v>671.06489999999997</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -743,16 +746,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>3.6657771000000001</v>
+        <v>7.5520752</v>
       </c>
       <c r="C10" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D10" s="3">
-        <v>172.87299999999999</v>
+        <v>1416.252</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -769,16 +772,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>6.3781837000000001</v>
+        <v>9.1729740999999994</v>
       </c>
       <c r="C11" s="2">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="D11" s="2">
-        <v>138.6842</v>
+        <v>872.4742</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -795,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>6.5907226000000003</v>
+        <v>10.4646531</v>
       </c>
       <c r="C12" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D12" s="3">
-        <v>326.4169</v>
+        <v>1335.6916000000001</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -821,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>7.1383960000000002</v>
+        <v>12.4706172</v>
       </c>
       <c r="C13" s="2">
-        <v>150</v>
+        <v>7000</v>
       </c>
       <c r="D13" s="2">
-        <v>290.20179999999999</v>
+        <v>509.44619999999998</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -836,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>9</v>
@@ -847,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>8.453443</v>
+        <v>14.681685399999999</v>
       </c>
       <c r="C14" s="3">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="D14" s="3">
-        <v>523.89909999999998</v>
+        <v>846.96929999999998</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -862,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -873,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>9.4406675</v>
+        <v>16.279815200000002</v>
       </c>
       <c r="C15" s="2">
-        <v>125</v>
+        <v>2800</v>
       </c>
       <c r="D15" s="2">
-        <v>237.42850000000001</v>
+        <v>2445.8303999999998</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -888,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>9</v>
@@ -899,25 +902,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>9.7114700000000003</v>
+        <v>19.832698000000001</v>
       </c>
       <c r="C16" s="3">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="D16" s="3">
-        <v>173.08680000000001</v>
+        <v>1533.9428</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1">
@@ -925,25 +928,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>10.6565209</v>
+        <v>24.4469916</v>
       </c>
       <c r="C17" s="2">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="D17" s="2">
-        <v>421.71879999999999</v>
+        <v>1613.0373</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1">
@@ -951,25 +954,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>11.9070626</v>
+        <v>26.681803200000001</v>
       </c>
       <c r="C18" s="3">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="D18" s="3">
-        <v>358.23899999999998</v>
+        <v>889.77049999999997</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1">
@@ -977,13 +980,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>12.7001577</v>
+        <v>31.232010599999999</v>
       </c>
       <c r="C19" s="2">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D19" s="2">
-        <v>131.82669999999999</v>
+        <v>3041.8251</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -992,10 +995,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.95" customHeight="1">
@@ -1003,25 +1006,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>13.458499</v>
+        <v>35.711745000000001</v>
       </c>
       <c r="C20" s="3">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="D20" s="3">
-        <v>454.32209999999998</v>
+        <v>1647.6842999999999</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1">
@@ -1029,25 +1032,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>15.4008541</v>
+        <v>39.5294405</v>
       </c>
       <c r="C21" s="2">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="D21" s="2">
-        <v>423.3587</v>
+        <v>1283.3810000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1">
@@ -1055,13 +1058,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>17.287118</v>
+        <v>45.908502800000001</v>
       </c>
       <c r="C22" s="3">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="D22" s="3">
-        <v>300.29579999999999</v>
+        <v>914.09280000000001</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1070,10 +1073,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1">
@@ -1081,25 +1084,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>17.711524300000001</v>
+        <v>50.212110600000003</v>
       </c>
       <c r="C23" s="2">
-        <v>300</v>
+        <v>6000</v>
       </c>
       <c r="D23" s="2">
-        <v>143.64429999999999</v>
+        <v>2037.2986000000001</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
@@ -1107,86 +1110,156 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>18.001266600000001</v>
+        <v>54.653600300000001</v>
       </c>
       <c r="C24" s="3">
-        <v>150</v>
+        <v>9000</v>
       </c>
       <c r="D24" s="3">
-        <v>270.21460000000002</v>
+        <v>895.25890000000004</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="B25" s="5">
+        <v>64.713452700000005</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>891.67079999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="6">
+        <v>66.460943700000001</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1514.5809999999999</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="5">
+        <v>70.164216100000004</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1797.2168999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="B28" s="6">
+        <v>75.723988800000001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1390.5661</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="5">
+        <v>84.607474600000003</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1221.5586000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
       <c r="A30" s="3">
@@ -12923,16 +12996,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>0.38399490000000003</v>
+        <v>0.43496790000000002</v>
       </c>
       <c r="C3" s="2">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="D3" s="2">
-        <v>150.28270000000001</v>
+        <v>79.922300000000007</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -12949,16 +13022,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>0.6445514</v>
+        <v>0.54829870000000003</v>
       </c>
       <c r="C4" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="D4" s="3">
-        <v>117.30970000000001</v>
+        <v>79.977599999999995</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -12975,16 +13048,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>1.2136231</v>
+        <v>1.7533045</v>
       </c>
       <c r="C5" s="2">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="D5" s="2">
-        <v>526.28949999999998</v>
+        <v>320.74079999999998</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -13001,16 +13074,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>1.3654656999999999</v>
+        <v>2.8802392999999999</v>
       </c>
       <c r="C6" s="3">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="D6" s="3">
-        <v>114.96420000000001</v>
+        <v>276.13830000000002</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -13027,13 +13100,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>2.1709337</v>
+        <v>3.2956103999999997</v>
       </c>
       <c r="C7" s="2">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D7" s="2">
-        <v>232.89940000000001</v>
+        <v>275.46269999999998</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -13053,16 +13126,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>2.8361611</v>
+        <v>4.8805771</v>
       </c>
       <c r="C8" s="3">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="D8" s="3">
-        <v>170.99529999999999</v>
+        <v>560.47230000000002</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -13079,13 +13152,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>3.5386506999999998</v>
+        <v>6.9750472000000006</v>
       </c>
       <c r="C9" s="2">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D9" s="2">
-        <v>217.04859999999999</v>
+        <v>671.06489999999997</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -13105,16 +13178,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>3.8386501000000002</v>
+        <v>8.9683271999999992</v>
       </c>
       <c r="C10" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D10" s="3">
-        <v>172.87299999999999</v>
+        <v>1416.252</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -13131,16 +13204,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>6.5168679000000003</v>
+        <v>10.045448299999999</v>
       </c>
       <c r="C11" s="2">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="D11" s="2">
-        <v>138.6842</v>
+        <v>872.4742</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -13157,13 +13230,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>6.9171395000000002</v>
+        <v>11.8003447</v>
       </c>
       <c r="C12" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D12" s="3">
-        <v>326.4169</v>
+        <v>1335.6916000000001</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -13183,13 +13256,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>7.4285978000000004</v>
+        <v>12.980063399999999</v>
       </c>
       <c r="C13" s="2">
-        <v>150</v>
+        <v>7000</v>
       </c>
       <c r="D13" s="2">
-        <v>290.20179999999999</v>
+        <v>509.44619999999998</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -13198,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>9</v>
@@ -13209,13 +13282,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>8.9773420999999995</v>
+        <v>15.528654699999999</v>
       </c>
       <c r="C14" s="3">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="D14" s="3">
-        <v>523.89909999999998</v>
+        <v>846.96929999999998</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -13224,7 +13297,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -13235,13 +13308,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>9.678096</v>
+        <v>18.7256456</v>
       </c>
       <c r="C15" s="2">
-        <v>125</v>
+        <v>2800</v>
       </c>
       <c r="D15" s="2">
-        <v>237.42850000000001</v>
+        <v>2445.8303999999998</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -13250,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>9</v>
@@ -13261,25 +13334,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>9.8845568000000004</v>
+        <v>21.366640799999999</v>
       </c>
       <c r="C16" s="3">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="D16" s="3">
-        <v>173.08680000000001</v>
+        <v>1533.9428</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1">
@@ -13287,25 +13360,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>11.078239700000001</v>
+        <v>26.060028899999999</v>
       </c>
       <c r="C17" s="2">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="D17" s="2">
-        <v>421.71879999999999</v>
+        <v>1613.0373</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1">
@@ -13313,25 +13386,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>12.265301599999999</v>
+        <v>27.571573700000002</v>
       </c>
       <c r="C18" s="3">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="D18" s="3">
-        <v>358.23899999999998</v>
+        <v>889.77049999999997</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1">
@@ -13339,13 +13412,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>12.8319844</v>
+        <v>34.273835699999999</v>
       </c>
       <c r="C19" s="2">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D19" s="2">
-        <v>131.82669999999999</v>
+        <v>3041.8251</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -13354,10 +13427,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.95" customHeight="1">
@@ -13365,25 +13438,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>13.9128211</v>
+        <v>37.359429300000002</v>
       </c>
       <c r="C20" s="3">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="D20" s="3">
-        <v>454.32209999999998</v>
+        <v>1647.6842999999999</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1">
@@ -13391,25 +13464,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>15.8242128</v>
+        <v>40.812821499999998</v>
       </c>
       <c r="C21" s="2">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="D21" s="2">
-        <v>423.3587</v>
+        <v>1283.3810000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1">
@@ -13417,13 +13490,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>17.5874138</v>
+        <v>46.8225956</v>
       </c>
       <c r="C22" s="3">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="D22" s="3">
-        <v>300.29579999999999</v>
+        <v>914.09280000000001</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -13432,10 +13505,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1">
@@ -13443,25 +13516,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>17.855168599999999</v>
+        <v>52.249409200000002</v>
       </c>
       <c r="C23" s="2">
-        <v>300</v>
+        <v>6000</v>
       </c>
       <c r="D23" s="2">
-        <v>143.64429999999999</v>
+        <v>2037.2986000000001</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
@@ -13469,86 +13542,156 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>18.2714812</v>
+        <v>55.548859200000003</v>
       </c>
       <c r="C24" s="3">
-        <v>150</v>
+        <v>9000</v>
       </c>
       <c r="D24" s="3">
-        <v>270.21460000000002</v>
+        <v>895.25890000000004</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="B25" s="5">
+        <v>65.605123500000005</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>891.67079999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="6">
+        <v>67.975524700000008</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1514.5809999999999</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="5">
+        <v>71.961433</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1797.2168999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="B28" s="6">
+        <v>77.114554900000002</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1390.5661</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="5">
+        <v>85.829033199999998</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1221.5586000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
       <c r="A30" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>0.35504560000000002</v>
+        <v>52.873756999999998</v>
       </c>
       <c r="C3" s="2">
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="D3" s="2">
-        <v>79.922300000000007</v>
+        <v>436.21379999999999</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -590,16 +590,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>0.46832109999999999</v>
+        <v>58.316446999999997</v>
       </c>
       <c r="C4" s="3">
-        <v>1400</v>
+        <v>8000</v>
       </c>
       <c r="D4" s="3">
-        <v>79.977599999999995</v>
+        <v>3364.2518</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -616,25 +616,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>1.4325637</v>
+        <v>63.602404999999997</v>
       </c>
       <c r="C5" s="2">
-        <v>325</v>
+        <v>8000</v>
       </c>
       <c r="D5" s="2">
-        <v>320.74079999999998</v>
+        <v>1497.0155</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1">
@@ -642,25 +642,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>2.604101</v>
+        <v>86.319494000000006</v>
       </c>
       <c r="C6" s="3">
-        <v>1600</v>
+        <v>10000</v>
       </c>
       <c r="D6" s="3">
-        <v>276.13830000000002</v>
+        <v>3310.6936000000001</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.95" customHeight="1">
@@ -668,25 +668,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>3.0201476999999999</v>
+        <v>101.906634</v>
       </c>
       <c r="C7" s="2">
-        <v>1600</v>
+        <v>12000</v>
       </c>
       <c r="D7" s="2">
-        <v>275.46269999999998</v>
+        <v>2236.9854</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1">
@@ -694,25 +694,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>4.3201048000000002</v>
+        <v>112.872423</v>
       </c>
       <c r="C8" s="3">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="D8" s="3">
-        <v>560.47230000000002</v>
+        <v>1730.5890999999999</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1">
@@ -720,13 +720,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>6.3039823000000004</v>
+        <v>122.247894</v>
       </c>
       <c r="C9" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="D9" s="2">
-        <v>671.06489999999997</v>
+        <v>1359.2783999999999</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1">
@@ -746,13 +746,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>7.5520752</v>
+        <v>135.20157499999999</v>
       </c>
       <c r="C10" s="3">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="D10" s="3">
-        <v>1416.252</v>
+        <v>518.07330000000002</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -761,505 +761,239 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>9.1729740999999994</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D11" s="2">
-        <v>872.4742</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
-        <v>10.4646531</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1335.6916000000001</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>12.4706172</v>
-      </c>
-      <c r="C13" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D13" s="2">
-        <v>509.44619999999998</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
-        <v>14.681685399999999</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D14" s="3">
-        <v>846.96929999999998</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>16.279815200000002</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2445.8303999999998</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
-        <v>19.832698000000001</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1533.9428</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
-        <v>24.4469916</v>
-      </c>
-      <c r="C17" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1613.0373</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
-        <v>26.681803200000001</v>
-      </c>
-      <c r="C18" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D18" s="3">
-        <v>889.77049999999997</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>31.232010599999999</v>
-      </c>
-      <c r="C19" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3041.8251</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>4</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="18.95" customHeight="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
-        <v>35.711745000000001</v>
-      </c>
-      <c r="C20" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1647.6842999999999</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
-        <v>39.5294405</v>
-      </c>
-      <c r="C21" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1283.3810000000001</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>4</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
-        <v>45.908502800000001</v>
-      </c>
-      <c r="C22" s="3">
-        <v>9000</v>
-      </c>
-      <c r="D22" s="3">
-        <v>914.09280000000001</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
-        <v>50.212110600000003</v>
-      </c>
-      <c r="C23" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2037.2986000000001</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>4</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
-        <v>54.653600300000001</v>
-      </c>
-      <c r="C24" s="3">
-        <v>9000</v>
-      </c>
-      <c r="D24" s="3">
-        <v>895.25890000000004</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>64.713452700000005</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D25" s="2">
-        <v>891.67079999999999</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>4</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
-        <v>66.460943700000001</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1514.5809999999999</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>70.164216100000004</v>
-      </c>
-      <c r="C27" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1797.2168999999999</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
-        <v>75.723988800000001</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1390.5661</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>5</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>84.607474600000003</v>
-      </c>
-      <c r="C29" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1221.5586000000001</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
       <c r="A30" s="3">
@@ -12996,16 +12730,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>0.43496790000000002</v>
+        <v>53.309970799999995</v>
       </c>
       <c r="C3" s="2">
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="D3" s="2">
-        <v>79.922300000000007</v>
+        <v>436.21379999999999</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -13022,16 +12756,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>0.54829870000000003</v>
+        <v>61.680698799999995</v>
       </c>
       <c r="C4" s="3">
-        <v>1400</v>
+        <v>8000</v>
       </c>
       <c r="D4" s="3">
-        <v>79.977599999999995</v>
+        <v>3364.2518</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -13048,25 +12782,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>1.7533045</v>
+        <v>65.099420499999994</v>
       </c>
       <c r="C5" s="2">
-        <v>325</v>
+        <v>8000</v>
       </c>
       <c r="D5" s="2">
-        <v>320.74079999999998</v>
+        <v>1497.0155</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1">
@@ -13074,25 +12808,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>2.8802392999999999</v>
+        <v>89.630187599999999</v>
       </c>
       <c r="C6" s="3">
-        <v>1600</v>
+        <v>10000</v>
       </c>
       <c r="D6" s="3">
-        <v>276.13830000000002</v>
+        <v>3310.6936000000001</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.95" customHeight="1">
@@ -13100,25 +12834,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>3.2956103999999997</v>
+        <v>104.14361939999999</v>
       </c>
       <c r="C7" s="2">
-        <v>1600</v>
+        <v>12000</v>
       </c>
       <c r="D7" s="2">
-        <v>275.46269999999998</v>
+        <v>2236.9854</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1">
@@ -13126,25 +12860,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>4.8805771</v>
+        <v>114.6030121</v>
       </c>
       <c r="C8" s="3">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="D8" s="3">
-        <v>560.47230000000002</v>
+        <v>1730.5890999999999</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1">
@@ -13152,13 +12886,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>6.9750472000000006</v>
+        <v>123.6071724</v>
       </c>
       <c r="C9" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="D9" s="2">
-        <v>671.06489999999997</v>
+        <v>1359.2783999999999</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -13167,10 +12901,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1">
@@ -13178,13 +12912,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>8.9683271999999992</v>
+        <v>135.71964829999999</v>
       </c>
       <c r="C10" s="3">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="D10" s="3">
-        <v>1416.252</v>
+        <v>518.07330000000002</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -13193,505 +12927,239 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>10.045448299999999</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D11" s="2">
-        <v>872.4742</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
-        <v>11.8003447</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1335.6916000000001</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>12.980063399999999</v>
-      </c>
-      <c r="C13" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D13" s="2">
-        <v>509.44619999999998</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
-        <v>15.528654699999999</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D14" s="3">
-        <v>846.96929999999998</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>18.7256456</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2445.8303999999998</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
-        <v>21.366640799999999</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1533.9428</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
-        <v>26.060028899999999</v>
-      </c>
-      <c r="C17" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1613.0373</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
-        <v>27.571573700000002</v>
-      </c>
-      <c r="C18" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D18" s="3">
-        <v>889.77049999999997</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>34.273835699999999</v>
-      </c>
-      <c r="C19" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3041.8251</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>4</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="18.95" customHeight="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
-        <v>37.359429300000002</v>
-      </c>
-      <c r="C20" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1647.6842999999999</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
-        <v>40.812821499999998</v>
-      </c>
-      <c r="C21" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1283.3810000000001</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>4</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
-        <v>46.8225956</v>
-      </c>
-      <c r="C22" s="3">
-        <v>9000</v>
-      </c>
-      <c r="D22" s="3">
-        <v>914.09280000000001</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
-        <v>52.249409200000002</v>
-      </c>
-      <c r="C23" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2037.2986000000001</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>4</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
-        <v>55.548859200000003</v>
-      </c>
-      <c r="C24" s="3">
-        <v>9000</v>
-      </c>
-      <c r="D24" s="3">
-        <v>895.25890000000004</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>65.605123500000005</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D25" s="2">
-        <v>891.67079999999999</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>4</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
-        <v>67.975524700000008</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1514.5809999999999</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>71.961433</v>
-      </c>
-      <c r="C27" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1797.2168999999999</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
-        <v>77.114554900000002</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1390.5661</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>5</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>85.829033199999998</v>
-      </c>
-      <c r="C29" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1221.5586000000001</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
       <c r="A30" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="12">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>D2K</t>
-  </si>
-  <si>
-    <t>K</t>
   </si>
 </sst>
 </file>
@@ -1167,1093 +1164,505 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
-        <v>146.08930079999999</v>
-      </c>
-      <c r="C26" s="3">
-        <v>12000</v>
-      </c>
-      <c r="D26" s="3">
-        <v>754.45079999999996</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>6</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>152.3087706</v>
-      </c>
-      <c r="C27" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1142.5345</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>6</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
-        <v>162.80036480000001</v>
-      </c>
-      <c r="C28" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D28" s="3">
-        <v>993.15549999999996</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>7</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>167.72468129999999</v>
-      </c>
-      <c r="C29" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1496.424</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>7</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6">
-        <v>173.05688559999999</v>
-      </c>
-      <c r="C30" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D30" s="3">
-        <v>2030.1772000000001</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>7</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>177.72848909999999</v>
-      </c>
-      <c r="C31" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1465.0083999999999</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>7</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
-        <v>181.22099660000001</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2645.067</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>7</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>184.46420000000001</v>
-      </c>
-      <c r="C33" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2171.1342</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>7</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
-        <v>191.37743950000001</v>
-      </c>
-      <c r="C34" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2264.7368999999999</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>7</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>194.40165189999999</v>
-      </c>
-      <c r="C35" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1597.4274</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>7</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
-        <v>198.91361520000001</v>
-      </c>
-      <c r="C36" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1592.4716000000001</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>7</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
-        <v>216.31825910000001</v>
-      </c>
-      <c r="C37" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1043.1968999999999</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>8</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
-        <v>217.66338709999999</v>
-      </c>
-      <c r="C38" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D38" s="3">
-        <v>3242.7633000000001</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>8</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>227.544625</v>
-      </c>
-      <c r="C39" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1762.1512</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2">
-        <v>8</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6">
-        <v>229.8531472</v>
-      </c>
-      <c r="C40" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>748.71969999999999</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>8</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>235.450941</v>
-      </c>
-      <c r="C41" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1607.8927000000001</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>8</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
-        <v>243.34159769999999</v>
-      </c>
-      <c r="C42" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D42" s="3">
-        <v>2818.2334999999998</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>248.0600695</v>
-      </c>
-      <c r="C43" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1334.9757</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>8</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6">
-        <v>251.0180627</v>
-      </c>
-      <c r="C44" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1503.4242999999999</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
-        <v>252.84861549999999</v>
-      </c>
-      <c r="C45" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1747.2044000000001</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2">
-        <v>8</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6">
-        <v>257.47518159999998</v>
-      </c>
-      <c r="C46" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2301.1523000000002</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
-        <v>260.94364330000002</v>
-      </c>
-      <c r="C47" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1693.9922999999999</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2">
-        <v>8</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6">
-        <v>269.36721679999999</v>
-      </c>
-      <c r="C48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1321.8068000000001</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
-        <v>274.46078249999999</v>
-      </c>
-      <c r="C49" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D49" s="2">
-        <v>5529.6774999999998</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1</v>
-      </c>
-      <c r="G49" s="2">
-        <v>8</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6">
-        <v>285.13760539999998</v>
-      </c>
-      <c r="C50" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2716.4641999999999</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
-        <v>8</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
-        <v>294.16415030000002</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2578.3298</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2">
-        <v>8</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6">
-        <v>298.86444770000003</v>
-      </c>
-      <c r="C52" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D52" s="3">
-        <v>5342.5156999999999</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
-        <v>307.75389699999999</v>
-      </c>
-      <c r="C53" s="2">
-        <v>12000</v>
-      </c>
-      <c r="D53" s="2">
-        <v>778.05060000000003</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2">
-        <v>9</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6">
-        <v>312.5830838</v>
-      </c>
-      <c r="C54" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D54" s="3">
-        <v>2315.6779000000001</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>9</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
-        <v>316.55124210000002</v>
-      </c>
-      <c r="C55" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D55" s="2">
-        <v>824.65239999999994</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
-        <v>1</v>
-      </c>
-      <c r="G55" s="2">
-        <v>9</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6">
-        <v>317.59508829999999</v>
-      </c>
-      <c r="C56" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1538.5377000000001</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>9</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
-        <v>325.41590939999998</v>
-      </c>
-      <c r="C57" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D57" s="2">
-        <v>3181.7042000000001</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
-      <c r="G57" s="2">
-        <v>9</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6">
-        <v>329.74521979999997</v>
-      </c>
-      <c r="C58" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1035.9067</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>10</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
-        <v>335.2199718</v>
-      </c>
-      <c r="C59" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D59" s="2">
-        <v>801.55119999999999</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2">
-        <v>1</v>
-      </c>
-      <c r="G59" s="2">
-        <v>11</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6">
-        <v>341.9625777</v>
-      </c>
-      <c r="C60" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D60" s="3">
-        <v>2463.7667000000001</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>11</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
-        <v>345.05185799999998</v>
-      </c>
-      <c r="C61" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1690.7077999999999</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2">
-        <v>1</v>
-      </c>
-      <c r="G61" s="2">
-        <v>11</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6">
-        <v>346.94651859999999</v>
-      </c>
-      <c r="C62" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1380.7539999999999</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3">
-        <v>11</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
-        <v>351.7224071</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D63" s="2">
-        <v>2143.1511</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1</v>
-      </c>
-      <c r="G63" s="2">
-        <v>11</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="6">
-        <v>355.5622778</v>
-      </c>
-      <c r="C64" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D64" s="3">
-        <v>818.06949999999995</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3">
-        <v>11</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="5">
-        <v>356.5124184</v>
-      </c>
-      <c r="C65" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D65" s="2">
-        <v>2095.5277999999998</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2">
-        <v>1</v>
-      </c>
-      <c r="G65" s="2">
-        <v>11</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="6">
-        <v>360.23973330000001</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1600</v>
-      </c>
-      <c r="D66" s="3">
-        <v>976.03639999999996</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>12</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" ht="18.95" customHeight="1">
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="5">
-        <v>361.39952340000002</v>
-      </c>
-      <c r="C67" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D67" s="2">
-        <v>181.95609999999999</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2">
-        <v>1</v>
-      </c>
-      <c r="G67" s="2">
-        <v>12</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
       <c r="A68" s="3">
@@ -14131,1093 +13540,505 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
-        <v>146.84375159999999</v>
-      </c>
-      <c r="C26" s="3">
-        <v>12000</v>
-      </c>
-      <c r="D26" s="3">
-        <v>754.45079999999996</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>6</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>153.45130510000001</v>
-      </c>
-      <c r="C27" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1142.5345</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>6</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
-        <v>163.79352030000001</v>
-      </c>
-      <c r="C28" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D28" s="3">
-        <v>993.15549999999996</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>7</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>169.22110529999998</v>
-      </c>
-      <c r="C29" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1496.424</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>7</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6">
-        <v>175.08706279999998</v>
-      </c>
-      <c r="C30" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D30" s="3">
-        <v>2030.1772000000001</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>7</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>179.19349749999998</v>
-      </c>
-      <c r="C31" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1465.0083999999999</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>7</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
-        <v>183.86606360000002</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2645.067</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>7</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>186.63533420000002</v>
-      </c>
-      <c r="C33" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2171.1342</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>7</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
-        <v>193.64217640000001</v>
-      </c>
-      <c r="C34" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2264.7368999999999</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>7</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>195.99907929999998</v>
-      </c>
-      <c r="C35" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1597.4274</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>7</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
-        <v>200.50608680000002</v>
-      </c>
-      <c r="C36" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1592.4716000000001</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>7</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
-        <v>217.361456</v>
-      </c>
-      <c r="C37" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1043.1968999999999</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>8</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
-        <v>220.9061504</v>
-      </c>
-      <c r="C38" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D38" s="3">
-        <v>3242.7633000000001</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>8</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>229.3067762</v>
-      </c>
-      <c r="C39" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1762.1512</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>8</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6">
-        <v>230.6018669</v>
-      </c>
-      <c r="C40" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>748.71969999999999</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>8</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>237.05883370000001</v>
-      </c>
-      <c r="C41" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1607.8927000000001</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>8</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
-        <v>246.15983119999999</v>
-      </c>
-      <c r="C42" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D42" s="3">
-        <v>2818.2334999999998</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>249.3950452</v>
-      </c>
-      <c r="C43" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1334.9757</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>8</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6">
-        <v>252.52148700000001</v>
-      </c>
-      <c r="C44" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1503.4242999999999</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
-        <v>254.59581989999998</v>
-      </c>
-      <c r="C45" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1747.2044000000001</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>8</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6">
-        <v>259.7763339</v>
-      </c>
-      <c r="C46" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2301.1523000000002</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
-        <v>262.63763560000001</v>
-      </c>
-      <c r="C47" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1693.9922999999999</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
-        <v>8</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6">
-        <v>270.68902359999998</v>
-      </c>
-      <c r="C48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1321.8068000000001</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
-        <v>279.99045999999998</v>
-      </c>
-      <c r="C49" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D49" s="2">
-        <v>5529.6774999999998</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
-        <v>8</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6">
-        <v>287.8540696</v>
-      </c>
-      <c r="C50" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2716.4641999999999</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>8</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
-        <v>296.74248010000002</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2578.3298</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <v>8</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6">
-        <v>304.20696340000001</v>
-      </c>
-      <c r="C52" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D52" s="3">
-        <v>5342.5156999999999</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
-        <v>308.53194759999997</v>
-      </c>
-      <c r="C53" s="2">
-        <v>12000</v>
-      </c>
-      <c r="D53" s="2">
-        <v>778.05060000000003</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>9</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6">
-        <v>314.89876170000002</v>
-      </c>
-      <c r="C54" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D54" s="3">
-        <v>2315.6779000000001</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>9</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
-        <v>317.37589450000002</v>
-      </c>
-      <c r="C55" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D55" s="2">
-        <v>824.65239999999994</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <v>9</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6">
-        <v>319.13362599999999</v>
-      </c>
-      <c r="C56" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1538.5377000000001</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>9</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
-        <v>328.59761359999999</v>
-      </c>
-      <c r="C57" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D57" s="2">
-        <v>3181.7042000000001</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <v>9</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6">
-        <v>330.78112649999997</v>
-      </c>
-      <c r="C58" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1035.9067</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>10</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
-        <v>336.021523</v>
-      </c>
-      <c r="C59" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D59" s="2">
-        <v>801.55119999999999</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2">
-        <v>11</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6">
-        <v>344.4263444</v>
-      </c>
-      <c r="C60" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D60" s="3">
-        <v>2463.7667000000001</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>11</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
-        <v>346.74256579999997</v>
-      </c>
-      <c r="C61" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1690.7077999999999</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2">
-        <v>11</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6">
-        <v>348.32727260000001</v>
-      </c>
-      <c r="C62" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1380.7539999999999</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>11</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
-        <v>353.86555820000001</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D63" s="2">
-        <v>2143.1511</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2">
-        <v>11</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="6">
-        <v>356.38034729999998</v>
-      </c>
-      <c r="C64" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D64" s="3">
-        <v>818.06949999999995</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <v>11</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="5">
-        <v>358.60794620000001</v>
-      </c>
-      <c r="C65" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D65" s="2">
-        <v>2095.5277999999998</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2">
-        <v>0</v>
-      </c>
-      <c r="G65" s="2">
-        <v>11</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="6">
-        <v>361.21576970000001</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1600</v>
-      </c>
-      <c r="D66" s="3">
-        <v>976.03639999999996</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>12</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" ht="18.95" customHeight="1">
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="5">
-        <v>361.5814795</v>
-      </c>
-      <c r="C67" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D67" s="2">
-        <v>181.95609999999999</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1</v>
-      </c>
-      <c r="F67" s="2">
-        <v>0</v>
-      </c>
-      <c r="G67" s="2">
-        <v>12</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
       <c r="A68" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="12">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1086,79 +1086,37 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
-        <v>112.872423</v>
-      </c>
-      <c r="C23" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1730.5890999999999</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
-        <v>122.247894</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1359.2783999999999</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>135.20157499999999</v>
-      </c>
-      <c r="C25" s="2">
-        <v>12000</v>
-      </c>
-      <c r="D25" s="2">
-        <v>518.07330000000002</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
       <c r="A26" s="3">
@@ -13462,79 +13420,37 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
-        <v>114.6030121</v>
-      </c>
-      <c r="C23" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1730.5890999999999</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
-        <v>123.6071724</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1359.2783999999999</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>135.71964829999999</v>
-      </c>
-      <c r="C25" s="2">
-        <v>12000</v>
-      </c>
-      <c r="D25" s="2">
-        <v>518.07330000000002</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
       <c r="A26" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="13">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>D2K</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -1086,541 +1089,1171 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="B23" s="5">
+        <v>112.872423</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1730.5890999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="B24" s="6">
+        <v>122.247894</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1359.2783999999999</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="B25" s="5">
+        <v>135.20157499999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>518.07330000000002</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="6">
+        <v>146.08930079999999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>754.45079999999996</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="5">
+        <v>152.3087706</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1142.5345</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="B28" s="6">
+        <v>162.80036480000001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>993.15549999999996</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="5">
+        <v>167.72468129999999</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1496.424</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="B30" s="6">
+        <v>173.05688559999999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2030.1772000000001</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>7</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="B31" s="5">
+        <v>177.72848909999999</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1465.0083999999999</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>7</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="B32" s="6">
+        <v>181.22099660000001</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2645.067</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="B33" s="5">
+        <v>184.46420000000001</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2171.1342</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>7</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="B34" s="6">
+        <v>191.37743950000001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2264.7368999999999</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>7</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="B35" s="5">
+        <v>194.40165189999999</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1597.4274</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="B36" s="6">
+        <v>198.91361520000001</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1592.4716000000001</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>7</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="B37" s="5">
+        <v>216.31825910000001</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1043.1968999999999</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="B38" s="6">
+        <v>217.66338709999999</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3242.7633000000001</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>8</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="B39" s="5">
+        <v>227.544625</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1762.1512</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="B40" s="6">
+        <v>229.8531472</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>748.71969999999999</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>8</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="B41" s="5">
+        <v>235.450941</v>
+      </c>
+      <c r="C41" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1607.8927000000001</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>8</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="B42" s="6">
+        <v>243.34159769999999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2818.2334999999998</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="B43" s="5">
+        <v>248.0600695</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1334.9757</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="B44" s="6">
+        <v>251.0180627</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1503.4242999999999</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="B45" s="5">
+        <v>252.84861549999999</v>
+      </c>
+      <c r="C45" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1747.2044000000001</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>8</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="B46" s="6">
+        <v>257.47518159999998</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2301.1523000000002</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="B47" s="5">
+        <v>260.94364330000002</v>
+      </c>
+      <c r="C47" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1693.9922999999999</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>8</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="B48" s="6">
+        <v>269.36721679999999</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1321.8068000000001</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="B49" s="5">
+        <v>274.46078249999999</v>
+      </c>
+      <c r="C49" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5529.6774999999998</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="B50" s="6">
+        <v>285.13760539999998</v>
+      </c>
+      <c r="C50" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2716.4641999999999</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="B51" s="5">
+        <v>294.16415030000002</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2578.3298</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="B52" s="6">
+        <v>298.86444770000003</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5342.5156999999999</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="B53" s="5">
+        <v>307.75389699999999</v>
+      </c>
+      <c r="C53" s="2">
+        <v>12000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>778.05060000000003</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>9</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="B54" s="6">
+        <v>312.5830838</v>
+      </c>
+      <c r="C54" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2315.6779000000001</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>9</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="B55" s="5">
+        <v>316.55124210000002</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D55" s="2">
+        <v>824.65239999999994</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>9</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="B56" s="6">
+        <v>317.59508829999999</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1538.5377000000001</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>9</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="B57" s="5">
+        <v>325.41590939999998</v>
+      </c>
+      <c r="C57" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3181.7042000000001</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>9</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="B58" s="6">
+        <v>329.74521979999997</v>
+      </c>
+      <c r="C58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1035.9067</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="B59" s="5">
+        <v>335.2199718</v>
+      </c>
+      <c r="C59" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D59" s="2">
+        <v>801.55119999999999</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>11</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="B60" s="6">
+        <v>341.9625777</v>
+      </c>
+      <c r="C60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2463.7667000000001</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>11</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="B61" s="5">
+        <v>345.05185799999998</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1690.7077999999999</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>11</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="B62" s="6">
+        <v>346.94651859999999</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1380.7539999999999</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>11</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="B63" s="5">
+        <v>351.7224071</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2800</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2143.1511</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>11</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="B64" s="6">
+        <v>355.5622778</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>818.06949999999995</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
+        <v>11</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="B65" s="5">
+        <v>356.5124184</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2095.5277999999998</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>11</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="B66" s="6">
+        <v>360.23973330000001</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="D66" s="3">
+        <v>976.03639999999996</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>12</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="18.95" customHeight="1">
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="B67" s="5">
+        <v>361.39952340000002</v>
+      </c>
+      <c r="C67" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D67" s="2">
+        <v>181.95609999999999</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>12</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
       <c r="A68" s="3">
@@ -13420,541 +14053,1171 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="B23" s="5">
+        <v>114.6030121</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1730.5890999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="B24" s="6">
+        <v>123.6071724</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1359.2783999999999</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="B25" s="5">
+        <v>135.71964829999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>518.07330000000002</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="6">
+        <v>146.84375159999999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>754.45079999999996</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="5">
+        <v>153.45130510000001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1142.5345</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="B28" s="6">
+        <v>163.79352030000001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>993.15549999999996</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="5">
+        <v>169.22110529999998</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1496.424</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="B30" s="6">
+        <v>175.08706279999998</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2030.1772000000001</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>7</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="B31" s="5">
+        <v>179.19349749999998</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1465.0083999999999</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>7</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="B32" s="6">
+        <v>183.86606360000002</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2645.067</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="B33" s="5">
+        <v>186.63533420000002</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2171.1342</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>7</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="B34" s="6">
+        <v>193.64217640000001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2264.7368999999999</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>7</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="B35" s="5">
+        <v>195.99907929999998</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1597.4274</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="B36" s="6">
+        <v>200.50608680000002</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1592.4716000000001</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>7</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="B37" s="5">
+        <v>217.361456</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1043.1968999999999</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="B38" s="6">
+        <v>220.9061504</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3242.7633000000001</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>8</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="B39" s="5">
+        <v>229.3067762</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1762.1512</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="B40" s="6">
+        <v>230.6018669</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>748.71969999999999</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>8</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="B41" s="5">
+        <v>237.05883370000001</v>
+      </c>
+      <c r="C41" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1607.8927000000001</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>8</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="B42" s="6">
+        <v>246.15983119999999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2818.2334999999998</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="B43" s="5">
+        <v>249.3950452</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1334.9757</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="B44" s="6">
+        <v>252.52148700000001</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1503.4242999999999</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="B45" s="5">
+        <v>254.59581989999998</v>
+      </c>
+      <c r="C45" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1747.2044000000001</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>8</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="B46" s="6">
+        <v>259.7763339</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2301.1523000000002</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="B47" s="5">
+        <v>262.63763560000001</v>
+      </c>
+      <c r="C47" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1693.9922999999999</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>8</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="B48" s="6">
+        <v>270.68902359999998</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1321.8068000000001</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="B49" s="5">
+        <v>279.99045999999998</v>
+      </c>
+      <c r="C49" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5529.6774999999998</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="B50" s="6">
+        <v>287.8540696</v>
+      </c>
+      <c r="C50" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2716.4641999999999</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="B51" s="5">
+        <v>296.74248010000002</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2578.3298</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="B52" s="6">
+        <v>304.20696340000001</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5342.5156999999999</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="B53" s="5">
+        <v>308.53194759999997</v>
+      </c>
+      <c r="C53" s="2">
+        <v>12000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>778.05060000000003</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>9</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="B54" s="6">
+        <v>314.89876170000002</v>
+      </c>
+      <c r="C54" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2315.6779000000001</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>9</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="B55" s="5">
+        <v>317.37589450000002</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D55" s="2">
+        <v>824.65239999999994</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>9</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="B56" s="6">
+        <v>319.13362599999999</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1538.5377000000001</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>9</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="B57" s="5">
+        <v>328.59761359999999</v>
+      </c>
+      <c r="C57" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3181.7042000000001</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>9</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="B58" s="6">
+        <v>330.78112649999997</v>
+      </c>
+      <c r="C58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1035.9067</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="B59" s="5">
+        <v>336.021523</v>
+      </c>
+      <c r="C59" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D59" s="2">
+        <v>801.55119999999999</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>11</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="B60" s="6">
+        <v>344.4263444</v>
+      </c>
+      <c r="C60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2463.7667000000001</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>11</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="B61" s="5">
+        <v>346.74256579999997</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1690.7077999999999</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>11</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="B62" s="6">
+        <v>348.32727260000001</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1380.7539999999999</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>11</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="B63" s="5">
+        <v>353.86555820000001</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2800</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2143.1511</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>11</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="B64" s="6">
+        <v>356.38034729999998</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>818.06949999999995</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>11</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="B65" s="5">
+        <v>358.60794620000001</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2095.5277999999998</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>11</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="B66" s="6">
+        <v>361.21576970000001</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="D66" s="3">
+        <v>976.03639999999996</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>12</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="18.95" customHeight="1">
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="B67" s="5">
+        <v>361.5814795</v>
+      </c>
+      <c r="C67" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D67" s="2">
+        <v>181.95609999999999</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>12</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
       <c r="A68" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="11">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,13 +63,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D2K</t>
+    <t>AK</t>
   </si>
   <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>D1K</t>
+    <t>A1K</t>
   </si>
 </sst>
 </file>
@@ -569,13 +566,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>315.82702719999997</v>
+        <v>457.66790900000001</v>
       </c>
       <c r="C3" s="2">
-        <v>8000</v>
+        <v>1600</v>
       </c>
       <c r="D3" s="2">
-        <v>1090.2258999999999</v>
+        <v>1379.3773000000001</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -595,13 +592,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>323.18500449999999</v>
+        <v>460.28978610000001</v>
       </c>
       <c r="C4" s="3">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D4" s="3">
-        <v>2200.0292880000002</v>
+        <v>1682.2807</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -621,16 +618,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>328.26534179999999</v>
+        <v>464.52961479999999</v>
       </c>
       <c r="C5" s="2">
-        <v>9000</v>
+        <v>1600</v>
       </c>
       <c r="D5" s="2">
-        <v>1103.7359019999999</v>
+        <v>1130.5097000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -647,19 +644,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>333.04802430000001</v>
+        <v>479.38656759999998</v>
       </c>
       <c r="C6" s="3">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D6" s="3">
-        <v>2348.8677659999998</v>
+        <v>554.5924</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -673,13 +670,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>337.14515280000001</v>
+        <v>454.83186740000002</v>
       </c>
       <c r="C7" s="2">
-        <v>7000</v>
+        <v>1600</v>
       </c>
       <c r="D7" s="2">
-        <v>2382.3050739999999</v>
+        <v>1176.8387</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -688,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -699,13 +696,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>340.62893689999999</v>
+        <v>459.16221439999998</v>
       </c>
       <c r="C8" s="3">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="D8" s="3">
-        <v>1427.9218069999999</v>
+        <v>588.64250000000004</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -714,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -725,13 +722,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>350.58183170000001</v>
+        <v>466.93234840000002</v>
       </c>
       <c r="C9" s="2">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="D9" s="2">
-        <v>5639.2388769999998</v>
+        <v>223.54150000000001</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -740,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>9</v>
@@ -751,22 +748,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>357.63409569999999</v>
+        <v>472.3002128</v>
       </c>
       <c r="C10" s="3">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="D10" s="3">
-        <v>2182.8478490000002</v>
+        <v>435.55399999999997</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -777,22 +774,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>368.89917830000002</v>
+        <v>474.21399719999999</v>
       </c>
       <c r="C11" s="2">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="D11" s="2">
-        <v>1463.0468960000001</v>
+        <v>1022.7938</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>9</v>
@@ -803,13 +800,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>371.81944529999998</v>
+        <v>477.00451149999998</v>
       </c>
       <c r="C12" s="3">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D12" s="3">
-        <v>2180.2593609999999</v>
+        <v>709.89120000000003</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -821,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -829,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>374.77300600000001</v>
+        <v>487.49358369999999</v>
       </c>
       <c r="C13" s="2">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="D13" s="2">
-        <v>2921.4195370000002</v>
+        <v>1057.6303</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -847,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -855,13 +852,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>390.94885740000001</v>
+        <v>491.64921349999997</v>
       </c>
       <c r="C14" s="3">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="D14" s="3">
-        <v>988.26182600000004</v>
+        <v>923.17200000000003</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -873,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -881,16 +878,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>397.0954102</v>
+        <v>514.77115600000002</v>
       </c>
       <c r="C15" s="2">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D15" s="2">
-        <v>3323.8994440000001</v>
+        <v>600.20899999999995</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -899,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -907,16 +904,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>401.55492179999999</v>
+        <v>519.22070429999997</v>
       </c>
       <c r="C16" s="3">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D16" s="3">
-        <v>2430.9535099999998</v>
+        <v>722.13900000000001</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -925,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -933,16 +930,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>405.89882299999999</v>
+        <v>522.41616539999995</v>
       </c>
       <c r="C17" s="2">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="D17" s="2">
-        <v>1135.909216</v>
+        <v>408.2749</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -951,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -959,16 +956,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>407.36734760000002</v>
+        <v>524.2025142</v>
       </c>
       <c r="C18" s="3">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D18" s="3">
-        <v>1646.3715790000001</v>
+        <v>1208.1687999999999</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -977,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -985,13 +982,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>413.80403200000001</v>
+        <v>529.62662239999997</v>
       </c>
       <c r="C19" s="2">
-        <v>9000</v>
+        <v>1600</v>
       </c>
       <c r="D19" s="2">
-        <v>3782.981237</v>
+        <v>1809.4059</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1003,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1011,13 +1008,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>420.6593527</v>
+        <v>538.76224569999999</v>
       </c>
       <c r="C20" s="3">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D20" s="3">
-        <v>5321.484332</v>
+        <v>658.33600000000001</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1026,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1037,25 +1034,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>432.74724830000002</v>
+        <v>545.60937879999994</v>
       </c>
       <c r="C21" s="2">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D21" s="2">
-        <v>2561.0439000000001</v>
+        <v>469.55880000000002</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1063,13 +1060,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>438.41537110000002</v>
+        <v>547.22141869999996</v>
       </c>
       <c r="C22" s="3">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="D22" s="3">
-        <v>802.12450000000001</v>
+        <v>864.76990000000001</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1078,10 +1075,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1089,25 +1086,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>446.35865749999999</v>
+        <v>555.99490470000001</v>
       </c>
       <c r="C23" s="2">
-        <v>7000</v>
+        <v>1600</v>
       </c>
       <c r="D23" s="2">
-        <v>1021.1006</v>
+        <v>1367.3195000000001</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1115,13 +1112,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>452.57836200000003</v>
+        <v>558.12103960000002</v>
       </c>
       <c r="C24" s="3">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="D24" s="3">
-        <v>2570.5383000000002</v>
+        <v>1195.7322999999999</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1130,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1141,25 +1138,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>456.11954609999998</v>
+        <v>570.58648600000004</v>
       </c>
       <c r="C25" s="2">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="D25" s="2">
-        <v>2886.2013999999999</v>
+        <v>682.55759999999998</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1167,25 +1164,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>459.36926949999997</v>
+        <v>573.52664890000005</v>
       </c>
       <c r="C26" s="3">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="D26" s="3">
-        <v>1286.4772</v>
+        <v>664.25400000000002</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1193,13 +1190,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>464.07863279999998</v>
+        <v>574.76680780000004</v>
       </c>
       <c r="C27" s="2">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D27" s="2">
-        <v>1256.7506000000001</v>
+        <v>1307.9648</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -1208,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1219,25 +1216,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>471.5684948</v>
+        <v>578.72133050000002</v>
       </c>
       <c r="C28" s="3">
-        <v>5500</v>
+        <v>1600</v>
       </c>
       <c r="D28" s="3">
-        <v>1679.9512</v>
+        <v>1012.033</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1245,13 +1242,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>475.58138750000001</v>
+        <v>581.461727</v>
       </c>
       <c r="C29" s="2">
-        <v>9000</v>
+        <v>1600</v>
       </c>
       <c r="D29" s="2">
-        <v>948.42340000000002</v>
+        <v>1308.8598</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -1260,10 +1257,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1271,13 +1268,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>483.45363320000001</v>
+        <v>585.25280940000005</v>
       </c>
       <c r="C30" s="3">
-        <v>8000</v>
+        <v>1600</v>
       </c>
       <c r="D30" s="3">
-        <v>1035.4353000000001</v>
+        <v>1338.3813</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -1286,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1297,13 +1294,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>486.16280419999998</v>
+        <v>588.19832819999999</v>
       </c>
       <c r="C31" s="2">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D31" s="2">
-        <v>2392.0468000000001</v>
+        <v>1804.6287</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -1312,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1323,25 +1320,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>490.23304189999999</v>
+        <v>591.52863509999997</v>
       </c>
       <c r="C32" s="3">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D32" s="3">
-        <v>3619.3011999999999</v>
+        <v>1468.6610000000001</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1349,25 +1346,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>495.19429450000001</v>
+        <v>595.50127889999999</v>
       </c>
       <c r="C33" s="2">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D33" s="2">
-        <v>1177.1618000000001</v>
+        <v>1578.9219000000001</v>
       </c>
       <c r="E33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1375,13 +1372,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>498.39571860000001</v>
+        <v>598.26110919999996</v>
       </c>
       <c r="C34" s="3">
-        <v>8000</v>
+        <v>1600</v>
       </c>
       <c r="D34" s="3">
-        <v>1063.4332999999999</v>
+        <v>1181.7746</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -1390,10 +1387,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1401,13 +1398,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>505.15790909999998</v>
+        <v>603.76600559999997</v>
       </c>
       <c r="C35" s="2">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="D35" s="2">
-        <v>2261.4294</v>
+        <v>435.4332</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -1416,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1427,25 +1424,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="6">
-        <v>511.60539490000002</v>
+        <v>604.72913559999995</v>
       </c>
       <c r="C36" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D36" s="3">
-        <v>1749.5124000000001</v>
+        <v>536.48</v>
       </c>
       <c r="E36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1453,25 +1450,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>514.08002069999998</v>
+        <v>611.37611449999997</v>
       </c>
       <c r="C37" s="2">
-        <v>5500</v>
+        <v>1600</v>
       </c>
       <c r="D37" s="2">
-        <v>5056.1396999999997</v>
+        <v>1192.2125000000001</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
       </c>
       <c r="G37" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1479,13 +1476,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="6">
-        <v>525.29356710000002</v>
+        <v>615.37084860000004</v>
       </c>
       <c r="C38" s="3">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="D38" s="3">
-        <v>2789.3631999999998</v>
+        <v>442.03300000000002</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -1494,661 +1491,311 @@
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>539.43672730000003</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D39" s="2">
-        <v>4256.3141999999998</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2">
-        <v>6</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6">
-        <v>547.10153790000004</v>
-      </c>
-      <c r="C40" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1056.1876</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>6</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>556.78064959999995</v>
-      </c>
-      <c r="C41" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D41" s="2">
-        <v>3331.25</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>6</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
-        <v>564.19926239999995</v>
-      </c>
-      <c r="C42" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D42" s="3">
-        <v>3347.7516000000001</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>577.3539194</v>
-      </c>
-      <c r="C43" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D43" s="2">
-        <v>5047.2678999999998</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>6</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6">
-        <v>584.80967480000004</v>
-      </c>
-      <c r="C44" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D44" s="3">
-        <v>5784.6103000000003</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
-        <v>594.40891429999999</v>
-      </c>
-      <c r="C45" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D45" s="2">
-        <v>747.01620000000003</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2">
-        <v>6</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6">
-        <v>599.45310129999996</v>
-      </c>
-      <c r="C46" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D46" s="3">
-        <v>943.44730000000004</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>6</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
-        <v>602.49928239999997</v>
-      </c>
-      <c r="C47" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2495.1747999999998</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2">
-        <v>7</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6">
-        <v>618.57127149999997</v>
-      </c>
-      <c r="C48" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1097.4061999999999</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
-        <v>622.33666149999999</v>
-      </c>
-      <c r="C49" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1560.3327999999999</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1</v>
-      </c>
-      <c r="G49" s="2">
-        <v>7</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6">
-        <v>625.61895660000005</v>
-      </c>
-      <c r="C50" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2593.3971000000001</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
-        <v>7</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
-        <v>628.82230879999997</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1921.0836999999999</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2">
-        <v>7</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6">
-        <v>636.13449909999997</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D52" s="3">
-        <v>4754.28</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
-        <v>644.37840740000001</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2746.0335</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2">
-        <v>8</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6">
-        <v>647.84808190000001</v>
-      </c>
-      <c r="C54" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D54" s="3">
-        <v>7341.6742000000004</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
-        <v>668.55842280000002</v>
-      </c>
-      <c r="C55" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1787.0331000000001</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
-        <v>1</v>
-      </c>
-      <c r="G55" s="2">
-        <v>8</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6">
-        <v>686.97661889999995</v>
-      </c>
-      <c r="C56" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D56" s="3">
-        <v>2475.5034000000001</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>9</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
-        <v>690.98983599999997</v>
-      </c>
-      <c r="C57" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D57" s="2">
-        <v>4270.0219999999999</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
-      <c r="G57" s="2">
-        <v>9</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6">
-        <v>695.91721150000001</v>
-      </c>
-      <c r="C58" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2483.5753</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>9</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
-        <v>706.61747430000003</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D59" s="2">
-        <v>2988.2426</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>1</v>
-      </c>
-      <c r="G59" s="2">
-        <v>10</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6">
-        <v>713.66087619999996</v>
-      </c>
-      <c r="C60" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D60" s="3">
-        <v>3804.2375000000002</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>10</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
-        <v>720.94970990000002</v>
-      </c>
-      <c r="C61" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2589.1632</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2">
-        <v>1</v>
-      </c>
-      <c r="G61" s="2">
-        <v>10</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6">
-        <v>726.0277476</v>
-      </c>
-      <c r="C62" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D62" s="3">
-        <v>4043.2195000000002</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
-        <v>732.49868690000005</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D63" s="2">
-        <v>820.68610000000001</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1</v>
-      </c>
-      <c r="G63" s="2">
-        <v>10</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
@@ -13477,13 +13124,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>316.91725309999998</v>
+        <v>459.0472863</v>
       </c>
       <c r="C3" s="2">
-        <v>8000</v>
+        <v>1600</v>
       </c>
       <c r="D3" s="2">
-        <v>1090.2258999999999</v>
+        <v>1379.3773000000001</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -13503,13 +13150,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>325.38503378799999</v>
+        <v>461.97206679999999</v>
       </c>
       <c r="C4" s="3">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D4" s="3">
-        <v>2200.0292880000002</v>
+        <v>1682.2807</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -13529,16 +13176,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>329.36907770199997</v>
+        <v>465.66012449999999</v>
       </c>
       <c r="C5" s="2">
-        <v>9000</v>
+        <v>1600</v>
       </c>
       <c r="D5" s="2">
-        <v>1103.7359019999999</v>
+        <v>1130.5097000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -13555,13 +13202,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>335.39689206600002</v>
+        <v>479.94115999999997</v>
       </c>
       <c r="C6" s="3">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D6" s="3">
-        <v>2348.8677659999998</v>
+        <v>554.5924</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -13581,25 +13228,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>339.52745787399999</v>
+        <v>456.00870610000004</v>
       </c>
       <c r="C7" s="2">
-        <v>7000</v>
+        <v>1600</v>
       </c>
       <c r="D7" s="2">
-        <v>2382.3050739999999</v>
+        <v>1176.8387</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13607,13 +13254,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>342.056858707</v>
+        <v>459.75085689999997</v>
       </c>
       <c r="C8" s="3">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="D8" s="3">
-        <v>1427.9218069999999</v>
+        <v>588.64250000000004</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -13622,10 +13269,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13633,13 +13280,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>356.22107057700003</v>
+        <v>467.15588990000003</v>
       </c>
       <c r="C9" s="2">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="D9" s="2">
-        <v>5639.2388769999998</v>
+        <v>223.54150000000001</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -13648,7 +13295,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>9</v>
@@ -13659,22 +13306,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>359.81694354899997</v>
+        <v>472.73576680000002</v>
       </c>
       <c r="C10" s="3">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="D10" s="3">
-        <v>2182.8478490000002</v>
+        <v>435.55399999999997</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -13685,22 +13332,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>370.362225196</v>
+        <v>475.23679099999998</v>
       </c>
       <c r="C11" s="2">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="D11" s="2">
-        <v>1463.0468960000001</v>
+        <v>1022.7938</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>9</v>
@@ -13711,13 +13358,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>373.99970466100001</v>
+        <v>477.71440269999999</v>
       </c>
       <c r="C12" s="3">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D12" s="3">
-        <v>2180.2593609999999</v>
+        <v>709.89120000000003</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -13729,7 +13376,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13737,13 +13384,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>377.69442553700003</v>
+        <v>488.55121400000002</v>
       </c>
       <c r="C13" s="2">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="D13" s="2">
-        <v>2921.4195370000002</v>
+        <v>1057.6303</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -13755,7 +13402,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13763,13 +13410,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>391.93711922599999</v>
+        <v>492.5723855</v>
       </c>
       <c r="C14" s="3">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="D14" s="3">
-        <v>988.26182600000004</v>
+        <v>923.17200000000003</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -13781,7 +13428,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13789,16 +13436,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>400.41930964400001</v>
+        <v>515.37136499999997</v>
       </c>
       <c r="C15" s="2">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D15" s="2">
-        <v>3323.8994440000001</v>
+        <v>600.20899999999995</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -13807,7 +13454,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13815,16 +13462,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>403.98587530999998</v>
+        <v>519.94284329999994</v>
       </c>
       <c r="C16" s="3">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D16" s="3">
-        <v>2430.9535099999998</v>
+        <v>722.13900000000001</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -13833,7 +13480,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13841,16 +13488,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>407.03473221600001</v>
+        <v>522.82444029999999</v>
       </c>
       <c r="C17" s="2">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="D17" s="2">
-        <v>1135.909216</v>
+        <v>408.2749</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -13859,7 +13506,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13867,16 +13514,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>409.01371917900002</v>
+        <v>525.41068299999995</v>
       </c>
       <c r="C18" s="3">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D18" s="3">
-        <v>1646.3715790000001</v>
+        <v>1208.1687999999999</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -13885,7 +13532,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13893,13 +13540,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>417.58701323700001</v>
+        <v>531.43602829999998</v>
       </c>
       <c r="C19" s="2">
-        <v>9000</v>
+        <v>1600</v>
       </c>
       <c r="D19" s="2">
-        <v>3782.981237</v>
+        <v>1809.4059</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -13911,7 +13558,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13919,13 +13566,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>425.98083703200001</v>
+        <v>539.42058169999996</v>
       </c>
       <c r="C20" s="3">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D20" s="3">
-        <v>5321.484332</v>
+        <v>658.33600000000001</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -13934,10 +13581,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13945,25 +13592,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>435.30829220000004</v>
+        <v>546.0789375999999</v>
       </c>
       <c r="C21" s="2">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D21" s="2">
-        <v>2561.0439000000001</v>
+        <v>469.55880000000002</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13971,13 +13618,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>439.21749560000001</v>
+        <v>548.08618860000001</v>
       </c>
       <c r="C22" s="3">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="D22" s="3">
-        <v>802.12450000000001</v>
+        <v>864.76990000000001</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -13986,10 +13633,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13997,25 +13644,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>447.3797581</v>
+        <v>557.36222420000001</v>
       </c>
       <c r="C23" s="2">
-        <v>7000</v>
+        <v>1600</v>
       </c>
       <c r="D23" s="2">
-        <v>1021.1006</v>
+        <v>1367.3195000000001</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14023,13 +13670,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>455.14890030000004</v>
+        <v>559.31677190000005</v>
       </c>
       <c r="C24" s="3">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="D24" s="3">
-        <v>2570.5383000000002</v>
+        <v>1195.7322999999999</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -14038,10 +13685,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14049,25 +13696,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>459.00574749999998</v>
+        <v>571.26904360000003</v>
       </c>
       <c r="C25" s="2">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="D25" s="2">
-        <v>2886.2013999999999</v>
+        <v>682.55759999999998</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14075,25 +13722,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>460.65574669999995</v>
+        <v>574.19090290000008</v>
       </c>
       <c r="C26" s="3">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="D26" s="3">
-        <v>1286.4772</v>
+        <v>664.25400000000002</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14101,13 +13748,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>465.33538339999996</v>
+        <v>576.07477260000007</v>
       </c>
       <c r="C27" s="2">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D27" s="2">
-        <v>1256.7506000000001</v>
+        <v>1307.9648</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -14116,10 +13763,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14127,25 +13774,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>473.248446</v>
+        <v>579.7333635</v>
       </c>
       <c r="C28" s="3">
-        <v>5500</v>
+        <v>1600</v>
       </c>
       <c r="D28" s="3">
-        <v>1679.9512</v>
+        <v>1012.033</v>
       </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14153,13 +13800,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>476.52981090000003</v>
+        <v>582.77058680000005</v>
       </c>
       <c r="C29" s="2">
-        <v>9000</v>
+        <v>1600</v>
       </c>
       <c r="D29" s="2">
-        <v>948.42340000000002</v>
+        <v>1308.8598</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -14168,10 +13815,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14179,13 +13826,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>484.48906850000003</v>
+        <v>586.59119070000008</v>
       </c>
       <c r="C30" s="3">
-        <v>8000</v>
+        <v>1600</v>
       </c>
       <c r="D30" s="3">
-        <v>1035.4353000000001</v>
+        <v>1338.3813</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -14194,10 +13841,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14205,13 +13852,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>488.55485099999999</v>
+        <v>590.00295689999996</v>
       </c>
       <c r="C31" s="2">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D31" s="2">
-        <v>2392.0468000000001</v>
+        <v>1804.6287</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -14220,10 +13867,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14231,25 +13878,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>493.85234309999998</v>
+        <v>592.99729609999997</v>
       </c>
       <c r="C32" s="3">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D32" s="3">
-        <v>3619.3011999999999</v>
+        <v>1468.6610000000001</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14257,25 +13904,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>496.37145630000003</v>
+        <v>597.08020079999994</v>
       </c>
       <c r="C33" s="2">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D33" s="2">
-        <v>1177.1618000000001</v>
+        <v>1578.9219000000001</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14283,13 +13930,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>499.45915189999999</v>
+        <v>599.4428838</v>
       </c>
       <c r="C34" s="3">
-        <v>8000</v>
+        <v>1600</v>
       </c>
       <c r="D34" s="3">
-        <v>1063.4332999999999</v>
+        <v>1181.7746</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -14298,10 +13945,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14309,13 +13956,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>507.41933849999998</v>
+        <v>604.20143880000001</v>
       </c>
       <c r="C35" s="2">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="D35" s="2">
-        <v>2261.4294</v>
+        <v>435.4332</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -14324,10 +13971,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14335,25 +13982,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="6">
-        <v>513.35490730000004</v>
+        <v>605.26561559999993</v>
       </c>
       <c r="C36" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D36" s="3">
-        <v>1749.5124000000001</v>
+        <v>536.48</v>
       </c>
       <c r="E36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14361,25 +14008,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>519.13616039999999</v>
+        <v>612.56832699999995</v>
       </c>
       <c r="C37" s="2">
-        <v>5500</v>
+        <v>1600</v>
       </c>
       <c r="D37" s="2">
-        <v>5056.1396999999997</v>
+        <v>1192.2125000000001</v>
       </c>
       <c r="E37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14387,13 +14034,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="6">
-        <v>528.08293030000004</v>
+        <v>615.81288160000008</v>
       </c>
       <c r="C38" s="3">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="D38" s="3">
-        <v>2789.3631999999998</v>
+        <v>442.03300000000002</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -14402,661 +14049,311 @@
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>543.69304150000005</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D39" s="2">
-        <v>4256.3141999999998</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>6</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6">
-        <v>548.15772550000008</v>
-      </c>
-      <c r="C40" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1056.1876</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>6</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>560.1118995999999</v>
-      </c>
-      <c r="C41" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D41" s="2">
-        <v>3331.25</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>6</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
-        <v>567.54701399999999</v>
-      </c>
-      <c r="C42" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D42" s="3">
-        <v>3347.7516000000001</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>582.40118729999995</v>
-      </c>
-      <c r="C43" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D43" s="2">
-        <v>5047.2678999999998</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>6</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6">
-        <v>590.59428510000009</v>
-      </c>
-      <c r="C44" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D44" s="3">
-        <v>5784.6103000000003</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
-        <v>595.15593049999995</v>
-      </c>
-      <c r="C45" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D45" s="2">
-        <v>747.01620000000003</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>6</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6">
-        <v>600.39654859999996</v>
-      </c>
-      <c r="C46" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D46" s="3">
-        <v>943.44730000000004</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>6</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
-        <v>604.99445719999994</v>
-      </c>
-      <c r="C47" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2495.1747999999998</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
-        <v>7</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6">
-        <v>619.66867769999999</v>
-      </c>
-      <c r="C48" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1097.4061999999999</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
-        <v>623.89699429999996</v>
-      </c>
-      <c r="C49" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1560.3327999999999</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
-        <v>7</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6">
-        <v>628.21235369999999</v>
-      </c>
-      <c r="C50" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2593.3971000000001</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>7</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
-        <v>630.74339250000003</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1921.0836999999999</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <v>7</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6">
-        <v>640.88877909999997</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D52" s="3">
-        <v>4754.28</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
-        <v>647.12444089999997</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2746.0335</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>8</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6">
-        <v>655.18975610000007</v>
-      </c>
-      <c r="C54" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D54" s="3">
-        <v>7341.6742000000004</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
-        <v>670.34545590000005</v>
-      </c>
-      <c r="C55" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1787.0331000000001</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <v>8</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6">
-        <v>689.45212229999993</v>
-      </c>
-      <c r="C56" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D56" s="3">
-        <v>2475.5034000000001</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>9</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
-        <v>695.25985800000001</v>
-      </c>
-      <c r="C57" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D57" s="2">
-        <v>4270.0219999999999</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <v>9</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6">
-        <v>698.40078679999999</v>
-      </c>
-      <c r="C58" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2483.5753</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>9</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
-        <v>709.60571690000006</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D59" s="2">
-        <v>2988.2426</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2">
-        <v>10</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6">
-        <v>717.46511369999996</v>
-      </c>
-      <c r="C60" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D60" s="3">
-        <v>3804.2375000000002</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>10</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
-        <v>723.53887310000005</v>
-      </c>
-      <c r="C61" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2589.1632</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2">
-        <v>10</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6">
-        <v>730.07096709999996</v>
-      </c>
-      <c r="C62" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D62" s="3">
-        <v>4043.2195000000002</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
-        <v>733.31937300000004</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D63" s="2">
-        <v>820.68610000000001</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2">
-        <v>10</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="12">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,10 +63,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AK</t>
+    <t>D2K</t>
   </si>
   <si>
-    <t>A1K</t>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>D1K</t>
   </si>
 </sst>
 </file>
@@ -566,13 +569,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>457.66790900000001</v>
+        <v>315.82702719999997</v>
       </c>
       <c r="C3" s="2">
-        <v>1600</v>
+        <v>8000</v>
       </c>
       <c r="D3" s="2">
-        <v>1379.3773000000001</v>
+        <v>1090.2258999999999</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -592,13 +595,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>460.28978610000001</v>
+        <v>323.18500449999999</v>
       </c>
       <c r="C4" s="3">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D4" s="3">
-        <v>1682.2807</v>
+        <v>2200.0292880000002</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -618,16 +621,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>464.52961479999999</v>
+        <v>328.26534179999999</v>
       </c>
       <c r="C5" s="2">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="D5" s="2">
-        <v>1130.5097000000001</v>
+        <v>1103.7359019999999</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -644,19 +647,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>479.38656759999998</v>
+        <v>333.04802430000001</v>
       </c>
       <c r="C6" s="3">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D6" s="3">
-        <v>554.5924</v>
+        <v>2348.8677659999998</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -670,13 +673,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>454.83186740000002</v>
+        <v>337.14515280000001</v>
       </c>
       <c r="C7" s="2">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="D7" s="2">
-        <v>1176.8387</v>
+        <v>2382.3050739999999</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -685,10 +688,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -696,13 +699,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>459.16221439999998</v>
+        <v>340.62893689999999</v>
       </c>
       <c r="C8" s="3">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="D8" s="3">
-        <v>588.64250000000004</v>
+        <v>1427.9218069999999</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -711,10 +714,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -722,13 +725,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>466.93234840000002</v>
+        <v>350.58183170000001</v>
       </c>
       <c r="C9" s="2">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="D9" s="2">
-        <v>223.54150000000001</v>
+        <v>5639.2388769999998</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -737,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>9</v>
@@ -748,22 +751,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>472.3002128</v>
+        <v>357.63409569999999</v>
       </c>
       <c r="C10" s="3">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="D10" s="3">
-        <v>435.55399999999997</v>
+        <v>2182.8478490000002</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -774,22 +777,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>474.21399719999999</v>
+        <v>368.89917830000002</v>
       </c>
       <c r="C11" s="2">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="D11" s="2">
-        <v>1022.7938</v>
+        <v>1463.0468960000001</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>9</v>
@@ -800,13 +803,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>477.00451149999998</v>
+        <v>371.81944529999998</v>
       </c>
       <c r="C12" s="3">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D12" s="3">
-        <v>709.89120000000003</v>
+        <v>2180.2593609999999</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -818,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -826,13 +829,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>487.49358369999999</v>
+        <v>374.77300600000001</v>
       </c>
       <c r="C13" s="2">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="D13" s="2">
-        <v>1057.6303</v>
+        <v>2921.4195370000002</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -844,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -852,13 +855,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>491.64921349999997</v>
+        <v>390.94885740000001</v>
       </c>
       <c r="C14" s="3">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="D14" s="3">
-        <v>923.17200000000003</v>
+        <v>988.26182600000004</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -870,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -878,16 +881,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>514.77115600000002</v>
+        <v>397.0954102</v>
       </c>
       <c r="C15" s="2">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D15" s="2">
-        <v>600.20899999999995</v>
+        <v>3323.8994440000001</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -896,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -904,16 +907,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>519.22070429999997</v>
+        <v>401.55492179999999</v>
       </c>
       <c r="C16" s="3">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D16" s="3">
-        <v>722.13900000000001</v>
+        <v>2430.9535099999998</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -922,7 +925,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -930,16 +933,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>522.41616539999995</v>
+        <v>405.89882299999999</v>
       </c>
       <c r="C17" s="2">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="D17" s="2">
-        <v>408.2749</v>
+        <v>1135.909216</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -948,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -956,16 +959,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>524.2025142</v>
+        <v>407.36734760000002</v>
       </c>
       <c r="C18" s="3">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D18" s="3">
-        <v>1208.1687999999999</v>
+        <v>1646.3715790000001</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -974,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -982,13 +985,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>529.62662239999997</v>
+        <v>413.80403200000001</v>
       </c>
       <c r="C19" s="2">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="D19" s="2">
-        <v>1809.4059</v>
+        <v>3782.981237</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1000,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1008,13 +1011,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>538.76224569999999</v>
+        <v>420.6593527</v>
       </c>
       <c r="C20" s="3">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D20" s="3">
-        <v>658.33600000000001</v>
+        <v>5321.484332</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1023,10 +1026,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1034,25 +1037,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>545.60937879999994</v>
+        <v>432.74724830000002</v>
       </c>
       <c r="C21" s="2">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D21" s="2">
-        <v>469.55880000000002</v>
+        <v>2561.0439000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1060,13 +1063,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>547.22141869999996</v>
+        <v>438.41537110000002</v>
       </c>
       <c r="C22" s="3">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="D22" s="3">
-        <v>864.76990000000001</v>
+        <v>802.12450000000001</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1075,10 +1078,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1086,25 +1089,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>555.99490470000001</v>
+        <v>446.35865749999999</v>
       </c>
       <c r="C23" s="2">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="D23" s="2">
-        <v>1367.3195000000001</v>
+        <v>1021.1006</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1112,13 +1115,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>558.12103960000002</v>
+        <v>452.57836200000003</v>
       </c>
       <c r="C24" s="3">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="D24" s="3">
-        <v>1195.7322999999999</v>
+        <v>2570.5383000000002</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1127,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1138,25 +1141,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>570.58648600000004</v>
+        <v>456.11954609999998</v>
       </c>
       <c r="C25" s="2">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="D25" s="2">
-        <v>682.55759999999998</v>
+        <v>2886.2013999999999</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1164,25 +1167,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>573.52664890000005</v>
+        <v>459.36926949999997</v>
       </c>
       <c r="C26" s="3">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="D26" s="3">
-        <v>664.25400000000002</v>
+        <v>1286.4772</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1190,13 +1193,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>574.76680780000004</v>
+        <v>464.07863279999998</v>
       </c>
       <c r="C27" s="2">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D27" s="2">
-        <v>1307.9648</v>
+        <v>1256.7506000000001</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -1205,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1216,25 +1219,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>578.72133050000002</v>
+        <v>471.5684948</v>
       </c>
       <c r="C28" s="3">
-        <v>1600</v>
+        <v>5500</v>
       </c>
       <c r="D28" s="3">
-        <v>1012.033</v>
+        <v>1679.9512</v>
       </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1242,13 +1245,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>581.461727</v>
+        <v>475.58138750000001</v>
       </c>
       <c r="C29" s="2">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="D29" s="2">
-        <v>1308.8598</v>
+        <v>948.42340000000002</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -1257,10 +1260,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1268,13 +1271,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>585.25280940000005</v>
+        <v>483.45363320000001</v>
       </c>
       <c r="C30" s="3">
-        <v>1600</v>
+        <v>8000</v>
       </c>
       <c r="D30" s="3">
-        <v>1338.3813</v>
+        <v>1035.4353000000001</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -1283,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1294,13 +1297,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>588.19832819999999</v>
+        <v>486.16280419999998</v>
       </c>
       <c r="C31" s="2">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D31" s="2">
-        <v>1804.6287</v>
+        <v>2392.0468000000001</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -1309,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1320,25 +1323,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>591.52863509999997</v>
+        <v>490.23304189999999</v>
       </c>
       <c r="C32" s="3">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D32" s="3">
-        <v>1468.6610000000001</v>
+        <v>3619.3011999999999</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1346,25 +1349,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>595.50127889999999</v>
+        <v>495.19429450000001</v>
       </c>
       <c r="C33" s="2">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D33" s="2">
-        <v>1578.9219000000001</v>
+        <v>1177.1618000000001</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1372,13 +1375,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>598.26110919999996</v>
+        <v>498.39571860000001</v>
       </c>
       <c r="C34" s="3">
-        <v>1600</v>
+        <v>8000</v>
       </c>
       <c r="D34" s="3">
-        <v>1181.7746</v>
+        <v>1063.4332999999999</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -1387,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1398,13 +1401,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>603.76600559999997</v>
+        <v>505.15790909999998</v>
       </c>
       <c r="C35" s="2">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="D35" s="2">
-        <v>435.4332</v>
+        <v>2261.4294</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -1413,10 +1416,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1424,25 +1427,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="6">
-        <v>604.72913559999995</v>
+        <v>511.60539490000002</v>
       </c>
       <c r="C36" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D36" s="3">
-        <v>536.48</v>
+        <v>1749.5124000000001</v>
       </c>
       <c r="E36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1450,25 +1453,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>611.37611449999997</v>
+        <v>514.08002069999998</v>
       </c>
       <c r="C37" s="2">
-        <v>1600</v>
+        <v>5500</v>
       </c>
       <c r="D37" s="2">
-        <v>1192.2125000000001</v>
+        <v>5056.1396999999997</v>
       </c>
       <c r="E37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
       </c>
       <c r="G37" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1476,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="6">
-        <v>615.37084860000004</v>
+        <v>525.29356710000002</v>
       </c>
       <c r="C38" s="3">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="D38" s="3">
-        <v>442.03300000000002</v>
+        <v>2789.3631999999998</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -1491,311 +1494,661 @@
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="B39" s="5">
+        <v>539.43672730000003</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4256.3141999999998</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>6</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="B40" s="6">
+        <v>547.10153790000004</v>
+      </c>
+      <c r="C40" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1056.1876</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>6</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="B41" s="5">
+        <v>556.78064959999995</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3331.25</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="B42" s="6">
+        <v>564.19926239999995</v>
+      </c>
+      <c r="C42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3347.7516000000001</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="B43" s="5">
+        <v>577.3539194</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5047.2678999999998</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="B44" s="6">
+        <v>584.80967480000004</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5784.6103000000003</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="B45" s="5">
+        <v>594.40891429999999</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>747.01620000000003</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="B46" s="6">
+        <v>599.45310129999996</v>
+      </c>
+      <c r="C46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D46" s="3">
+        <v>943.44730000000004</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>6</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="B47" s="5">
+        <v>602.49928239999997</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2495.1747999999998</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>7</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="B48" s="6">
+        <v>618.57127149999997</v>
+      </c>
+      <c r="C48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1097.4061999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="B49" s="5">
+        <v>622.33666149999999</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1560.3327999999999</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>7</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="B50" s="6">
+        <v>625.61895660000005</v>
+      </c>
+      <c r="C50" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2593.3971000000001</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>7</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="B51" s="5">
+        <v>628.82230879999997</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1921.0836999999999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>7</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="B52" s="6">
+        <v>636.13449909999997</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4754.28</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="B53" s="5">
+        <v>644.37840740000001</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2746.0335</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="B54" s="6">
+        <v>647.84808190000001</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D54" s="3">
+        <v>7341.6742000000004</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="B55" s="5">
+        <v>668.55842280000002</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1787.0331000000001</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="B56" s="6">
+        <v>686.97661889999995</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2475.5034000000001</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>9</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="B57" s="5">
+        <v>690.98983599999997</v>
+      </c>
+      <c r="C57" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4270.0219999999999</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>9</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="B58" s="6">
+        <v>695.91721150000001</v>
+      </c>
+      <c r="C58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2483.5753</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>9</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="B59" s="5">
+        <v>706.61747430000003</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2988.2426</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>10</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="B60" s="6">
+        <v>713.66087619999996</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3804.2375000000002</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="B61" s="5">
+        <v>720.94970990000002</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2589.1632</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>10</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="B62" s="6">
+        <v>726.0277476</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D62" s="3">
+        <v>4043.2195000000002</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="B63" s="5">
+        <v>732.49868690000005</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D63" s="2">
+        <v>820.68610000000001</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>10</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
@@ -13124,13 +13477,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>459.0472863</v>
+        <v>316.91725309999998</v>
       </c>
       <c r="C3" s="2">
-        <v>1600</v>
+        <v>8000</v>
       </c>
       <c r="D3" s="2">
-        <v>1379.3773000000001</v>
+        <v>1090.2258999999999</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -13150,13 +13503,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>461.97206679999999</v>
+        <v>325.38503378799999</v>
       </c>
       <c r="C4" s="3">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D4" s="3">
-        <v>1682.2807</v>
+        <v>2200.0292880000002</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -13176,16 +13529,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>465.66012449999999</v>
+        <v>329.36907770199997</v>
       </c>
       <c r="C5" s="2">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="D5" s="2">
-        <v>1130.5097000000001</v>
+        <v>1103.7359019999999</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -13202,13 +13555,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>479.94115999999997</v>
+        <v>335.39689206600002</v>
       </c>
       <c r="C6" s="3">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D6" s="3">
-        <v>554.5924</v>
+        <v>2348.8677659999998</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -13228,25 +13581,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>456.00870610000004</v>
+        <v>339.52745787399999</v>
       </c>
       <c r="C7" s="2">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="D7" s="2">
-        <v>1176.8387</v>
+        <v>2382.3050739999999</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13254,13 +13607,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>459.75085689999997</v>
+        <v>342.056858707</v>
       </c>
       <c r="C8" s="3">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="D8" s="3">
-        <v>588.64250000000004</v>
+        <v>1427.9218069999999</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -13269,10 +13622,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13280,13 +13633,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>467.15588990000003</v>
+        <v>356.22107057700003</v>
       </c>
       <c r="C9" s="2">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="D9" s="2">
-        <v>223.54150000000001</v>
+        <v>5639.2388769999998</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -13295,7 +13648,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>9</v>
@@ -13306,22 +13659,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>472.73576680000002</v>
+        <v>359.81694354899997</v>
       </c>
       <c r="C10" s="3">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="D10" s="3">
-        <v>435.55399999999997</v>
+        <v>2182.8478490000002</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -13332,22 +13685,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>475.23679099999998</v>
+        <v>370.362225196</v>
       </c>
       <c r="C11" s="2">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="D11" s="2">
-        <v>1022.7938</v>
+        <v>1463.0468960000001</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>9</v>
@@ -13358,13 +13711,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>477.71440269999999</v>
+        <v>373.99970466100001</v>
       </c>
       <c r="C12" s="3">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D12" s="3">
-        <v>709.89120000000003</v>
+        <v>2180.2593609999999</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -13376,7 +13729,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13384,13 +13737,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>488.55121400000002</v>
+        <v>377.69442553700003</v>
       </c>
       <c r="C13" s="2">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="D13" s="2">
-        <v>1057.6303</v>
+        <v>2921.4195370000002</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -13402,7 +13755,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13410,13 +13763,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>492.5723855</v>
+        <v>391.93711922599999</v>
       </c>
       <c r="C14" s="3">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="D14" s="3">
-        <v>923.17200000000003</v>
+        <v>988.26182600000004</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -13428,7 +13781,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13436,16 +13789,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>515.37136499999997</v>
+        <v>400.41930964400001</v>
       </c>
       <c r="C15" s="2">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D15" s="2">
-        <v>600.20899999999995</v>
+        <v>3323.8994440000001</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -13454,7 +13807,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13462,16 +13815,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>519.94284329999994</v>
+        <v>403.98587530999998</v>
       </c>
       <c r="C16" s="3">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D16" s="3">
-        <v>722.13900000000001</v>
+        <v>2430.9535099999998</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -13480,7 +13833,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13488,16 +13841,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>522.82444029999999</v>
+        <v>407.03473221600001</v>
       </c>
       <c r="C17" s="2">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="D17" s="2">
-        <v>408.2749</v>
+        <v>1135.909216</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -13506,7 +13859,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13514,16 +13867,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>525.41068299999995</v>
+        <v>409.01371917900002</v>
       </c>
       <c r="C18" s="3">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D18" s="3">
-        <v>1208.1687999999999</v>
+        <v>1646.3715790000001</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -13532,7 +13885,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13540,13 +13893,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>531.43602829999998</v>
+        <v>417.58701323700001</v>
       </c>
       <c r="C19" s="2">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="D19" s="2">
-        <v>1809.4059</v>
+        <v>3782.981237</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -13558,7 +13911,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13566,13 +13919,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>539.42058169999996</v>
+        <v>425.98083703200001</v>
       </c>
       <c r="C20" s="3">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D20" s="3">
-        <v>658.33600000000001</v>
+        <v>5321.484332</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -13581,10 +13934,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13592,25 +13945,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>546.0789375999999</v>
+        <v>435.30829220000004</v>
       </c>
       <c r="C21" s="2">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D21" s="2">
-        <v>469.55880000000002</v>
+        <v>2561.0439000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13618,13 +13971,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>548.08618860000001</v>
+        <v>439.21749560000001</v>
       </c>
       <c r="C22" s="3">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="D22" s="3">
-        <v>864.76990000000001</v>
+        <v>802.12450000000001</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -13633,10 +13986,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13644,25 +13997,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>557.36222420000001</v>
+        <v>447.3797581</v>
       </c>
       <c r="C23" s="2">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="D23" s="2">
-        <v>1367.3195000000001</v>
+        <v>1021.1006</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13670,13 +14023,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>559.31677190000005</v>
+        <v>455.14890030000004</v>
       </c>
       <c r="C24" s="3">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="D24" s="3">
-        <v>1195.7322999999999</v>
+        <v>2570.5383000000002</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -13685,10 +14038,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13696,25 +14049,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>571.26904360000003</v>
+        <v>459.00574749999998</v>
       </c>
       <c r="C25" s="2">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="D25" s="2">
-        <v>682.55759999999998</v>
+        <v>2886.2013999999999</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13722,25 +14075,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>574.19090290000008</v>
+        <v>460.65574669999995</v>
       </c>
       <c r="C26" s="3">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="D26" s="3">
-        <v>664.25400000000002</v>
+        <v>1286.4772</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13748,13 +14101,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>576.07477260000007</v>
+        <v>465.33538339999996</v>
       </c>
       <c r="C27" s="2">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D27" s="2">
-        <v>1307.9648</v>
+        <v>1256.7506000000001</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -13763,10 +14116,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13774,25 +14127,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>579.7333635</v>
+        <v>473.248446</v>
       </c>
       <c r="C28" s="3">
-        <v>1600</v>
+        <v>5500</v>
       </c>
       <c r="D28" s="3">
-        <v>1012.033</v>
+        <v>1679.9512</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13800,13 +14153,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>582.77058680000005</v>
+        <v>476.52981090000003</v>
       </c>
       <c r="C29" s="2">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="D29" s="2">
-        <v>1308.8598</v>
+        <v>948.42340000000002</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -13815,10 +14168,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13826,13 +14179,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>586.59119070000008</v>
+        <v>484.48906850000003</v>
       </c>
       <c r="C30" s="3">
-        <v>1600</v>
+        <v>8000</v>
       </c>
       <c r="D30" s="3">
-        <v>1338.3813</v>
+        <v>1035.4353000000001</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -13841,10 +14194,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13852,13 +14205,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>590.00295689999996</v>
+        <v>488.55485099999999</v>
       </c>
       <c r="C31" s="2">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D31" s="2">
-        <v>1804.6287</v>
+        <v>2392.0468000000001</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -13867,10 +14220,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13878,25 +14231,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>592.99729609999997</v>
+        <v>493.85234309999998</v>
       </c>
       <c r="C32" s="3">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D32" s="3">
-        <v>1468.6610000000001</v>
+        <v>3619.3011999999999</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13904,25 +14257,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>597.08020079999994</v>
+        <v>496.37145630000003</v>
       </c>
       <c r="C33" s="2">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D33" s="2">
-        <v>1578.9219000000001</v>
+        <v>1177.1618000000001</v>
       </c>
       <c r="E33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13930,13 +14283,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>599.4428838</v>
+        <v>499.45915189999999</v>
       </c>
       <c r="C34" s="3">
-        <v>1600</v>
+        <v>8000</v>
       </c>
       <c r="D34" s="3">
-        <v>1181.7746</v>
+        <v>1063.4332999999999</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -13945,10 +14298,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13956,13 +14309,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>604.20143880000001</v>
+        <v>507.41933849999998</v>
       </c>
       <c r="C35" s="2">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="D35" s="2">
-        <v>435.4332</v>
+        <v>2261.4294</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -13971,10 +14324,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13982,25 +14335,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="6">
-        <v>605.26561559999993</v>
+        <v>513.35490730000004</v>
       </c>
       <c r="C36" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D36" s="3">
-        <v>536.48</v>
+        <v>1749.5124000000001</v>
       </c>
       <c r="E36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14008,25 +14361,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>612.56832699999995</v>
+        <v>519.13616039999999</v>
       </c>
       <c r="C37" s="2">
-        <v>1600</v>
+        <v>5500</v>
       </c>
       <c r="D37" s="2">
-        <v>1192.2125000000001</v>
+        <v>5056.1396999999997</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14034,13 +14387,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="6">
-        <v>615.81288160000008</v>
+        <v>528.08293030000004</v>
       </c>
       <c r="C38" s="3">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="D38" s="3">
-        <v>442.03300000000002</v>
+        <v>2789.3631999999998</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -14049,311 +14402,661 @@
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="B39" s="5">
+        <v>543.69304150000005</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4256.3141999999998</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>6</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="B40" s="6">
+        <v>548.15772550000008</v>
+      </c>
+      <c r="C40" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1056.1876</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>6</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="B41" s="5">
+        <v>560.1118995999999</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3331.25</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="B42" s="6">
+        <v>567.54701399999999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3347.7516000000001</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="B43" s="5">
+        <v>582.40118729999995</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5047.2678999999998</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="B44" s="6">
+        <v>590.59428510000009</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5784.6103000000003</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="B45" s="5">
+        <v>595.15593049999995</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>747.01620000000003</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="B46" s="6">
+        <v>600.39654859999996</v>
+      </c>
+      <c r="C46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D46" s="3">
+        <v>943.44730000000004</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>6</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="B47" s="5">
+        <v>604.99445719999994</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2495.1747999999998</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>7</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="B48" s="6">
+        <v>619.66867769999999</v>
+      </c>
+      <c r="C48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1097.4061999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="B49" s="5">
+        <v>623.89699429999996</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1560.3327999999999</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>7</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="B50" s="6">
+        <v>628.21235369999999</v>
+      </c>
+      <c r="C50" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2593.3971000000001</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>7</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="B51" s="5">
+        <v>630.74339250000003</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1921.0836999999999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>7</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="B52" s="6">
+        <v>640.88877909999997</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4754.28</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="B53" s="5">
+        <v>647.12444089999997</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2746.0335</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="B54" s="6">
+        <v>655.18975610000007</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D54" s="3">
+        <v>7341.6742000000004</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="B55" s="5">
+        <v>670.34545590000005</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1787.0331000000001</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="B56" s="6">
+        <v>689.45212229999993</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2475.5034000000001</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>9</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="B57" s="5">
+        <v>695.25985800000001</v>
+      </c>
+      <c r="C57" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4270.0219999999999</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>9</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="B58" s="6">
+        <v>698.40078679999999</v>
+      </c>
+      <c r="C58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2483.5753</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>9</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="B59" s="5">
+        <v>709.60571690000006</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2988.2426</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>10</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="B60" s="6">
+        <v>717.46511369999996</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3804.2375000000002</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="B61" s="5">
+        <v>723.53887310000005</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2589.1632</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>10</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="B62" s="6">
+        <v>730.07096709999996</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D62" s="3">
+        <v>4043.2195000000002</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="B63" s="5">
+        <v>733.31937300000004</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D63" s="2">
+        <v>820.68610000000001</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>10</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="14">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>D1K</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>AK</t>
   </si>
 </sst>
 </file>
@@ -569,16 +575,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>315.82702719999997</v>
+        <v>4.0492001999999996</v>
       </c>
       <c r="C3" s="2">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="D3" s="2">
-        <v>1090.2258999999999</v>
+        <v>1807.7536</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -587,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -595,16 +601,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>323.18500449999999</v>
+        <v>7.1204846000000002</v>
       </c>
       <c r="C4" s="3">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="D4" s="3">
-        <v>2200.0292880000002</v>
+        <v>2735.4153999999999</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -613,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -621,16 +627,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>328.26534179999999</v>
+        <v>11.8360901</v>
       </c>
       <c r="C5" s="2">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="D5" s="2">
-        <v>1103.7359019999999</v>
+        <v>1098.1291000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -639,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -647,16 +653,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>333.04802430000001</v>
+        <v>15.456606000000001</v>
       </c>
       <c r="C6" s="3">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="D6" s="3">
-        <v>2348.8677659999998</v>
+        <v>5376.3850000000002</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -665,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -673,16 +679,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>337.14515280000001</v>
+        <v>26.9459658</v>
       </c>
       <c r="C7" s="2">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="D7" s="2">
-        <v>2382.3050739999999</v>
+        <v>3401.3123000000001</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -691,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -699,16 +705,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>340.62893689999999</v>
+        <v>33.494452899999999</v>
       </c>
       <c r="C8" s="3">
         <v>6000</v>
       </c>
       <c r="D8" s="3">
-        <v>1427.9218069999999</v>
+        <v>1433.9340999999999</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -717,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -725,13 +731,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>350.58183170000001</v>
+        <v>36.597187499999997</v>
       </c>
       <c r="C9" s="2">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="D9" s="2">
-        <v>5639.2388769999998</v>
+        <v>821.16089999999997</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -743,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -751,13 +757,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>357.63409569999999</v>
+        <v>47.787277600000003</v>
       </c>
       <c r="C10" s="3">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="D10" s="3">
-        <v>2182.8478490000002</v>
+        <v>3438.9106000000002</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -766,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -777,25 +783,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>368.89917830000002</v>
+        <v>53.537445400000003</v>
       </c>
       <c r="C11" s="2">
         <v>7000</v>
       </c>
       <c r="D11" s="2">
-        <v>1463.0468960000001</v>
+        <v>1374.1642999999999</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -803,25 +809,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>371.81944529999998</v>
+        <v>60.163088700000003</v>
       </c>
       <c r="C12" s="3">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D12" s="3">
-        <v>2180.2593609999999</v>
+        <v>1573.7245</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -829,25 +835,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>374.77300600000001</v>
+        <v>66.433416500000007</v>
       </c>
       <c r="C13" s="2">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D13" s="2">
-        <v>2921.4195370000002</v>
+        <v>2221.3346999999999</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -855,25 +861,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>390.94885740000001</v>
+        <v>69.038213099999993</v>
       </c>
       <c r="C14" s="3">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="D14" s="3">
-        <v>988.26182600000004</v>
+        <v>1624.3289</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -881,13 +887,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>397.0954102</v>
+        <v>66.689792999999995</v>
       </c>
       <c r="C15" s="2">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="D15" s="2">
-        <v>3323.8994440000001</v>
+        <v>779.77589999999998</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -896,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -907,13 +913,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>401.55492179999999</v>
+        <v>68.560881199999997</v>
       </c>
       <c r="C16" s="3">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="D16" s="3">
-        <v>2430.9535099999998</v>
+        <v>696.32349999999997</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -922,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -933,13 +939,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>405.89882299999999</v>
+        <v>70.324928400000005</v>
       </c>
       <c r="C17" s="2">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="D17" s="2">
-        <v>1135.909216</v>
+        <v>727.52779999999996</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -948,10 +954,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -959,13 +965,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>407.36734760000002</v>
+        <v>73.0020521</v>
       </c>
       <c r="C18" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="D18" s="3">
-        <v>1646.3715790000001</v>
+        <v>1883.0858000000001</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -974,10 +980,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -985,25 +991,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>413.80403200000001</v>
+        <v>77.718885</v>
       </c>
       <c r="C19" s="2">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="D19" s="2">
-        <v>3782.981237</v>
+        <v>1432.0945999999999</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1011,25 +1017,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>420.6593527</v>
+        <v>82.556662799999998</v>
       </c>
       <c r="C20" s="3">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D20" s="3">
-        <v>5321.484332</v>
+        <v>1223.8866</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1037,25 +1043,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>432.74724830000002</v>
+        <v>88.099984000000006</v>
       </c>
       <c r="C21" s="2">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D21" s="2">
-        <v>2561.0439000000001</v>
+        <v>1978.0589</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1063,13 +1069,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>438.41537110000002</v>
+        <v>92.132422300000002</v>
       </c>
       <c r="C22" s="3">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="D22" s="3">
-        <v>802.12450000000001</v>
+        <v>2496.7968000000001</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1078,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1089,25 +1095,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>446.35865749999999</v>
+        <v>103.33785279999999</v>
       </c>
       <c r="C23" s="2">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="D23" s="2">
-        <v>1021.1006</v>
+        <v>1153.2281</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1115,13 +1121,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>452.57836200000003</v>
+        <v>110.44713489999999</v>
       </c>
       <c r="C24" s="3">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="D24" s="3">
-        <v>2570.5383000000002</v>
+        <v>1676.6187</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1130,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1141,25 +1147,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>456.11954609999998</v>
+        <v>128.76806629999999</v>
       </c>
       <c r="C25" s="2">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="D25" s="2">
-        <v>2886.2013999999999</v>
+        <v>3304.6619000000001</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1167,13 +1173,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>459.36926949999997</v>
+        <v>138.21067400000001</v>
       </c>
       <c r="C26" s="3">
         <v>7000</v>
       </c>
       <c r="D26" s="3">
-        <v>1286.4772</v>
+        <v>1054.4768999999999</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1182,10 +1188,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1193,25 +1199,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>464.07863279999998</v>
+        <v>144.47495979999999</v>
       </c>
       <c r="C27" s="2">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="D27" s="2">
-        <v>1256.7506000000001</v>
+        <v>792.89400000000001</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1219,13 +1225,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>471.5684948</v>
+        <v>147.41323800000001</v>
       </c>
       <c r="C28" s="3">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="D28" s="3">
-        <v>1679.9512</v>
+        <v>3929.0236</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -1234,10 +1240,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1245,25 +1251,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>475.58138750000001</v>
+        <v>152.7491785</v>
       </c>
       <c r="C29" s="2">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="D29" s="2">
-        <v>948.42340000000002</v>
+        <v>2084.5956000000001</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1271,25 +1277,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>483.45363320000001</v>
+        <v>156.6615899</v>
       </c>
       <c r="C30" s="3">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="D30" s="3">
-        <v>1035.4353000000001</v>
+        <v>2724.4353000000001</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1297,25 +1303,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>486.16280419999998</v>
+        <v>168.93730969999999</v>
       </c>
       <c r="C31" s="2">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D31" s="2">
-        <v>2392.0468000000001</v>
+        <v>6589.0722999999998</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1323,13 +1329,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>490.23304189999999</v>
+        <v>199.24490700000001</v>
       </c>
       <c r="C32" s="3">
         <v>6000</v>
       </c>
       <c r="D32" s="3">
-        <v>3619.3011999999999</v>
+        <v>1542.0730000000001</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -1338,10 +1344,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1349,25 +1355,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>495.19429450000001</v>
+        <v>206.26580659999999</v>
       </c>
       <c r="C33" s="2">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D33" s="2">
-        <v>1177.1618000000001</v>
+        <v>1488.3023000000001</v>
       </c>
       <c r="E33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1375,13 +1381,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>498.39571860000001</v>
+        <v>208.30978300000001</v>
       </c>
       <c r="C34" s="3">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="D34" s="3">
-        <v>1063.4332999999999</v>
+        <v>1854.2226000000001</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -1390,10 +1396,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1401,13 +1407,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>505.15790909999998</v>
+        <v>215.30963700000001</v>
       </c>
       <c r="C35" s="2">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="D35" s="2">
-        <v>2261.4294</v>
+        <v>893.91319999999996</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -1416,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1427,25 +1433,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="6">
-        <v>511.60539490000002</v>
+        <v>219.038645</v>
       </c>
       <c r="C36" s="3">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D36" s="3">
-        <v>1749.5124000000001</v>
+        <v>2387.0558000000001</v>
       </c>
       <c r="E36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1453,13 +1459,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>514.08002069999998</v>
+        <v>225.44556399999999</v>
       </c>
       <c r="C37" s="2">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="D37" s="2">
-        <v>5056.1396999999997</v>
+        <v>723.17719999999997</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -1468,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1479,13 +1485,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="6">
-        <v>525.29356710000002</v>
+        <v>232.40445969999999</v>
       </c>
       <c r="C38" s="3">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="D38" s="3">
-        <v>2789.3631999999998</v>
+        <v>3699.6776</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -1494,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1505,25 +1511,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>539.43672730000003</v>
+        <v>239.02049310000001</v>
       </c>
       <c r="C39" s="2">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="D39" s="2">
-        <v>4256.3141999999998</v>
+        <v>1211.6813</v>
       </c>
       <c r="E39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1531,25 +1537,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="6">
-        <v>547.10153790000004</v>
+        <v>244.17196000000001</v>
       </c>
       <c r="C40" s="3">
         <v>8000</v>
       </c>
       <c r="D40" s="3">
-        <v>1056.1876</v>
+        <v>2834.1149</v>
       </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
       </c>
       <c r="G40" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1557,25 +1563,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>556.78064959999995</v>
+        <v>252.10094029999999</v>
       </c>
       <c r="C41" s="2">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="D41" s="2">
-        <v>3331.25</v>
+        <v>558.80780000000004</v>
       </c>
       <c r="E41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
       </c>
       <c r="G41" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1583,13 +1589,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="6">
-        <v>564.19926239999995</v>
+        <v>259.374101</v>
       </c>
       <c r="C42" s="3">
         <v>6000</v>
       </c>
       <c r="D42" s="3">
-        <v>3347.7516000000001</v>
+        <v>1464.2091</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
@@ -1598,10 +1604,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1609,25 +1615,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>577.3539194</v>
+        <v>262.87909910000002</v>
       </c>
       <c r="C43" s="2">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D43" s="2">
-        <v>5047.2678999999998</v>
+        <v>1786.8435999999999</v>
       </c>
       <c r="E43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1635,13 +1641,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="6">
-        <v>584.80967480000004</v>
+        <v>267.5204061</v>
       </c>
       <c r="C44" s="3">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="D44" s="3">
-        <v>5784.6103000000003</v>
+        <v>3037.0405000000001</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -1650,10 +1656,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1661,25 +1667,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>594.40891429999999</v>
+        <v>270.84695920000001</v>
       </c>
       <c r="C45" s="2">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="D45" s="2">
-        <v>747.01620000000003</v>
+        <v>2572.0554000000002</v>
       </c>
       <c r="E45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
       </c>
       <c r="G45" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1687,13 +1693,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="6">
-        <v>599.45310129999996</v>
+        <v>275.33102630000002</v>
       </c>
       <c r="C46" s="3">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D46" s="3">
-        <v>943.44730000000004</v>
+        <v>1175.6987999999999</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1702,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="G46" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1713,13 +1719,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>602.49928239999997</v>
+        <v>280.42826179999997</v>
       </c>
       <c r="C47" s="2">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="D47" s="2">
-        <v>2495.1747999999998</v>
+        <v>2210.8541</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -1728,10 +1734,10 @@
         <v>1</v>
       </c>
       <c r="G47" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1739,13 +1745,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="6">
-        <v>618.57127149999997</v>
+        <v>285.23355450000003</v>
       </c>
       <c r="C48" s="3">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="D48" s="3">
-        <v>1097.4061999999999</v>
+        <v>2004.298</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -1754,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1765,13 +1771,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>622.33666149999999</v>
+        <v>290.70947280000001</v>
       </c>
       <c r="C49" s="2">
-        <v>10000</v>
+        <v>2200</v>
       </c>
       <c r="D49" s="2">
-        <v>1560.3327999999999</v>
+        <v>3294.3724999999999</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -1780,10 +1786,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1791,13 +1797,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="6">
-        <v>625.61895660000005</v>
+        <v>302.49934080000003</v>
       </c>
       <c r="C50" s="3">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="D50" s="3">
-        <v>2593.3971000000001</v>
+        <v>3372.2766000000001</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -1806,349 +1812,167 @@
         <v>1</v>
       </c>
       <c r="G50" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
-        <v>628.82230879999997</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1921.0836999999999</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2">
-        <v>7</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6">
-        <v>636.13449909999997</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D52" s="3">
-        <v>4754.28</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
-        <v>644.37840740000001</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2746.0335</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2">
-        <v>8</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6">
-        <v>647.84808190000001</v>
-      </c>
-      <c r="C54" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D54" s="3">
-        <v>7341.6742000000004</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
-        <v>668.55842280000002</v>
-      </c>
-      <c r="C55" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1787.0331000000001</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
-        <v>1</v>
-      </c>
-      <c r="G55" s="2">
-        <v>8</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6">
-        <v>686.97661889999995</v>
-      </c>
-      <c r="C56" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D56" s="3">
-        <v>2475.5034000000001</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>9</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
-        <v>690.98983599999997</v>
-      </c>
-      <c r="C57" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D57" s="2">
-        <v>4270.0219999999999</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
-      <c r="G57" s="2">
-        <v>9</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6">
-        <v>695.91721150000001</v>
-      </c>
-      <c r="C58" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2483.5753</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>9</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
-        <v>706.61747430000003</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D59" s="2">
-        <v>2988.2426</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>1</v>
-      </c>
-      <c r="G59" s="2">
-        <v>10</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6">
-        <v>713.66087619999996</v>
-      </c>
-      <c r="C60" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D60" s="3">
-        <v>3804.2375000000002</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>10</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
-        <v>720.94970990000002</v>
-      </c>
-      <c r="C61" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2589.1632</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2">
-        <v>1</v>
-      </c>
-      <c r="G61" s="2">
-        <v>10</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6">
-        <v>726.0277476</v>
-      </c>
-      <c r="C62" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D62" s="3">
-        <v>4043.2195000000002</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
-        <v>732.49868690000005</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D63" s="2">
-        <v>820.68610000000001</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1</v>
-      </c>
-      <c r="G63" s="2">
-        <v>10</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="4125" windowWidth="17190" windowHeight="6645" activeTab="1"/>
+    <workbookView xWindow="465" yWindow="4125" windowWidth="17190" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="下行" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="12">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,10 +66,10 @@
     <t>DK</t>
   </si>
   <si>
-    <t>D1K</t>
+    <t>CK</t>
   </si>
   <si>
-    <t>YDK</t>
+    <t>D1K</t>
   </si>
 </sst>
 </file>
@@ -511,9 +511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,25 +569,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>0.185033</v>
+        <v>305.43556999999998</v>
       </c>
       <c r="C3" s="2">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="D3" s="2">
-        <v>184.47800000000001</v>
+        <v>422.9</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -595,25 +595,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>0.49030800000000002</v>
+        <v>304.78264000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="D4" s="3">
-        <v>351.61</v>
+        <v>410.61</v>
       </c>
       <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -621,25 +621,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>1.266373</v>
+        <v>303.96834999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="2">
-        <v>607.54300000000001</v>
+        <v>567.35</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -647,25 +647,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>3.8670209999999998</v>
+        <v>300.73948999999999</v>
       </c>
       <c r="C6" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="3">
-        <v>1988.249</v>
+        <v>405.96</v>
       </c>
       <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -673,25 +673,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>8.1383995000000002</v>
+        <v>298.78681999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D7" s="2">
-        <v>1146.2247</v>
+        <v>206.28</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -699,25 +699,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>9.5247542999999997</v>
+        <v>298.30964999999998</v>
       </c>
       <c r="C8" s="3">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="3">
-        <v>1224.7148</v>
+        <v>974.65</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -725,25 +725,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>11.121271999999999</v>
+        <v>294.81157000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="D9" s="2">
-        <v>880.18100000000004</v>
+        <v>126.57</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -751,169 +751,157 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>13.033102400000001</v>
+        <v>294.62457000000001</v>
       </c>
       <c r="C10" s="3">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="D10" s="3">
-        <v>1532.4278999999999</v>
+        <v>126.57</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>16.8891758</v>
+        <v>293.95154000000002</v>
       </c>
       <c r="C11" s="2">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="D11" s="2">
-        <v>781.58680000000004</v>
+        <v>140.54</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>20.678500400000001</v>
+        <v>293.62653999999998</v>
       </c>
       <c r="C12" s="3">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="D12" s="3">
-        <v>1345.7367999999999</v>
+        <v>140.54</v>
       </c>
       <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>23.059723600000002</v>
+        <v>291.74786</v>
       </c>
       <c r="C13" s="2">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="D13" s="2">
-        <v>1093.5971999999999</v>
+        <v>644.86</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>26.618151000000001</v>
+        <v>290.71345000000002</v>
       </c>
       <c r="C14" s="3">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="3">
-        <v>1039.2056</v>
+        <v>707.45</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>29.100413400000001</v>
+        <v>289.75378000000001</v>
       </c>
       <c r="C15" s="2">
-        <v>4500</v>
+        <v>800</v>
       </c>
       <c r="D15" s="2">
-        <v>2046.9152999999999</v>
+        <v>776.78</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>32.541220899999999</v>
+        <v>3.9292000000000001E-2</v>
       </c>
       <c r="C16" s="3">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="D16" s="3">
-        <v>2882.7440000000001</v>
+        <v>201.10210000000001</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -933,13 +921,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>36.624702900000003</v>
+        <v>0.3434547</v>
       </c>
       <c r="C17" s="2">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="D17" s="2">
-        <v>6339.5745999999999</v>
+        <v>201.10409999999999</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -959,16 +947,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>43.232531799999997</v>
+        <v>2.1470256999999999</v>
       </c>
       <c r="C18" s="3">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D18" s="3">
-        <v>1698.634</v>
+        <v>545.30409999999995</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -985,16 +973,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>45.411208199999997</v>
+        <v>2.8753783999999998</v>
       </c>
       <c r="C19" s="2">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="D19" s="2">
-        <v>2041.7044000000001</v>
+        <v>550.17970000000003</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -1011,13 +999,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>49.864367399999999</v>
+        <v>3.8570720999999999</v>
       </c>
       <c r="C20" s="3">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="D20" s="3">
-        <v>2018.3525999999999</v>
+        <v>985.61329999999998</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1037,13 +1025,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>53.614540099999999</v>
+        <v>6.7396305999999999</v>
       </c>
       <c r="C21" s="2">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="D21" s="2">
-        <v>1298.681</v>
+        <v>1665.4521999999999</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1063,13 +1051,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>56.071863200000003</v>
+        <v>10.6480514</v>
       </c>
       <c r="C22" s="3">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D22" s="3">
-        <v>4745.7263999999996</v>
+        <v>3991.5046000000002</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1078,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1089,13 +1077,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>61.548894699999998</v>
+        <v>19.319438300000002</v>
       </c>
       <c r="C23" s="2">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="D23" s="2">
-        <v>2733.6945000000001</v>
+        <v>2629.1017000000002</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1115,13 +1103,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>65.911789900000002</v>
+        <v>24.772283099999999</v>
       </c>
       <c r="C24" s="3">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="D24" s="3">
-        <v>1308.9954</v>
+        <v>5484.3118000000004</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1141,13 +1129,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>69.524628300000003</v>
+        <v>30.9080002</v>
       </c>
       <c r="C25" s="2">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="D25" s="2">
-        <v>1162.0342000000001</v>
+        <v>3021.2336</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -1167,13 +1155,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>71.300979299999995</v>
+        <v>44.292811499999999</v>
       </c>
       <c r="C26" s="3">
-        <v>3700</v>
+        <v>11000</v>
       </c>
       <c r="D26" s="3">
-        <v>2967.6397000000002</v>
+        <v>1203.3868</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1182,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -1193,13 +1181,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>77.099838199999994</v>
+        <v>50.306306300000003</v>
       </c>
       <c r="C27" s="2">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="D27" s="2">
-        <v>1080.7134000000001</v>
+        <v>2505.5677999999998</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -1219,16 +1207,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>78.635827199999994</v>
+        <v>53.0935086</v>
       </c>
       <c r="C28" s="3">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="D28" s="3">
-        <v>1078.1583000000001</v>
+        <v>1722.3297</v>
       </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -1245,16 +1233,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>80.899594100000002</v>
+        <v>59.623047399999997</v>
       </c>
       <c r="C29" s="2">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="D29" s="2">
-        <v>1392.5319</v>
+        <v>3688.5900999999999</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -1271,16 +1259,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>83.096460899999997</v>
+        <v>66.799622499999998</v>
       </c>
       <c r="C30" s="3">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="D30" s="3">
-        <v>1839.3932</v>
+        <v>1435.6901</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -1297,25 +1285,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>87.389956699999999</v>
+        <v>73.112170000000006</v>
       </c>
       <c r="C31" s="2">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="D31" s="2">
-        <v>2792.06</v>
+        <v>2787.6246999999998</v>
       </c>
       <c r="E31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1323,25 +1311,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>91.312634700000004</v>
+        <v>79.776534499999997</v>
       </c>
       <c r="C32" s="3">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="D32" s="3">
-        <v>1222.9172000000001</v>
+        <v>2220.9801000000002</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1349,25 +1337,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>92.771765799999997</v>
+        <v>84.799333500000003</v>
       </c>
       <c r="C33" s="2">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="D33" s="2">
-        <v>3062.8586</v>
+        <v>4168.4322000000002</v>
       </c>
       <c r="E33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1375,286 +1363,146 @@
         <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>96.172654800000004</v>
+        <v>90.891865699999997</v>
       </c>
       <c r="C34" s="3">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="D34" s="3">
-        <v>1010.4756</v>
+        <v>1540.6255000000001</v>
       </c>
       <c r="E34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>99.360454099999998</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3500</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1653.0297</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>5</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
-        <v>101.2187021</v>
-      </c>
-      <c r="C36" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1191.0911000000001</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>5</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
-        <v>105.58464739999999</v>
-      </c>
-      <c r="C37" s="2">
-        <v>4000</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1339.5436</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>5</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
-        <v>107.59316010000001</v>
-      </c>
-      <c r="C38" s="3">
-        <v>4500</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1210.1192000000001</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>5</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>109.2329771</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1028.6201000000001</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2">
-        <v>5</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6">
-        <v>110.86019330000001</v>
-      </c>
-      <c r="C40" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1287.5582999999999</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>5</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>112.42241730000001</v>
-      </c>
-      <c r="C41" s="2">
-        <v>3500</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1489.086</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>5</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
-        <v>114.8421227</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D42" s="3">
-        <v>2301.4924000000001</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>117.3437674</v>
-      </c>
-      <c r="C43" s="2">
-        <v>800</v>
-      </c>
-      <c r="D43" s="2">
-        <v>553.27629999999999</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>5</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6">
-        <v>118.2141961</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1400</v>
-      </c>
-      <c r="D44" s="3">
-        <v>264.13130000000001</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
@@ -13153,9 +13001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13211,25 +13059,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>0.36951100000000003</v>
+        <v>305.01266999999996</v>
       </c>
       <c r="C3" s="2">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="D3" s="2">
-        <v>184.47800000000001</v>
+        <v>422.9</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13237,25 +13085,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>0.84191800000000006</v>
+        <v>304.37203</v>
       </c>
       <c r="C4" s="3">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="D4" s="3">
-        <v>351.61</v>
+        <v>410.61</v>
       </c>
       <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13263,25 +13111,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>1.8739159999999999</v>
+        <v>303.40100000000001</v>
       </c>
       <c r="C5" s="2">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="2">
-        <v>607.54300000000001</v>
+        <v>567.35</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13289,25 +13137,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>5.85527</v>
+        <v>300.33353</v>
       </c>
       <c r="C6" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="3">
-        <v>1988.249</v>
+        <v>405.96</v>
       </c>
       <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13315,25 +13163,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>9.2846241999999997</v>
+        <v>298.58053999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D7" s="2">
-        <v>1146.2247</v>
+        <v>206.28</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13341,25 +13189,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>10.749469099999999</v>
+        <v>297.33499999999998</v>
       </c>
       <c r="C8" s="3">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="3">
-        <v>1224.7148</v>
+        <v>974.65</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13367,25 +13215,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>12.001453</v>
+        <v>294.685</v>
       </c>
       <c r="C9" s="2">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="D9" s="2">
-        <v>880.18100000000004</v>
+        <v>126.57</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13393,175 +13241,163 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>14.565530300000001</v>
+        <v>294.49799999999999</v>
       </c>
       <c r="C10" s="3">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="D10" s="3">
-        <v>1532.4278999999999</v>
+        <v>126.57</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>17.6707626</v>
+        <v>293.81100000000004</v>
       </c>
       <c r="C11" s="2">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="D11" s="2">
-        <v>781.58680000000004</v>
+        <v>140.54</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>22.024237200000002</v>
+        <v>293.48599999999999</v>
       </c>
       <c r="C12" s="3">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="D12" s="3">
-        <v>1345.7367999999999</v>
+        <v>140.54</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>24.153320800000003</v>
+        <v>291.10300000000001</v>
       </c>
       <c r="C13" s="2">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="D13" s="2">
-        <v>1093.5971999999999</v>
+        <v>644.86</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>27.6573566</v>
+        <v>290.00600000000003</v>
       </c>
       <c r="C14" s="3">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="3">
-        <v>1039.2056</v>
+        <v>707.45</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>31.147328699999999</v>
+        <v>288.97700000000003</v>
       </c>
       <c r="C15" s="2">
-        <v>4500</v>
+        <v>800</v>
       </c>
       <c r="D15" s="2">
-        <v>2046.9152999999999</v>
+        <v>776.78</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>35.423964900000001</v>
+        <v>0.2403941</v>
       </c>
       <c r="C16" s="3">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="D16" s="3">
-        <v>2882.7440000000001</v>
+        <v>201.10210000000001</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -13575,13 +13411,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>42.964277500000001</v>
+        <v>0.54455880000000001</v>
       </c>
       <c r="C17" s="2">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="D17" s="2">
-        <v>6339.5745999999999</v>
+        <v>201.10409999999999</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -13601,16 +13437,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>44.931165799999995</v>
+        <v>2.6923298</v>
       </c>
       <c r="C18" s="3">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D18" s="3">
-        <v>1698.634</v>
+        <v>545.30409999999995</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -13627,16 +13463,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>47.452912599999998</v>
+        <v>3.4255580999999999</v>
       </c>
       <c r="C19" s="2">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="D19" s="2">
-        <v>2041.7044000000001</v>
+        <v>550.17970000000003</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -13653,13 +13489,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>51.882719999999999</v>
+        <v>4.8426853999999997</v>
       </c>
       <c r="C20" s="3">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="D20" s="3">
-        <v>2018.3525999999999</v>
+        <v>985.61329999999998</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -13679,13 +13515,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>54.913221100000001</v>
+        <v>8.4050828000000006</v>
       </c>
       <c r="C21" s="2">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="D21" s="2">
-        <v>1298.681</v>
+        <v>1665.4521999999999</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -13705,13 +13541,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>60.817589600000005</v>
+        <v>14.639556000000001</v>
       </c>
       <c r="C22" s="3">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D22" s="3">
-        <v>4745.7263999999996</v>
+        <v>3991.5046000000002</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -13720,10 +13556,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13731,13 +13567,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>64.282589200000004</v>
+        <v>21.948540000000001</v>
       </c>
       <c r="C23" s="2">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="D23" s="2">
-        <v>2733.6945000000001</v>
+        <v>2629.1017000000002</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -13757,13 +13593,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>67.220785300000003</v>
+        <v>30.2565949</v>
       </c>
       <c r="C24" s="3">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="D24" s="3">
-        <v>1308.9954</v>
+        <v>5484.3118000000004</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -13783,13 +13619,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>70.686662499999997</v>
+        <v>33.929233799999999</v>
       </c>
       <c r="C25" s="2">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="D25" s="2">
-        <v>1162.0342000000001</v>
+        <v>3021.2336</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -13809,13 +13645,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>74.268619000000001</v>
+        <v>45.496198299999996</v>
       </c>
       <c r="C26" s="3">
-        <v>3700</v>
+        <v>11000</v>
       </c>
       <c r="D26" s="3">
-        <v>2967.6397000000002</v>
+        <v>1203.3868</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -13824,7 +13660,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -13835,13 +13671,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>78.180551599999987</v>
+        <v>52.811874100000004</v>
       </c>
       <c r="C27" s="2">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="D27" s="2">
-        <v>1080.7134000000001</v>
+        <v>2505.5677999999998</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -13861,16 +13697,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>79.713985499999993</v>
+        <v>54.815838300000003</v>
       </c>
       <c r="C28" s="3">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="D28" s="3">
-        <v>1078.1583000000001</v>
+        <v>1722.3297</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -13887,16 +13723,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>82.292125999999996</v>
+        <v>63.311637499999996</v>
       </c>
       <c r="C29" s="2">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="D29" s="2">
-        <v>1392.5319</v>
+        <v>3688.5900999999999</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -13913,16 +13749,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>84.9358541</v>
+        <v>68.2353126</v>
       </c>
       <c r="C30" s="3">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="D30" s="3">
-        <v>1839.3932</v>
+        <v>1435.6901</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -13939,25 +13775,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>90.182016700000005</v>
+        <v>75.899794700000001</v>
       </c>
       <c r="C31" s="2">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="D31" s="2">
-        <v>2792.06</v>
+        <v>2787.6246999999998</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13965,25 +13801,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>92.535551900000002</v>
+        <v>81.997514600000002</v>
       </c>
       <c r="C32" s="3">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="D32" s="3">
-        <v>1222.9172000000001</v>
+        <v>2220.9801000000002</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13991,25 +13827,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>95.834624399999996</v>
+        <v>88.967765700000001</v>
       </c>
       <c r="C33" s="2">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="D33" s="2">
-        <v>3062.8586</v>
+        <v>4168.4322000000002</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14017,286 +13853,146 @@
         <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>97.18313040000001</v>
+        <v>92.432491200000001</v>
       </c>
       <c r="C34" s="3">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="D34" s="3">
-        <v>1010.4756</v>
+        <v>1540.6255000000001</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>101.0134838</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3500</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1653.0297</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>5</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
-        <v>102.4097932</v>
-      </c>
-      <c r="C36" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1191.0911000000001</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>5</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
-        <v>106.92419099999999</v>
-      </c>
-      <c r="C37" s="2">
-        <v>4000</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1339.5436</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>5</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
-        <v>108.8032793</v>
-      </c>
-      <c r="C38" s="3">
-        <v>4500</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1210.1192000000001</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>5</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>110.2615972</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1028.6201000000001</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>5</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6">
-        <v>112.14775160000001</v>
-      </c>
-      <c r="C40" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1287.5582999999999</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>5</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>113.91150330000001</v>
-      </c>
-      <c r="C41" s="2">
-        <v>3500</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1489.086</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>5</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
-        <v>117.14361510000001</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D42" s="3">
-        <v>2301.4924000000001</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>117.8970437</v>
-      </c>
-      <c r="C43" s="2">
-        <v>800</v>
-      </c>
-      <c r="D43" s="2">
-        <v>553.27629999999999</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>5</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6">
-        <v>118.4783274</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1400</v>
-      </c>
-      <c r="D44" s="3">
-        <v>264.13130000000001</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="11">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,13 +63,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DK</t>
+    <t>IDK</t>
   </si>
   <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>D1K</t>
+    <t>ID1K</t>
   </si>
 </sst>
 </file>
@@ -569,25 +566,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>305.43556999999998</v>
+        <v>2.7315109</v>
       </c>
       <c r="C3" s="2">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="D3" s="2">
-        <v>422.9</v>
+        <v>707.57640000000004</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -595,25 +592,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>304.78264000000001</v>
+        <v>5.0144245999999999</v>
       </c>
       <c r="C4" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="D4" s="3">
-        <v>410.61</v>
+        <v>2369.0355</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -621,25 +618,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>303.96834999999999</v>
+        <v>8.2674683000000009</v>
       </c>
       <c r="C5" s="2">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="D5" s="2">
-        <v>567.35</v>
+        <v>2519.5684000000001</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -647,25 +644,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>300.73948999999999</v>
+        <v>14.3430044</v>
       </c>
       <c r="C6" s="3">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="D6" s="3">
-        <v>405.96</v>
+        <v>1991.6749</v>
       </c>
       <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -673,25 +670,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>298.78681999999998</v>
+        <v>20.729054999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D7" s="2">
-        <v>206.28</v>
+        <v>2655.1012999999998</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -699,25 +696,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>298.30964999999998</v>
+        <v>32.202329200000001</v>
       </c>
       <c r="C8" s="3">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="D8" s="3">
-        <v>974.65</v>
+        <v>1200.4354000000001</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -725,25 +722,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>294.81157000000002</v>
+        <v>47.9538498</v>
       </c>
       <c r="C9" s="2">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="D9" s="2">
-        <v>126.57</v>
+        <v>3915.8877000000002</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -751,157 +748,169 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>294.62457000000001</v>
+        <v>54.633147100000002</v>
       </c>
       <c r="C10" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="3">
-        <v>126.57</v>
+        <v>541.99950000000001</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>293.95154000000002</v>
+        <v>62.119838700000003</v>
       </c>
       <c r="C11" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D11" s="2">
-        <v>140.54</v>
+        <v>1214.2593999999999</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>293.62653999999998</v>
+        <v>66.018515500000007</v>
       </c>
       <c r="C12" s="3">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="D12" s="3">
-        <v>140.54</v>
+        <v>685.18119999999999</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>291.74786</v>
+        <v>73.054208599999995</v>
       </c>
       <c r="C13" s="2">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="D13" s="2">
-        <v>644.86</v>
+        <v>2547.8537999999999</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>290.71345000000002</v>
+        <v>82.299369299999995</v>
       </c>
       <c r="C14" s="3">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="D14" s="3">
-        <v>707.45</v>
+        <v>949.73429999999996</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>289.75378000000001</v>
+        <v>86.151971799999998</v>
       </c>
       <c r="C15" s="2">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="D15" s="2">
-        <v>776.78</v>
+        <v>802.89070000000004</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>3.9292000000000001E-2</v>
+        <v>90.616797800000001</v>
       </c>
       <c r="C16" s="3">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="D16" s="3">
-        <v>201.10210000000001</v>
+        <v>3055.7734</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -910,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -921,13 +930,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>0.3434547</v>
+        <v>94.678012199999998</v>
       </c>
       <c r="C17" s="2">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="D17" s="2">
-        <v>201.10409999999999</v>
+        <v>2879.0515</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -936,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
@@ -947,22 +956,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>2.1470256999999999</v>
+        <v>99.644434899999993</v>
       </c>
       <c r="C18" s="3">
-        <v>8000</v>
+        <v>3005</v>
       </c>
       <c r="D18" s="3">
-        <v>545.30409999999995</v>
+        <v>3882.8951000000002</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -973,22 +982,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>2.8753783999999998</v>
+        <v>106.0043987</v>
       </c>
       <c r="C19" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D19" s="2">
-        <v>550.17970000000003</v>
+        <v>1457.3202000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
@@ -999,22 +1008,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>3.8570720999999999</v>
+        <v>115.270129</v>
       </c>
       <c r="C20" s="3">
-        <v>2800</v>
+        <v>5500</v>
       </c>
       <c r="D20" s="3">
-        <v>985.61329999999998</v>
+        <v>1374.2177999999999</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -1025,22 +1034,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>6.7396305999999999</v>
+        <v>122.9528368</v>
       </c>
       <c r="C21" s="2">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="D21" s="2">
-        <v>1665.4521999999999</v>
+        <v>1949.8081999999999</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>9</v>
@@ -1051,13 +1060,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>10.6480514</v>
+        <v>127.3995838</v>
       </c>
       <c r="C22" s="3">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="D22" s="3">
-        <v>3991.5046000000002</v>
+        <v>1091.5721000000001</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1077,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>19.319438300000002</v>
+        <v>131.2361985</v>
       </c>
       <c r="C23" s="2">
-        <v>8000</v>
+        <v>1600</v>
       </c>
       <c r="D23" s="2">
-        <v>2629.1017000000002</v>
+        <v>503.15249999999997</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1102,287 +1111,133 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
-        <v>24.772283099999999</v>
-      </c>
-      <c r="C24" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5484.3118000000004</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>30.9080002</v>
-      </c>
-      <c r="C25" s="2">
-        <v>11000</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3021.2336</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>3</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
-        <v>44.292811499999999</v>
-      </c>
-      <c r="C26" s="3">
-        <v>11000</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1203.3868</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>50.306306300000003</v>
-      </c>
-      <c r="C27" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2505.5677999999998</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>4</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
-        <v>53.0935086</v>
-      </c>
-      <c r="C28" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1722.3297</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>4</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>59.623047399999997</v>
-      </c>
-      <c r="C29" s="2">
-        <v>11000</v>
-      </c>
-      <c r="D29" s="2">
-        <v>3688.5900999999999</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>4</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6">
-        <v>66.799622499999998</v>
-      </c>
-      <c r="C30" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1435.6901</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>4</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>73.112170000000006</v>
-      </c>
-      <c r="C31" s="2">
-        <v>9000</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2787.6246999999998</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>4</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
-        <v>79.776534499999997</v>
-      </c>
-      <c r="C32" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2220.9801000000002</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>84.799333500000003</v>
-      </c>
-      <c r="C33" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D33" s="2">
-        <v>4168.4322000000002</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>4</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
-        <v>90.891865699999997</v>
-      </c>
-      <c r="C34" s="3">
-        <v>9000</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1540.6255000000001</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>4</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
@@ -13059,25 +12914,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>305.01266999999996</v>
+        <v>3.4390872999999997</v>
       </c>
       <c r="C3" s="2">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="D3" s="2">
-        <v>422.9</v>
+        <v>707.57640000000004</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13085,25 +12940,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>304.37203</v>
+        <v>7.3834600999999997</v>
       </c>
       <c r="C4" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="D4" s="3">
-        <v>410.61</v>
+        <v>2369.0355</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13111,25 +12966,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>303.40100000000001</v>
+        <v>10.787036700000002</v>
       </c>
       <c r="C5" s="2">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="D5" s="2">
-        <v>567.35</v>
+        <v>2519.5684000000001</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13137,25 +12992,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>300.33353</v>
+        <v>16.334679300000001</v>
       </c>
       <c r="C6" s="3">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="D6" s="3">
-        <v>405.96</v>
+        <v>1991.6749</v>
       </c>
       <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13163,25 +13018,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>298.58053999999998</v>
+        <v>23.384156299999997</v>
       </c>
       <c r="C7" s="2">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D7" s="2">
-        <v>206.28</v>
+        <v>2655.1012999999998</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13189,25 +13044,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>297.33499999999998</v>
+        <v>33.402764600000005</v>
       </c>
       <c r="C8" s="3">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="D8" s="3">
-        <v>974.65</v>
+        <v>1200.4354000000001</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13215,25 +13070,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>294.685</v>
+        <v>51.869737499999999</v>
       </c>
       <c r="C9" s="2">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="D9" s="2">
-        <v>126.57</v>
+        <v>3915.8877000000002</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13241,166 +13096,178 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>294.49799999999999</v>
+        <v>55.175146600000005</v>
       </c>
       <c r="C10" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="3">
-        <v>126.57</v>
+        <v>541.99950000000001</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>293.81100000000004</v>
+        <v>63.334098100000006</v>
       </c>
       <c r="C11" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D11" s="2">
-        <v>140.54</v>
+        <v>1214.2593999999999</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>293.48599999999999</v>
+        <v>66.703696700000009</v>
       </c>
       <c r="C12" s="3">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="D12" s="3">
-        <v>140.54</v>
+        <v>685.18119999999999</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>291.10300000000001</v>
+        <v>75.602062399999994</v>
       </c>
       <c r="C13" s="2">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="D13" s="2">
-        <v>644.86</v>
+        <v>2547.8537999999999</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>290.00600000000003</v>
+        <v>83.249103599999998</v>
       </c>
       <c r="C14" s="3">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="D14" s="3">
-        <v>707.45</v>
+        <v>949.73429999999996</v>
       </c>
       <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
       <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>288.97700000000003</v>
+        <v>86.954862500000004</v>
       </c>
       <c r="C15" s="2">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="D15" s="2">
-        <v>776.78</v>
+        <v>802.89070000000004</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>0.2403941</v>
+        <v>93.672571200000007</v>
       </c>
       <c r="C16" s="3">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="D16" s="3">
-        <v>201.10210000000001</v>
+        <v>3055.7734</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -13411,13 +13278,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>0.54455880000000001</v>
+        <v>97.5570637</v>
       </c>
       <c r="C17" s="2">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="D17" s="2">
-        <v>201.10409999999999</v>
+        <v>2879.0515</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -13426,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
@@ -13437,22 +13304,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>2.6923298</v>
+        <v>103.52732999999999</v>
       </c>
       <c r="C18" s="3">
-        <v>8000</v>
+        <v>3005</v>
       </c>
       <c r="D18" s="3">
-        <v>545.30409999999995</v>
+        <v>3882.8951000000002</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -13463,22 +13330,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>3.4255580999999999</v>
+        <v>107.46171889999999</v>
       </c>
       <c r="C19" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D19" s="2">
-        <v>550.17970000000003</v>
+        <v>1457.3202000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
@@ -13489,22 +13356,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>4.8426853999999997</v>
+        <v>116.64434679999999</v>
       </c>
       <c r="C20" s="3">
-        <v>2800</v>
+        <v>5500</v>
       </c>
       <c r="D20" s="3">
-        <v>985.61329999999998</v>
+        <v>1374.2177999999999</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -13515,22 +13382,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>8.4050828000000006</v>
+        <v>124.90264500000001</v>
       </c>
       <c r="C21" s="2">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="D21" s="2">
-        <v>1665.4521999999999</v>
+        <v>1949.8081999999999</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>9</v>
@@ -13541,13 +13408,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>14.639556000000001</v>
+        <v>128.4911559</v>
       </c>
       <c r="C22" s="3">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="D22" s="3">
-        <v>3991.5046000000002</v>
+        <v>1091.5721000000001</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -13567,13 +13434,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>21.948540000000001</v>
+        <v>131.739351</v>
       </c>
       <c r="C23" s="2">
-        <v>8000</v>
+        <v>1600</v>
       </c>
       <c r="D23" s="2">
-        <v>2629.1017000000002</v>
+        <v>503.15249999999997</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -13592,287 +13459,133 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
-        <v>30.2565949</v>
-      </c>
-      <c r="C24" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5484.3118000000004</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>33.929233799999999</v>
-      </c>
-      <c r="C25" s="2">
-        <v>11000</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3021.2336</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>3</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
-        <v>45.496198299999996</v>
-      </c>
-      <c r="C26" s="3">
-        <v>11000</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1203.3868</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>52.811874100000004</v>
-      </c>
-      <c r="C27" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2505.5677999999998</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>4</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
-        <v>54.815838300000003</v>
-      </c>
-      <c r="C28" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1722.3297</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>4</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>63.311637499999996</v>
-      </c>
-      <c r="C29" s="2">
-        <v>11000</v>
-      </c>
-      <c r="D29" s="2">
-        <v>3688.5900999999999</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>4</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6">
-        <v>68.2353126</v>
-      </c>
-      <c r="C30" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1435.6901</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>4</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>75.899794700000001</v>
-      </c>
-      <c r="C31" s="2">
-        <v>9000</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2787.6246999999998</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>4</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
-        <v>81.997514600000002</v>
-      </c>
-      <c r="C32" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2220.9801000000002</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>88.967765700000001</v>
-      </c>
-      <c r="C33" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D33" s="2">
-        <v>4168.4322000000002</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>4</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
-        <v>92.432491200000001</v>
-      </c>
-      <c r="C34" s="3">
-        <v>9000</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1540.6255000000001</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>4</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -722,13 +722,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>47.9538498</v>
+        <v>40.943219800000001</v>
       </c>
       <c r="C9" s="2">
-        <v>6300</v>
+        <v>3000</v>
       </c>
       <c r="D9" s="2">
-        <v>3915.8877000000002</v>
+        <v>3194.0126</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>9</v>
@@ -748,22 +748,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>54.633147100000002</v>
+        <v>47.9538498</v>
       </c>
       <c r="C10" s="3">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="D10" s="3">
-        <v>541.99950000000001</v>
+        <v>3915.8877000000002</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -774,22 +774,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>62.119838700000003</v>
+        <v>54.633147100000002</v>
       </c>
       <c r="C11" s="2">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="D11" s="2">
-        <v>1214.2593999999999</v>
+        <v>541.99950000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>9</v>
@@ -800,22 +800,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>66.018515500000007</v>
+        <v>62.119838700000003</v>
       </c>
       <c r="C12" s="3">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="D12" s="3">
-        <v>685.18119999999999</v>
+        <v>1214.2593999999999</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
@@ -826,22 +826,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>73.054208599999995</v>
+        <v>66.018515500000007</v>
       </c>
       <c r="C13" s="2">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="D13" s="2">
-        <v>2547.8537999999999</v>
+        <v>685.18119999999999</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>9</v>
@@ -852,13 +852,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>82.299369299999995</v>
+        <v>73.054208599999995</v>
       </c>
       <c r="C14" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D14" s="3">
-        <v>949.73429999999996</v>
+        <v>2547.8537999999999</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -878,25 +878,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>86.151971799999998</v>
+        <v>82.299369299999995</v>
       </c>
       <c r="C15" s="2">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="D15" s="2">
-        <v>802.89070000000004</v>
+        <v>949.73429999999996</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -904,25 +904,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>90.616797800000001</v>
+        <v>86.151971799999998</v>
       </c>
       <c r="C16" s="3">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="D16" s="3">
-        <v>3055.7734</v>
+        <v>802.89070000000004</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -930,22 +930,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>94.678012199999998</v>
+        <v>90.616797800000001</v>
       </c>
       <c r="C17" s="2">
         <v>3500</v>
       </c>
       <c r="D17" s="2">
-        <v>2879.0515</v>
+        <v>3055.7734</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>9</v>
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>9</v>
@@ -13070,13 +13070,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>51.869737499999999</v>
+        <v>44.137232400000002</v>
       </c>
       <c r="C9" s="2">
-        <v>6300</v>
+        <v>3000</v>
       </c>
       <c r="D9" s="2">
-        <v>3915.8877000000002</v>
+        <v>3194.0126</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>9</v>
@@ -13096,22 +13096,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>55.175146600000005</v>
+        <v>51.869737499999999</v>
       </c>
       <c r="C10" s="3">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="D10" s="3">
-        <v>541.99950000000001</v>
+        <v>3915.8877000000002</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -13122,22 +13122,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>63.334098100000006</v>
+        <v>55.175146600000005</v>
       </c>
       <c r="C11" s="2">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="D11" s="2">
-        <v>1214.2593999999999</v>
+        <v>541.99950000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>9</v>
@@ -13148,22 +13148,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>66.703696700000009</v>
+        <v>63.334098100000006</v>
       </c>
       <c r="C12" s="3">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="D12" s="3">
-        <v>685.18119999999999</v>
+        <v>1214.2593999999999</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
@@ -13174,22 +13174,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>75.602062399999994</v>
+        <v>66.703696700000009</v>
       </c>
       <c r="C13" s="2">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="D13" s="2">
-        <v>2547.8537999999999</v>
+        <v>685.18119999999999</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>9</v>
@@ -13200,13 +13200,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>83.249103599999998</v>
+        <v>75.602062399999994</v>
       </c>
       <c r="C14" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D14" s="3">
-        <v>949.73429999999996</v>
+        <v>2547.8537999999999</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -13215,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -13226,25 +13226,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>86.954862500000004</v>
+        <v>83.249103599999998</v>
       </c>
       <c r="C15" s="2">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="D15" s="2">
-        <v>802.89070000000004</v>
+        <v>949.73429999999996</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13252,25 +13252,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>93.672571200000007</v>
+        <v>86.954862500000004</v>
       </c>
       <c r="C16" s="3">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="D16" s="3">
-        <v>3055.7734</v>
+        <v>802.89070000000004</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13278,22 +13278,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>97.5570637</v>
+        <v>93.672571200000007</v>
       </c>
       <c r="C17" s="2">
         <v>3500</v>
       </c>
       <c r="D17" s="2">
-        <v>2879.0515</v>
+        <v>3055.7734</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
@@ -13371,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>9</v>
@@ -13423,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -13449,7 +13449,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>9</v>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="12">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,10 +63,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDK</t>
+    <t>D2K</t>
   </si>
   <si>
-    <t>ID1K</t>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>D1K</t>
   </si>
 </sst>
 </file>
@@ -566,13 +569,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>2.7315109</v>
+        <v>315.82702719999997</v>
       </c>
       <c r="C3" s="2">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="D3" s="2">
-        <v>707.57640000000004</v>
+        <v>1090.2258999999999</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -592,13 +595,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>5.0144245999999999</v>
+        <v>323.18500449999999</v>
       </c>
       <c r="C4" s="3">
-        <v>1100</v>
+        <v>6000</v>
       </c>
       <c r="D4" s="3">
-        <v>2369.0355</v>
+        <v>2200.0292880000002</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -618,16 +621,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>8.2674683000000009</v>
+        <v>328.26534179999999</v>
       </c>
       <c r="C5" s="2">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="D5" s="2">
-        <v>2519.5684000000001</v>
+        <v>1103.7359019999999</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -644,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>14.3430044</v>
+        <v>333.04802430000001</v>
       </c>
       <c r="C6" s="3">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D6" s="3">
-        <v>1991.6749</v>
+        <v>2348.8677659999998</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -670,13 +673,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>20.729054999999999</v>
+        <v>337.14515280000001</v>
       </c>
       <c r="C7" s="2">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="D7" s="2">
-        <v>2655.1012999999998</v>
+        <v>2382.3050739999999</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -696,13 +699,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>32.202329200000001</v>
+        <v>340.62893689999999</v>
       </c>
       <c r="C8" s="3">
         <v>6000</v>
       </c>
       <c r="D8" s="3">
-        <v>1200.4354000000001</v>
+        <v>1427.9218069999999</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -722,22 +725,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>40.943219800000001</v>
+        <v>350.58183170000001</v>
       </c>
       <c r="C9" s="2">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D9" s="2">
-        <v>3194.0126</v>
+        <v>5639.2388769999998</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>9</v>
@@ -748,16 +751,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>47.9538498</v>
+        <v>357.63409569999999</v>
       </c>
       <c r="C10" s="3">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="D10" s="3">
-        <v>3915.8877000000002</v>
+        <v>2182.8478490000002</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -774,16 +777,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>54.633147100000002</v>
+        <v>368.89917830000002</v>
       </c>
       <c r="C11" s="2">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="D11" s="2">
-        <v>541.99950000000001</v>
+        <v>1463.0468960000001</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -800,13 +803,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>62.119838700000003</v>
+        <v>371.81944529999998</v>
       </c>
       <c r="C12" s="3">
         <v>6000</v>
       </c>
       <c r="D12" s="3">
-        <v>1214.2593999999999</v>
+        <v>2180.2593609999999</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -815,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -826,25 +829,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>66.018515500000007</v>
+        <v>374.77300600000001</v>
       </c>
       <c r="C13" s="2">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="D13" s="2">
-        <v>685.18119999999999</v>
+        <v>2921.4195370000002</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -852,25 +855,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>73.054208599999995</v>
+        <v>390.94885740000001</v>
       </c>
       <c r="C14" s="3">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="D14" s="3">
-        <v>2547.8537999999999</v>
+        <v>988.26182600000004</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -878,25 +881,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>82.299369299999995</v>
+        <v>397.0954102</v>
       </c>
       <c r="C15" s="2">
         <v>6000</v>
       </c>
       <c r="D15" s="2">
-        <v>949.73429999999996</v>
+        <v>3323.8994440000001</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -904,22 +907,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>86.151971799999998</v>
+        <v>401.55492179999999</v>
       </c>
       <c r="C16" s="3">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="D16" s="3">
-        <v>802.89070000000004</v>
+        <v>2430.9535099999998</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
@@ -930,25 +933,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>90.616797800000001</v>
+        <v>405.89882299999999</v>
       </c>
       <c r="C17" s="2">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="D17" s="2">
-        <v>3055.7734</v>
+        <v>1135.909216</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -956,13 +959,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>99.644434899999993</v>
+        <v>407.36734760000002</v>
       </c>
       <c r="C18" s="3">
-        <v>3005</v>
+        <v>6000</v>
       </c>
       <c r="D18" s="3">
-        <v>3882.8951000000002</v>
+        <v>1646.3715790000001</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -971,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -982,25 +985,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>106.0043987</v>
+        <v>413.80403200000001</v>
       </c>
       <c r="C19" s="2">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="D19" s="2">
-        <v>1457.3202000000001</v>
+        <v>3782.981237</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1008,25 +1011,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>115.270129</v>
+        <v>420.6593527</v>
       </c>
       <c r="C20" s="3">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="D20" s="3">
-        <v>1374.2177999999999</v>
+        <v>5321.484332</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1034,25 +1037,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>122.9528368</v>
+        <v>432.74724830000002</v>
       </c>
       <c r="C21" s="2">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="D21" s="2">
-        <v>1949.8081999999999</v>
+        <v>2561.0439000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1060,25 +1063,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>127.3995838</v>
+        <v>438.41537110000002</v>
       </c>
       <c r="C22" s="3">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="D22" s="3">
-        <v>1091.5721000000001</v>
+        <v>802.12450000000001</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1086,13 +1089,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>131.2361985</v>
+        <v>446.35865749999999</v>
       </c>
       <c r="C23" s="2">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="D23" s="2">
-        <v>503.15249999999997</v>
+        <v>1021.1006</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1101,491 +1104,1051 @@
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="B24" s="6">
+        <v>452.57836200000003</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2570.5383000000002</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="B25" s="5">
+        <v>456.11954609999998</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2886.2013999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="6">
+        <v>459.36926949999997</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1286.4772</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="5">
+        <v>464.07863279999998</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1256.7506000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="B28" s="6">
+        <v>471.5684948</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1679.9512</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="5">
+        <v>475.58138750000001</v>
+      </c>
+      <c r="C29" s="2">
+        <v>9000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>948.42340000000002</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="B30" s="6">
+        <v>483.45363320000001</v>
+      </c>
+      <c r="C30" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1035.4353000000001</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="B31" s="5">
+        <v>486.16280419999998</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2392.0468000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="B32" s="6">
+        <v>490.23304189999999</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3619.3011999999999</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="B33" s="5">
+        <v>495.19429450000001</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1177.1618000000001</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="B34" s="6">
+        <v>498.39571860000001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1063.4332999999999</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>6</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="B35" s="5">
+        <v>505.15790909999998</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2261.4294</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>6</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="B36" s="6">
+        <v>511.60539490000002</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1749.5124000000001</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="B37" s="5">
+        <v>514.08002069999998</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5056.1396999999997</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="B38" s="6">
+        <v>525.29356710000002</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2789.3631999999998</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>6</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="B39" s="5">
+        <v>539.43672730000003</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4256.3141999999998</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>6</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="B40" s="6">
+        <v>547.10153790000004</v>
+      </c>
+      <c r="C40" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1056.1876</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>6</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="B41" s="5">
+        <v>556.78064959999995</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3331.25</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="B42" s="6">
+        <v>564.19926239999995</v>
+      </c>
+      <c r="C42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3347.7516000000001</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="B43" s="5">
+        <v>577.3539194</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5047.2678999999998</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="B44" s="6">
+        <v>584.80967480000004</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5784.6103000000003</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="B45" s="5">
+        <v>594.40891429999999</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>747.01620000000003</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="B46" s="6">
+        <v>599.45310129999996</v>
+      </c>
+      <c r="C46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D46" s="3">
+        <v>943.44730000000004</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>6</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="B47" s="5">
+        <v>602.49928239999997</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2495.1747999999998</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>7</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="B48" s="6">
+        <v>618.57127149999997</v>
+      </c>
+      <c r="C48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1097.4061999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="B49" s="5">
+        <v>622.33666149999999</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1560.3327999999999</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>7</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="B50" s="6">
+        <v>625.61895660000005</v>
+      </c>
+      <c r="C50" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2593.3971000000001</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>7</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="B51" s="5">
+        <v>628.82230879999997</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1921.0836999999999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>7</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="B52" s="6">
+        <v>636.13449909999997</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4754.28</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="B53" s="5">
+        <v>644.37840740000001</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2746.0335</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="B54" s="6">
+        <v>647.84808190000001</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D54" s="3">
+        <v>7341.6742000000004</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="B55" s="5">
+        <v>668.55842280000002</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1787.0331000000001</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="B56" s="6">
+        <v>686.97661889999995</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2475.5034000000001</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>9</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="B57" s="5">
+        <v>690.98983599999997</v>
+      </c>
+      <c r="C57" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4270.0219999999999</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>9</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="B58" s="6">
+        <v>695.91721150000001</v>
+      </c>
+      <c r="C58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2483.5753</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>9</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="B59" s="5">
+        <v>706.61747430000003</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2988.2426</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>10</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="B60" s="6">
+        <v>713.66087619999996</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3804.2375000000002</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="B61" s="5">
+        <v>720.94970990000002</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2589.1632</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>10</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="B62" s="6">
+        <v>726.0277476</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D62" s="3">
+        <v>4043.2195000000002</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="B63" s="5">
+        <v>732.49868690000005</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D63" s="2">
+        <v>820.68610000000001</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>10</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
@@ -12914,13 +13477,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>3.4390872999999997</v>
+        <v>316.91725309999998</v>
       </c>
       <c r="C3" s="2">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="D3" s="2">
-        <v>707.57640000000004</v>
+        <v>1090.2258999999999</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -12940,13 +13503,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>7.3834600999999997</v>
+        <v>325.38503378799999</v>
       </c>
       <c r="C4" s="3">
-        <v>1100</v>
+        <v>6000</v>
       </c>
       <c r="D4" s="3">
-        <v>2369.0355</v>
+        <v>2200.0292880000002</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -12966,16 +13529,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>10.787036700000002</v>
+        <v>329.36907770199997</v>
       </c>
       <c r="C5" s="2">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="D5" s="2">
-        <v>2519.5684000000001</v>
+        <v>1103.7359019999999</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -12992,16 +13555,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>16.334679300000001</v>
+        <v>335.39689206600002</v>
       </c>
       <c r="C6" s="3">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D6" s="3">
-        <v>1991.6749</v>
+        <v>2348.8677659999998</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -13018,13 +13581,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>23.384156299999997</v>
+        <v>339.52745787399999</v>
       </c>
       <c r="C7" s="2">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="D7" s="2">
-        <v>2655.1012999999998</v>
+        <v>2382.3050739999999</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -13044,13 +13607,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>33.402764600000005</v>
+        <v>342.056858707</v>
       </c>
       <c r="C8" s="3">
         <v>6000</v>
       </c>
       <c r="D8" s="3">
-        <v>1200.4354000000001</v>
+        <v>1427.9218069999999</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -13070,22 +13633,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>44.137232400000002</v>
+        <v>356.22107057700003</v>
       </c>
       <c r="C9" s="2">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D9" s="2">
-        <v>3194.0126</v>
+        <v>5639.2388769999998</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>9</v>
@@ -13096,16 +13659,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>51.869737499999999</v>
+        <v>359.81694354899997</v>
       </c>
       <c r="C10" s="3">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="D10" s="3">
-        <v>3915.8877000000002</v>
+        <v>2182.8478490000002</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -13122,16 +13685,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>55.175146600000005</v>
+        <v>370.362225196</v>
       </c>
       <c r="C11" s="2">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="D11" s="2">
-        <v>541.99950000000001</v>
+        <v>1463.0468960000001</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -13148,13 +13711,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>63.334098100000006</v>
+        <v>373.99970466100001</v>
       </c>
       <c r="C12" s="3">
         <v>6000</v>
       </c>
       <c r="D12" s="3">
-        <v>1214.2593999999999</v>
+        <v>2180.2593609999999</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -13163,10 +13726,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13174,25 +13737,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>66.703696700000009</v>
+        <v>377.69442553700003</v>
       </c>
       <c r="C13" s="2">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="D13" s="2">
-        <v>685.18119999999999</v>
+        <v>2921.4195370000002</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13200,25 +13763,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>75.602062399999994</v>
+        <v>391.93711922599999</v>
       </c>
       <c r="C14" s="3">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="D14" s="3">
-        <v>2547.8537999999999</v>
+        <v>988.26182600000004</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13226,25 +13789,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>83.249103599999998</v>
+        <v>400.41930964400001</v>
       </c>
       <c r="C15" s="2">
         <v>6000</v>
       </c>
       <c r="D15" s="2">
-        <v>949.73429999999996</v>
+        <v>3323.8994440000001</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13252,22 +13815,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>86.954862500000004</v>
+        <v>403.98587530999998</v>
       </c>
       <c r="C16" s="3">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="D16" s="3">
-        <v>802.89070000000004</v>
+        <v>2430.9535099999998</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
@@ -13278,25 +13841,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>93.672571200000007</v>
+        <v>407.03473221600001</v>
       </c>
       <c r="C17" s="2">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="D17" s="2">
-        <v>3055.7734</v>
+        <v>1135.909216</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13304,13 +13867,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>103.52732999999999</v>
+        <v>409.01371917900002</v>
       </c>
       <c r="C18" s="3">
-        <v>3005</v>
+        <v>6000</v>
       </c>
       <c r="D18" s="3">
-        <v>3882.8951000000002</v>
+        <v>1646.3715790000001</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -13319,10 +13882,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13330,25 +13893,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>107.46171889999999</v>
+        <v>417.58701323700001</v>
       </c>
       <c r="C19" s="2">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="D19" s="2">
-        <v>1457.3202000000001</v>
+        <v>3782.981237</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13356,25 +13919,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>116.64434679999999</v>
+        <v>425.98083703200001</v>
       </c>
       <c r="C20" s="3">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="D20" s="3">
-        <v>1374.2177999999999</v>
+        <v>5321.484332</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13382,25 +13945,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>124.90264500000001</v>
+        <v>435.30829220000004</v>
       </c>
       <c r="C21" s="2">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="D21" s="2">
-        <v>1949.8081999999999</v>
+        <v>2561.0439000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13408,25 +13971,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>128.4911559</v>
+        <v>439.21749560000001</v>
       </c>
       <c r="C22" s="3">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="D22" s="3">
-        <v>1091.5721000000001</v>
+        <v>802.12450000000001</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13434,13 +13997,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>131.739351</v>
+        <v>447.3797581</v>
       </c>
       <c r="C23" s="2">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="D23" s="2">
-        <v>503.15249999999997</v>
+        <v>1021.1006</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -13449,491 +14012,1051 @@
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="B24" s="6">
+        <v>455.14890030000004</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2570.5383000000002</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="B25" s="5">
+        <v>459.00574749999998</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2886.2013999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="6">
+        <v>460.65574669999995</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1286.4772</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="5">
+        <v>465.33538339999996</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1256.7506000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="B28" s="6">
+        <v>473.248446</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1679.9512</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="5">
+        <v>476.52981090000003</v>
+      </c>
+      <c r="C29" s="2">
+        <v>9000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>948.42340000000002</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="B30" s="6">
+        <v>484.48906850000003</v>
+      </c>
+      <c r="C30" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1035.4353000000001</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="B31" s="5">
+        <v>488.55485099999999</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2392.0468000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="B32" s="6">
+        <v>493.85234309999998</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3619.3011999999999</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="B33" s="5">
+        <v>496.37145630000003</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1177.1618000000001</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="B34" s="6">
+        <v>499.45915189999999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1063.4332999999999</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>6</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="B35" s="5">
+        <v>507.41933849999998</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2261.4294</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>6</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="B36" s="6">
+        <v>513.35490730000004</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1749.5124000000001</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="B37" s="5">
+        <v>519.13616039999999</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5056.1396999999997</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="B38" s="6">
+        <v>528.08293030000004</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2789.3631999999998</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>6</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="B39" s="5">
+        <v>543.69304150000005</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4256.3141999999998</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>6</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="B40" s="6">
+        <v>548.15772550000008</v>
+      </c>
+      <c r="C40" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1056.1876</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>6</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="B41" s="5">
+        <v>560.1118995999999</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3331.25</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="B42" s="6">
+        <v>567.54701399999999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3347.7516000000001</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="B43" s="5">
+        <v>582.40118729999995</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5047.2678999999998</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="B44" s="6">
+        <v>590.59428510000009</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5784.6103000000003</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="B45" s="5">
+        <v>595.15593049999995</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>747.01620000000003</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="B46" s="6">
+        <v>600.39654859999996</v>
+      </c>
+      <c r="C46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D46" s="3">
+        <v>943.44730000000004</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>6</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="B47" s="5">
+        <v>604.99445719999994</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2495.1747999999998</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>7</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="B48" s="6">
+        <v>619.66867769999999</v>
+      </c>
+      <c r="C48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1097.4061999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="B49" s="5">
+        <v>623.89699429999996</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1560.3327999999999</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>7</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="B50" s="6">
+        <v>628.21235369999999</v>
+      </c>
+      <c r="C50" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2593.3971000000001</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>7</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="B51" s="5">
+        <v>630.74339250000003</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1921.0836999999999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>7</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="B52" s="6">
+        <v>640.88877909999997</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4754.28</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="B53" s="5">
+        <v>647.12444089999997</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2746.0335</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="B54" s="6">
+        <v>655.18975610000007</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D54" s="3">
+        <v>7341.6742000000004</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="B55" s="5">
+        <v>670.34545590000005</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1787.0331000000001</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="B56" s="6">
+        <v>689.45212229999993</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2475.5034000000001</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>9</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="B57" s="5">
+        <v>695.25985800000001</v>
+      </c>
+      <c r="C57" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4270.0219999999999</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>9</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="B58" s="6">
+        <v>698.40078679999999</v>
+      </c>
+      <c r="C58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2483.5753</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>9</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="B59" s="5">
+        <v>709.60571690000006</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2988.2426</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>10</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="B60" s="6">
+        <v>717.46511369999996</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3804.2375000000002</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="B61" s="5">
+        <v>723.53887310000005</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2589.1632</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>10</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="B62" s="6">
+        <v>730.07096709999996</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D62" s="3">
+        <v>4043.2195000000002</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="B63" s="5">
+        <v>733.31937300000004</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D63" s="2">
+        <v>820.68610000000001</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>10</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="14">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,13 +63,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D2K</t>
+    <t>IDK</t>
   </si>
   <si>
-    <t>DK</t>
+    <t>IYDK</t>
   </si>
   <si>
-    <t>D1K</t>
+    <t>ID1K</t>
+  </si>
+  <si>
+    <t>ID2K</t>
+  </si>
+  <si>
+    <t>IYD2K</t>
   </si>
 </sst>
 </file>
@@ -512,8 +518,8 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,13 +575,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>315.82702719999997</v>
+        <v>2.7315109</v>
       </c>
       <c r="C3" s="2">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="D3" s="2">
-        <v>1090.2258999999999</v>
+        <v>707.57640000000004</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -595,13 +601,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>323.18500449999999</v>
+        <v>5.0144245999999999</v>
       </c>
       <c r="C4" s="3">
-        <v>6000</v>
+        <v>1100</v>
       </c>
       <c r="D4" s="3">
-        <v>2200.0292880000002</v>
+        <v>2369.0355</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -621,16 +627,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>328.26534179999999</v>
+        <v>8.2674683000000009</v>
       </c>
       <c r="C5" s="2">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="D5" s="2">
-        <v>1103.7359019999999</v>
+        <v>2519.5684000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -647,16 +653,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>333.04802430000001</v>
+        <v>14.3430044</v>
       </c>
       <c r="C6" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="D6" s="3">
-        <v>2348.8677659999998</v>
+        <v>1991.6749</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -673,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>337.14515280000001</v>
+        <v>20.729054999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="D7" s="2">
-        <v>2382.3050739999999</v>
+        <v>2655.1012999999998</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -699,13 +705,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>340.62893689999999</v>
+        <v>32.202329200000001</v>
       </c>
       <c r="C8" s="3">
         <v>6000</v>
       </c>
       <c r="D8" s="3">
-        <v>1427.9218069999999</v>
+        <v>1200.4354000000001</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -725,25 +731,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>350.58183170000001</v>
+        <v>40.964008499999998</v>
       </c>
       <c r="C9" s="2">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="D9" s="2">
-        <v>5639.2388769999998</v>
+        <v>3194.0131000000001</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -751,16 +757,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>357.63409569999999</v>
+        <v>47.729275999999999</v>
       </c>
       <c r="C10" s="3">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="D10" s="3">
-        <v>2182.8478490000002</v>
+        <v>4201.3130000000001</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -769,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -777,16 +783,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>368.89917830000002</v>
+        <v>54.570941900000001</v>
       </c>
       <c r="C11" s="2">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="D11" s="2">
-        <v>1463.0468960000001</v>
+        <v>666.39940000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -795,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -803,13 +809,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>371.81944529999998</v>
+        <v>62.053759900000003</v>
       </c>
       <c r="C12" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="D12" s="3">
-        <v>2180.2593609999999</v>
+        <v>1346.4043999999999</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -821,7 +827,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -829,25 +835,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>374.77300600000001</v>
+        <v>65.9509951</v>
       </c>
       <c r="C13" s="2">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="D13" s="2">
-        <v>2921.4195370000002</v>
+        <v>820.20129999999995</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -855,25 +861,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>390.94885740000001</v>
+        <v>72.953899500000006</v>
       </c>
       <c r="C14" s="3">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D14" s="3">
-        <v>988.26182600000004</v>
+        <v>2747.8537999999999</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -881,25 +887,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>397.0954102</v>
+        <v>82.160550000000001</v>
       </c>
       <c r="C15" s="2">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="D15" s="2">
-        <v>3323.8994440000001</v>
+        <v>1227.1678999999999</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -907,25 +913,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>401.55492179999999</v>
+        <v>86.069939599999998</v>
       </c>
       <c r="C16" s="3">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="D16" s="3">
-        <v>2430.9535099999998</v>
+        <v>967.00210000000004</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -933,25 +939,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>405.89882299999999</v>
+        <v>90.616798000000003</v>
       </c>
       <c r="C17" s="2">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="D17" s="2">
-        <v>1135.909216</v>
+        <v>3055.7734</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -959,13 +965,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>407.36734760000002</v>
+        <v>94.678012199999998</v>
       </c>
       <c r="C18" s="3">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="D18" s="3">
-        <v>1646.3715790000001</v>
+        <v>2879.0515</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -974,10 +980,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -985,13 +991,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>413.80403200000001</v>
+        <v>99.644434899999993</v>
       </c>
       <c r="C19" s="2">
-        <v>9000</v>
+        <v>3005</v>
       </c>
       <c r="D19" s="2">
-        <v>3782.981237</v>
+        <v>3882.8951000000002</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1000,10 +1006,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1011,13 +1017,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>420.6593527</v>
+        <v>106.0043987</v>
       </c>
       <c r="C20" s="3">
         <v>6000</v>
       </c>
       <c r="D20" s="3">
-        <v>5321.484332</v>
+        <v>1457.3202000000001</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1026,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1037,25 +1043,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>432.74724830000002</v>
+        <v>108.3148882</v>
       </c>
       <c r="C21" s="2">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="D21" s="2">
-        <v>2561.0439000000001</v>
+        <v>2352.9288000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1063,13 +1069,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>438.41537110000002</v>
+        <v>124.93509640000001</v>
       </c>
       <c r="C22" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="D22" s="3">
-        <v>802.12450000000001</v>
+        <v>1650.0183</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1078,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1089,13 +1095,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>446.35865749999999</v>
+        <v>128.03708950000001</v>
       </c>
       <c r="C23" s="2">
-        <v>7000</v>
+        <v>910</v>
       </c>
       <c r="D23" s="2">
-        <v>1021.1006</v>
+        <v>1649.4653000000001</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1104,10 +1110,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1115,13 +1121,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>452.57836200000003</v>
+        <v>130.31904249999999</v>
       </c>
       <c r="C24" s="3">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="D24" s="3">
-        <v>2570.5383000000002</v>
+        <v>428.86329999999998</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1130,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1141,13 +1147,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>456.11954609999998</v>
+        <v>130.95673679999999</v>
       </c>
       <c r="C25" s="2">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="D25" s="2">
-        <v>2886.2013999999999</v>
+        <v>312.3777</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1156,999 +1162,467 @@
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
-        <v>459.36926949999997</v>
-      </c>
-      <c r="C26" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1286.4772</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>464.07863279999998</v>
-      </c>
-      <c r="C27" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1256.7506000000001</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
-        <v>471.5684948</v>
-      </c>
-      <c r="C28" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1679.9512</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>5</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>475.58138750000001</v>
-      </c>
-      <c r="C29" s="2">
-        <v>9000</v>
-      </c>
-      <c r="D29" s="2">
-        <v>948.42340000000002</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6">
-        <v>483.45363320000001</v>
-      </c>
-      <c r="C30" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1035.4353000000001</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>5</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>486.16280419999998</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2392.0468000000001</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
-        <v>490.23304189999999</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3619.3011999999999</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>495.19429450000001</v>
-      </c>
-      <c r="C33" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1177.1618000000001</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>5</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
-        <v>498.39571860000001</v>
-      </c>
-      <c r="C34" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1063.4332999999999</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>6</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>505.15790909999998</v>
-      </c>
-      <c r="C35" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D35" s="2">
-        <v>2261.4294</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>6</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
-        <v>511.60539490000002</v>
-      </c>
-      <c r="C36" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1749.5124000000001</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>6</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
-        <v>514.08002069999998</v>
-      </c>
-      <c r="C37" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D37" s="2">
-        <v>5056.1396999999997</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>6</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
-        <v>525.29356710000002</v>
-      </c>
-      <c r="C38" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2789.3631999999998</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>6</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>539.43672730000003</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D39" s="2">
-        <v>4256.3141999999998</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2">
-        <v>6</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6">
-        <v>547.10153790000004</v>
-      </c>
-      <c r="C40" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1056.1876</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>6</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>556.78064959999995</v>
-      </c>
-      <c r="C41" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D41" s="2">
-        <v>3331.25</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>6</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
-        <v>564.19926239999995</v>
-      </c>
-      <c r="C42" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D42" s="3">
-        <v>3347.7516000000001</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>577.3539194</v>
-      </c>
-      <c r="C43" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D43" s="2">
-        <v>5047.2678999999998</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>6</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6">
-        <v>584.80967480000004</v>
-      </c>
-      <c r="C44" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D44" s="3">
-        <v>5784.6103000000003</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
-        <v>594.40891429999999</v>
-      </c>
-      <c r="C45" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D45" s="2">
-        <v>747.01620000000003</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2">
-        <v>6</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6">
-        <v>599.45310129999996</v>
-      </c>
-      <c r="C46" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D46" s="3">
-        <v>943.44730000000004</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>6</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
-        <v>602.49928239999997</v>
-      </c>
-      <c r="C47" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2495.1747999999998</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2">
-        <v>7</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6">
-        <v>618.57127149999997</v>
-      </c>
-      <c r="C48" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1097.4061999999999</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
-        <v>622.33666149999999</v>
-      </c>
-      <c r="C49" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1560.3327999999999</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1</v>
-      </c>
-      <c r="G49" s="2">
-        <v>7</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6">
-        <v>625.61895660000005</v>
-      </c>
-      <c r="C50" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2593.3971000000001</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
-        <v>7</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
-        <v>628.82230879999997</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1921.0836999999999</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2">
-        <v>7</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6">
-        <v>636.13449909999997</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D52" s="3">
-        <v>4754.28</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
-        <v>644.37840740000001</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2746.0335</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2">
-        <v>8</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6">
-        <v>647.84808190000001</v>
-      </c>
-      <c r="C54" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D54" s="3">
-        <v>7341.6742000000004</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
-        <v>668.55842280000002</v>
-      </c>
-      <c r="C55" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1787.0331000000001</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
-        <v>1</v>
-      </c>
-      <c r="G55" s="2">
-        <v>8</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6">
-        <v>686.97661889999995</v>
-      </c>
-      <c r="C56" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D56" s="3">
-        <v>2475.5034000000001</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>9</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
-        <v>690.98983599999997</v>
-      </c>
-      <c r="C57" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D57" s="2">
-        <v>4270.0219999999999</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
-      <c r="G57" s="2">
-        <v>9</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6">
-        <v>695.91721150000001</v>
-      </c>
-      <c r="C58" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2483.5753</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>9</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
-        <v>706.61747430000003</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D59" s="2">
-        <v>2988.2426</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>1</v>
-      </c>
-      <c r="G59" s="2">
-        <v>10</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6">
-        <v>713.66087619999996</v>
-      </c>
-      <c r="C60" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D60" s="3">
-        <v>3804.2375000000002</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>10</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
-        <v>720.94970990000002</v>
-      </c>
-      <c r="C61" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2589.1632</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2">
-        <v>1</v>
-      </c>
-      <c r="G61" s="2">
-        <v>10</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6">
-        <v>726.0277476</v>
-      </c>
-      <c r="C62" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D62" s="3">
-        <v>4043.2195000000002</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
-        <v>732.49868690000005</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D63" s="2">
-        <v>820.68610000000001</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1</v>
-      </c>
-      <c r="G63" s="2">
-        <v>10</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
@@ -13477,13 +12951,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>316.91725309999998</v>
+        <v>3.4390872999999997</v>
       </c>
       <c r="C3" s="2">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="D3" s="2">
-        <v>1090.2258999999999</v>
+        <v>707.57640000000004</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -13503,13 +12977,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>325.38503378799999</v>
+        <v>7.3834600999999997</v>
       </c>
       <c r="C4" s="3">
-        <v>6000</v>
+        <v>1100</v>
       </c>
       <c r="D4" s="3">
-        <v>2200.0292880000002</v>
+        <v>2369.0355</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -13529,16 +13003,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>329.36907770199997</v>
+        <v>10.787036700000002</v>
       </c>
       <c r="C5" s="2">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="D5" s="2">
-        <v>1103.7359019999999</v>
+        <v>2519.5684000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -13555,16 +13029,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>335.39689206600002</v>
+        <v>16.334679300000001</v>
       </c>
       <c r="C6" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="D6" s="3">
-        <v>2348.8677659999998</v>
+        <v>1991.6749</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -13581,13 +13055,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>339.52745787399999</v>
+        <v>23.384156299999997</v>
       </c>
       <c r="C7" s="2">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="D7" s="2">
-        <v>2382.3050739999999</v>
+        <v>2655.1012999999998</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -13607,13 +13081,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>342.056858707</v>
+        <v>33.402764600000005</v>
       </c>
       <c r="C8" s="3">
         <v>6000</v>
       </c>
       <c r="D8" s="3">
-        <v>1427.9218069999999</v>
+        <v>1200.4354000000001</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -13633,25 +13107,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>356.22107057700003</v>
+        <v>44.158021599999998</v>
       </c>
       <c r="C9" s="2">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="D9" s="2">
-        <v>5639.2388769999998</v>
+        <v>3194.0131000000001</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13659,16 +13133,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>359.81694354899997</v>
+        <v>51.930588999999998</v>
       </c>
       <c r="C10" s="3">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="D10" s="3">
-        <v>2182.8478490000002</v>
+        <v>4201.3130000000001</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -13677,7 +13151,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13685,16 +13159,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>370.362225196</v>
+        <v>55.237341300000004</v>
       </c>
       <c r="C11" s="2">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="D11" s="2">
-        <v>1463.0468960000001</v>
+        <v>666.39940000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -13703,7 +13177,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13711,13 +13185,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>373.99970466100001</v>
+        <v>63.4001643</v>
       </c>
       <c r="C12" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="D12" s="3">
-        <v>2180.2593609999999</v>
+        <v>1346.4043999999999</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -13729,7 +13203,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13737,25 +13211,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>377.69442553700003</v>
+        <v>66.771196399999994</v>
       </c>
       <c r="C13" s="2">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="D13" s="2">
-        <v>2921.4195370000002</v>
+        <v>820.20129999999995</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13763,25 +13237,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>391.93711922599999</v>
+        <v>75.701753300000007</v>
       </c>
       <c r="C14" s="3">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D14" s="3">
-        <v>988.26182600000004</v>
+        <v>2747.8537999999999</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13789,25 +13263,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>400.41930964400001</v>
+        <v>83.387717899999998</v>
       </c>
       <c r="C15" s="2">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="D15" s="2">
-        <v>3323.8994440000001</v>
+        <v>1227.1678999999999</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13815,25 +13289,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>403.98587530999998</v>
+        <v>87.0369417</v>
       </c>
       <c r="C16" s="3">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="D16" s="3">
-        <v>2430.9535099999998</v>
+        <v>967.00210000000004</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13841,25 +13315,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>407.03473221600001</v>
+        <v>93.67257140000001</v>
       </c>
       <c r="C17" s="2">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="D17" s="2">
-        <v>1135.909216</v>
+        <v>3055.7734</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13867,13 +13341,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>409.01371917900002</v>
+        <v>97.5570637</v>
       </c>
       <c r="C18" s="3">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="D18" s="3">
-        <v>1646.3715790000001</v>
+        <v>2879.0515</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -13882,10 +13356,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13893,13 +13367,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>417.58701323700001</v>
+        <v>103.52732999999999</v>
       </c>
       <c r="C19" s="2">
-        <v>9000</v>
+        <v>3005</v>
       </c>
       <c r="D19" s="2">
-        <v>3782.981237</v>
+        <v>3882.8951000000002</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -13908,10 +13382,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13919,13 +13393,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>425.98083703200001</v>
+        <v>107.46171889999999</v>
       </c>
       <c r="C20" s="3">
         <v>6000</v>
       </c>
       <c r="D20" s="3">
-        <v>5321.484332</v>
+        <v>1457.3202000000001</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -13934,10 +13408,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13945,25 +13419,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>435.30829220000004</v>
+        <v>110.667817</v>
       </c>
       <c r="C21" s="2">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="D21" s="2">
-        <v>2561.0439000000001</v>
+        <v>2352.9288000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13971,13 +13445,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>439.21749560000001</v>
+        <v>126.58511470000001</v>
       </c>
       <c r="C22" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="D22" s="3">
-        <v>802.12450000000001</v>
+        <v>1650.0183</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -13986,10 +13460,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13997,13 +13471,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>447.3797581</v>
+        <v>129.68655480000001</v>
       </c>
       <c r="C23" s="2">
-        <v>7000</v>
+        <v>910</v>
       </c>
       <c r="D23" s="2">
-        <v>1021.1006</v>
+        <v>1649.4653000000001</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -14012,10 +13486,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14023,13 +13497,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>455.14890030000004</v>
+        <v>130.74790579999998</v>
       </c>
       <c r="C24" s="3">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="D24" s="3">
-        <v>2570.5383000000002</v>
+        <v>428.86329999999998</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -14038,10 +13512,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -14049,13 +13523,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>459.00574749999998</v>
+        <v>131.2691145</v>
       </c>
       <c r="C25" s="2">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="D25" s="2">
-        <v>2886.2013999999999</v>
+        <v>312.3777</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -14064,999 +13538,467 @@
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
-        <v>460.65574669999995</v>
-      </c>
-      <c r="C26" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1286.4772</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>465.33538339999996</v>
-      </c>
-      <c r="C27" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1256.7506000000001</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
-        <v>473.248446</v>
-      </c>
-      <c r="C28" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1679.9512</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>5</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>476.52981090000003</v>
-      </c>
-      <c r="C29" s="2">
-        <v>9000</v>
-      </c>
-      <c r="D29" s="2">
-        <v>948.42340000000002</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6">
-        <v>484.48906850000003</v>
-      </c>
-      <c r="C30" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1035.4353000000001</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>5</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>488.55485099999999</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2392.0468000000001</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
-        <v>493.85234309999998</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3619.3011999999999</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>496.37145630000003</v>
-      </c>
-      <c r="C33" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1177.1618000000001</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>5</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
-        <v>499.45915189999999</v>
-      </c>
-      <c r="C34" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1063.4332999999999</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>6</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>507.41933849999998</v>
-      </c>
-      <c r="C35" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D35" s="2">
-        <v>2261.4294</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>6</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
-        <v>513.35490730000004</v>
-      </c>
-      <c r="C36" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1749.5124000000001</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>6</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
-        <v>519.13616039999999</v>
-      </c>
-      <c r="C37" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D37" s="2">
-        <v>5056.1396999999997</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>6</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
-        <v>528.08293030000004</v>
-      </c>
-      <c r="C38" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2789.3631999999998</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>6</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>543.69304150000005</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D39" s="2">
-        <v>4256.3141999999998</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>6</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6">
-        <v>548.15772550000008</v>
-      </c>
-      <c r="C40" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1056.1876</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>6</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>560.1118995999999</v>
-      </c>
-      <c r="C41" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D41" s="2">
-        <v>3331.25</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>6</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
-        <v>567.54701399999999</v>
-      </c>
-      <c r="C42" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D42" s="3">
-        <v>3347.7516000000001</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>582.40118729999995</v>
-      </c>
-      <c r="C43" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D43" s="2">
-        <v>5047.2678999999998</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>6</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6">
-        <v>590.59428510000009</v>
-      </c>
-      <c r="C44" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D44" s="3">
-        <v>5784.6103000000003</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
-        <v>595.15593049999995</v>
-      </c>
-      <c r="C45" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D45" s="2">
-        <v>747.01620000000003</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>6</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6">
-        <v>600.39654859999996</v>
-      </c>
-      <c r="C46" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D46" s="3">
-        <v>943.44730000000004</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>6</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
-        <v>604.99445719999994</v>
-      </c>
-      <c r="C47" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2495.1747999999998</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
-        <v>7</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6">
-        <v>619.66867769999999</v>
-      </c>
-      <c r="C48" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1097.4061999999999</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
-        <v>623.89699429999996</v>
-      </c>
-      <c r="C49" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1560.3327999999999</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
-        <v>7</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6">
-        <v>628.21235369999999</v>
-      </c>
-      <c r="C50" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2593.3971000000001</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>7</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
-        <v>630.74339250000003</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1921.0836999999999</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <v>7</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6">
-        <v>640.88877909999997</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D52" s="3">
-        <v>4754.28</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
-        <v>647.12444089999997</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2746.0335</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>8</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6">
-        <v>655.18975610000007</v>
-      </c>
-      <c r="C54" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D54" s="3">
-        <v>7341.6742000000004</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
-        <v>670.34545590000005</v>
-      </c>
-      <c r="C55" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1787.0331000000001</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <v>8</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6">
-        <v>689.45212229999993</v>
-      </c>
-      <c r="C56" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D56" s="3">
-        <v>2475.5034000000001</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>9</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
-        <v>695.25985800000001</v>
-      </c>
-      <c r="C57" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D57" s="2">
-        <v>4270.0219999999999</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <v>9</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="6">
-        <v>698.40078679999999</v>
-      </c>
-      <c r="C58" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2483.5753</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>9</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
-        <v>709.60571690000006</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D59" s="2">
-        <v>2988.2426</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2">
-        <v>10</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="6">
-        <v>717.46511369999996</v>
-      </c>
-      <c r="C60" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D60" s="3">
-        <v>3804.2375000000002</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>10</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
-        <v>723.53887310000005</v>
-      </c>
-      <c r="C61" s="2">
-        <v>5500</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2589.1632</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2">
-        <v>10</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="6">
-        <v>730.07096709999996</v>
-      </c>
-      <c r="C62" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D62" s="3">
-        <v>4043.2195000000002</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
-        <v>733.31937300000004</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D63" s="2">
-        <v>820.68610000000001</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2">
-        <v>10</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接曲线数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="10">
   <si>
     <t>L(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,19 +63,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDK</t>
-  </si>
-  <si>
-    <t>IYDK</t>
-  </si>
-  <si>
-    <t>ID1K</t>
-  </si>
-  <si>
-    <t>ID2K</t>
-  </si>
-  <si>
-    <t>IYD2K</t>
+    <t>DK</t>
   </si>
 </sst>
 </file>
@@ -575,13 +563,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>2.7315109</v>
+        <v>0.77255189999999996</v>
       </c>
       <c r="C3" s="2">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D3" s="2">
-        <v>707.57640000000004</v>
+        <v>919.99649999999997</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -601,13 +589,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>5.0144245999999999</v>
+        <v>2.1557629999999999</v>
       </c>
       <c r="C4" s="3">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="D4" s="3">
-        <v>2369.0355</v>
+        <v>3152.6615000000002</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -616,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -627,22 +615,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>8.2674683000000009</v>
+        <v>5.6150627000000002</v>
       </c>
       <c r="C5" s="2">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D5" s="2">
-        <v>2519.5684000000001</v>
+        <v>1528.2125000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>9</v>
@@ -653,13 +641,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>14.3430044</v>
+        <v>9.4492785000000001</v>
       </c>
       <c r="C6" s="3">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="D6" s="3">
-        <v>1991.6749</v>
+        <v>890.73699999999997</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -668,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -679,22 +667,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>20.729054999999999</v>
+        <v>12.750872219226901</v>
       </c>
       <c r="C7" s="2">
         <v>3500</v>
       </c>
       <c r="D7" s="2">
-        <v>2655.1012999999998</v>
+        <v>3582.84496087875</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>9</v>
@@ -705,22 +693,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>32.202329200000001</v>
+        <v>17.896902869533498</v>
       </c>
       <c r="C8" s="3">
         <v>6000</v>
       </c>
       <c r="D8" s="3">
-        <v>1200.4354000000001</v>
+        <v>1619.5175947371499</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
@@ -731,16 +719,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>40.964008499999998</v>
+        <v>20.643631173489698</v>
       </c>
       <c r="C9" s="2">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D9" s="2">
-        <v>3194.0131000000001</v>
+        <v>1292.4491834094299</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -749,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -757,13 +745,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>47.729275999999999</v>
+        <v>23.062453257997198</v>
       </c>
       <c r="C10" s="3">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="D10" s="3">
-        <v>4201.3130000000001</v>
+        <v>1874.5924333523601</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -772,10 +760,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -783,13 +771,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>54.570941900000001</v>
+        <v>27.416820010518201</v>
       </c>
       <c r="C11" s="2">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="D11" s="2">
-        <v>666.39940000000001</v>
+        <v>993.57268996461301</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -798,10 +786,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -809,25 +797,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>62.053759900000003</v>
+        <v>30.3972859327395</v>
       </c>
       <c r="C12" s="3">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="D12" s="3">
-        <v>1346.4043999999999</v>
+        <v>1259.1891557956701</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -835,16 +823,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>65.9509951</v>
+        <v>31.9610602536108</v>
       </c>
       <c r="C13" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D13" s="2">
-        <v>820.20129999999995</v>
+        <v>961.08536546307903</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -853,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -861,13 +849,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>72.953899500000006</v>
+        <v>35.748933011356797</v>
       </c>
       <c r="C14" s="3">
         <v>5000</v>
       </c>
       <c r="D14" s="3">
-        <v>2747.8537999999999</v>
+        <v>970.32436241975199</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -876,10 +864,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -887,25 +875,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>82.160550000000001</v>
+        <v>46.009269267102098</v>
       </c>
       <c r="C15" s="2">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="D15" s="2">
-        <v>1227.1678999999999</v>
+        <v>1564.90608504178</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -913,25 +901,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>86.069939599999998</v>
+        <v>48.5348914666816</v>
       </c>
       <c r="C16" s="3">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="D16" s="3">
-        <v>967.00210000000004</v>
+        <v>1421.8681265764301</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -939,22 +927,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>90.616798000000003</v>
+        <v>50.8101026708676</v>
       </c>
       <c r="C17" s="2">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D17" s="2">
-        <v>3055.7734</v>
+        <v>2531.88292218058</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
@@ -965,22 +953,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>94.678012199999998</v>
+        <v>54.122669125968102</v>
       </c>
       <c r="C18" s="3">
         <v>3500</v>
       </c>
       <c r="D18" s="3">
-        <v>2879.0515</v>
+        <v>3474.4795895662701</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -991,13 +979,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>99.644434899999993</v>
+        <v>59.113849596897701</v>
       </c>
       <c r="C19" s="2">
-        <v>3005</v>
+        <v>3500</v>
       </c>
       <c r="D19" s="2">
-        <v>3882.8951000000002</v>
+        <v>2349.56275070948</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1006,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
@@ -1017,13 +1005,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>106.0043987</v>
+        <v>61.920173086630498</v>
       </c>
       <c r="C20" s="3">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="D20" s="3">
-        <v>1457.3202000000001</v>
+        <v>3037.0462858219898</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1032,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -1043,25 +1031,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>108.3148882</v>
+        <v>67.638390636500503</v>
       </c>
       <c r="C21" s="2">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="D21" s="2">
-        <v>2352.9288000000001</v>
+        <v>1016.24317745335</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1069,25 +1057,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>124.93509640000001</v>
+        <v>70.675590582597906</v>
       </c>
       <c r="C22" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="D22" s="3">
-        <v>1650.0183</v>
+        <v>847.83296112760502</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1095,25 +1083,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>128.03708950000001</v>
+        <v>72.982428615112696</v>
       </c>
       <c r="C23" s="2">
-        <v>910</v>
+        <v>4000</v>
       </c>
       <c r="D23" s="2">
-        <v>1649.4653000000001</v>
+        <v>2353.1430368492702</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1121,13 +1109,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>130.31904249999999</v>
+        <v>79.577776181759006</v>
       </c>
       <c r="C24" s="3">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="D24" s="3">
-        <v>428.86329999999998</v>
+        <v>3345.1894759103998</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1136,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1147,13 +1135,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>130.95673679999999</v>
+        <v>89.983250909504605</v>
       </c>
       <c r="C25" s="2">
         <v>4500</v>
       </c>
       <c r="D25" s="2">
-        <v>312.3777</v>
+        <v>1663.92587436182</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1162,83 +1150,167 @@
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="6">
+        <v>92.120341392133895</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1178.7167694127399</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="5">
+        <v>95.554942742797905</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1308.40256546144</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="B28" s="6">
+        <v>100.79443211302799</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1814.6403612485401</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>4</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="5">
+        <v>103.447230975273</v>
+      </c>
+      <c r="C29" s="2">
+        <v>800</v>
+      </c>
+      <c r="D29" s="2">
+        <v>861.98417255417803</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="B30" s="6">
+        <v>105.256689985791</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3200</v>
+      </c>
+      <c r="D30" s="3">
+        <v>197.585099187026</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="B31" s="5">
+        <v>106.07224962640601</v>
+      </c>
+      <c r="C31" s="2">
+        <v>800</v>
+      </c>
+      <c r="D31" s="2">
+        <v>554.59452578217895</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
@@ -12951,13 +13023,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>3.4390872999999997</v>
+        <v>0.54754839999999994</v>
       </c>
       <c r="C3" s="2">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D3" s="2">
-        <v>707.57640000000004</v>
+        <v>919.99649999999997</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -12966,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -12977,13 +13049,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>7.3834600999999997</v>
+        <v>5.3084245000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="D4" s="3">
-        <v>2369.0355</v>
+        <v>3152.6615000000002</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -12992,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -13003,22 +13075,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>10.787036700000002</v>
+        <v>7.1432752000000006</v>
       </c>
       <c r="C5" s="2">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D5" s="2">
-        <v>2519.5684000000001</v>
+        <v>1528.2125000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>9</v>
@@ -13029,13 +13101,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>16.334679300000001</v>
+        <v>10.3400155</v>
       </c>
       <c r="C6" s="3">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="D6" s="3">
-        <v>1991.6749</v>
+        <v>890.73699999999997</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -13044,7 +13116,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -13055,22 +13127,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>23.384156299999997</v>
+        <v>16.333717180105651</v>
       </c>
       <c r="C7" s="2">
         <v>3500</v>
       </c>
       <c r="D7" s="2">
-        <v>2655.1012999999998</v>
+        <v>3582.84496087875</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>9</v>
@@ -13081,22 +13153,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>33.402764600000005</v>
+        <v>19.516420464270649</v>
       </c>
       <c r="C8" s="3">
         <v>6000</v>
       </c>
       <c r="D8" s="3">
-        <v>1200.4354000000001</v>
+        <v>1619.5175947371499</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
@@ -13107,16 +13179,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>44.158021599999998</v>
+        <v>21.936080356899129</v>
       </c>
       <c r="C9" s="2">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D9" s="2">
-        <v>3194.0131000000001</v>
+        <v>1292.4491834094299</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -13125,7 +13197,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13133,13 +13205,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>51.930588999999998</v>
+        <v>24.93704569134956</v>
       </c>
       <c r="C10" s="3">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="D10" s="3">
-        <v>4201.3130000000001</v>
+        <v>1874.5924333523601</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -13148,10 +13220,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13159,13 +13231,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>55.237341300000004</v>
+        <v>28.410392700482813</v>
       </c>
       <c r="C11" s="2">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="D11" s="2">
-        <v>666.39940000000001</v>
+        <v>993.57268996461301</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -13174,10 +13246,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13185,25 +13257,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>63.4001643</v>
+        <v>31.656475088535171</v>
       </c>
       <c r="C12" s="3">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="D12" s="3">
-        <v>1346.4043999999999</v>
+        <v>1259.1891557956701</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13211,16 +13283,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>66.771196399999994</v>
+        <v>32.922145619073881</v>
       </c>
       <c r="C13" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D13" s="2">
-        <v>820.20129999999995</v>
+        <v>961.08536546307903</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -13229,7 +13301,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13237,13 +13309,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>75.701753300000007</v>
+        <v>36.71925737377655</v>
       </c>
       <c r="C14" s="3">
         <v>5000</v>
       </c>
       <c r="D14" s="3">
-        <v>2747.8537999999999</v>
+        <v>970.32436241975199</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -13252,10 +13324,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13263,25 +13335,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>83.387717899999998</v>
+        <v>47.574175352143875</v>
       </c>
       <c r="C15" s="2">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="D15" s="2">
-        <v>1227.1678999999999</v>
+        <v>1564.90608504178</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13289,25 +13361,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>87.0369417</v>
+        <v>49.956759593258028</v>
       </c>
       <c r="C16" s="3">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="D16" s="3">
-        <v>967.00210000000004</v>
+        <v>1421.8681265764301</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13315,22 +13387,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>93.67257140000001</v>
+        <v>53.341985593048179</v>
       </c>
       <c r="C17" s="2">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D17" s="2">
-        <v>3055.7734</v>
+        <v>2531.88292218058</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
@@ -13341,22 +13413,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>97.5570637</v>
+        <v>57.597148715534374</v>
       </c>
       <c r="C18" s="3">
         <v>3500</v>
       </c>
       <c r="D18" s="3">
-        <v>2879.0515</v>
+        <v>3474.4795895662701</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -13367,13 +13439,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>103.52732999999999</v>
+        <v>61.463412347607182</v>
       </c>
       <c r="C19" s="2">
-        <v>3005</v>
+        <v>3500</v>
       </c>
       <c r="D19" s="2">
-        <v>3882.8951000000002</v>
+        <v>2349.56275070948</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -13382,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
@@ -13393,13 +13465,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>107.46171889999999</v>
+        <v>64.957219372452485</v>
       </c>
       <c r="C20" s="3">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="D20" s="3">
-        <v>1457.3202000000001</v>
+        <v>3037.0462858219898</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -13408,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -13419,25 +13491,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>110.667817</v>
+        <v>68.654633813953851</v>
       </c>
       <c r="C21" s="2">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="D21" s="2">
-        <v>2352.9288000000001</v>
+        <v>1016.24317745335</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13445,25 +13517,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>126.58511470000001</v>
+        <v>71.523423543725514</v>
       </c>
       <c r="C22" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="D22" s="3">
-        <v>1650.0183</v>
+        <v>847.83296112760502</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13471,25 +13543,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>129.68655480000001</v>
+        <v>75.33557165196197</v>
       </c>
       <c r="C23" s="2">
-        <v>910</v>
+        <v>4000</v>
       </c>
       <c r="D23" s="2">
-        <v>1649.4653000000001</v>
+        <v>2353.1430368492702</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13497,13 +13569,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>130.74790579999998</v>
+        <v>82.922965657669408</v>
       </c>
       <c r="C24" s="3">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="D24" s="3">
-        <v>428.86329999999998</v>
+        <v>3345.1894759103998</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -13512,10 +13584,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13523,13 +13595,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>131.2691145</v>
+        <v>91.647176783866428</v>
       </c>
       <c r="C25" s="2">
         <v>4500</v>
       </c>
       <c r="D25" s="2">
-        <v>312.3777</v>
+        <v>1663.92587436182</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -13538,83 +13610,167 @@
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="6">
+        <v>93.29905816154664</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1178.7167694127399</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="5">
+        <v>96.863345308259341</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1308.40256546144</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="B28" s="6">
+        <v>102.60907247427653</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1814.6403612485401</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>4</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="5">
+        <v>104.30921514782717</v>
+      </c>
+      <c r="C29" s="2">
+        <v>800</v>
+      </c>
+      <c r="D29" s="2">
+        <v>861.98417255417803</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="B30" s="6">
+        <v>105.45427508497802</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3200</v>
+      </c>
+      <c r="D30" s="3">
+        <v>197.585099187026</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="B31" s="5">
+        <v>106.62684415218818</v>
+      </c>
+      <c r="C31" s="2">
+        <v>800</v>
+      </c>
+      <c r="D31" s="2">
+        <v>554.59452578217895</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
